--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284F610-C797-B146-9914-6163442BCB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1119576-8395-874C-8066-DF75FB2AE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="652">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1952,6 +1952,33 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>doy107: apical bud snapped off, lateral shoot measured</t>
+  </si>
+  <si>
+    <t>doy107: last week measurement is wrong</t>
+  </si>
+  <si>
+    <t>doy107: apical bud might have snapped off</t>
+  </si>
+  <si>
+    <t>doy107: lateral shoot measured</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>doy107:apical meristem dead, looks sick and lateral shoot bursted but not measured</t>
+  </si>
+  <si>
+    <t>doy107: most central one, even if shorter</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2521,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2678,22 +2713,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:G617" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:H617" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="populus"/>
+        <filter val="pinus"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3016,11 +3057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:H617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F630" sqref="F630"/>
+      <selection pane="topRight" activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3031,7 +3072,7 @@
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3053,8 +3094,11 @@
       <c r="G1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3070,8 +3114,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>2.7</v>
+      </c>
+      <c r="H2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3087,8 +3137,14 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3104,8 +3160,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3121,8 +3183,14 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1.4</v>
+      </c>
+      <c r="H5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3138,8 +3206,14 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2.9</v>
+      </c>
+      <c r="H6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3155,8 +3229,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>4.2</v>
+      </c>
+      <c r="H7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3172,8 +3252,14 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3189,8 +3275,14 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>2.4</v>
+      </c>
+      <c r="H9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3206,8 +3298,14 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3223,8 +3321,14 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.9</v>
+      </c>
+      <c r="H11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3240,8 +3344,14 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3257,8 +3367,14 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>2.8</v>
+      </c>
+      <c r="H13">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3274,8 +3390,14 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3291,8 +3413,14 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>2.1</v>
+      </c>
+      <c r="H15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3308,8 +3436,14 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1.6</v>
+      </c>
+      <c r="H16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3325,8 +3459,14 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>3.2</v>
+      </c>
+      <c r="H17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3342,8 +3482,14 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3359,8 +3505,14 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>3.1</v>
+      </c>
+      <c r="H19">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3376,8 +3528,14 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>644</v>
+      </c>
+      <c r="H20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3393,8 +3551,17 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21" t="s">
+        <v>644</v>
+      </c>
+      <c r="H21">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3410,8 +3577,14 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>3.5</v>
+      </c>
+      <c r="H22">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3427,8 +3600,14 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>3.3</v>
+      </c>
+      <c r="H23">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3444,8 +3623,14 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1.6</v>
+      </c>
+      <c r="H24">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3461,8 +3646,14 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>3.2</v>
+      </c>
+      <c r="H25">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3478,8 +3669,14 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>2.7</v>
+      </c>
+      <c r="H26">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3495,8 +3692,14 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>3.2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3512,8 +3715,14 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>2.7</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3529,8 +3738,14 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1.3</v>
+      </c>
+      <c r="H29">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3546,8 +3761,14 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>3.5</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3563,8 +3784,14 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3580,8 +3807,14 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>2.7</v>
+      </c>
+      <c r="H32">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3597,8 +3830,14 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H33">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3614,8 +3853,14 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>2.8</v>
+      </c>
+      <c r="H34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3631,8 +3876,14 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>2.4</v>
+      </c>
+      <c r="H35">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3648,8 +3899,14 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H36">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3665,8 +3922,14 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>2.7</v>
+      </c>
+      <c r="H37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3682,8 +3945,14 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>1.5</v>
+      </c>
+      <c r="H38">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3699,8 +3968,14 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>2.4</v>
+      </c>
+      <c r="H39">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3716,8 +3991,14 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H40">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +4014,14 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3750,8 +4037,14 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>3.4</v>
+      </c>
+      <c r="H42">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3767,8 +4060,14 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H43">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3784,8 +4083,14 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>2.9</v>
+      </c>
+      <c r="H44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3801,8 +4106,14 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>1.4</v>
+      </c>
+      <c r="H45">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3818,8 +4129,14 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +4152,14 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>2.1</v>
+      </c>
+      <c r="H47">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3852,8 +4175,14 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>1.4</v>
+      </c>
+      <c r="H48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3869,8 +4198,14 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H49">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3886,8 +4221,14 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>2.4</v>
+      </c>
+      <c r="H50">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3903,8 +4244,14 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>3.1</v>
+      </c>
+      <c r="H51">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3920,8 +4267,14 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>2.1</v>
+      </c>
+      <c r="H52">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3937,8 +4290,14 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>3.8</v>
+      </c>
+      <c r="H53">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3954,8 +4313,14 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>3.8</v>
+      </c>
+      <c r="H54">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3971,8 +4336,14 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>2.8</v>
+      </c>
+      <c r="H55">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3988,8 +4359,14 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>1.8</v>
+      </c>
+      <c r="H56">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4005,8 +4382,14 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>1.9</v>
+      </c>
+      <c r="H57">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4022,8 +4405,14 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>3.1</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4039,8 +4428,14 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4056,8 +4451,14 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>3.2</v>
+      </c>
+      <c r="H60">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4073,8 +4474,14 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>2.6</v>
+      </c>
+      <c r="H61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4090,8 +4497,14 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>1.7</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4107,8 +4520,14 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4124,8 +4543,14 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>2.4</v>
+      </c>
+      <c r="H64">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4141,8 +4566,14 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>1.6</v>
+      </c>
+      <c r="H65">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4158,8 +4589,14 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>3.8</v>
+      </c>
+      <c r="H66">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4175,8 +4612,14 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>1.8</v>
+      </c>
+      <c r="H67">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4192,8 +4635,14 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>2.1</v>
+      </c>
+      <c r="H68">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4209,8 +4658,14 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>1.7</v>
+      </c>
+      <c r="H69">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4226,8 +4681,14 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>3.4</v>
+      </c>
+      <c r="H70">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4243,8 +4704,14 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4260,8 +4727,14 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H72">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4277,8 +4750,14 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>2.8</v>
+      </c>
+      <c r="H73">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4294,8 +4773,14 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>1.8</v>
+      </c>
+      <c r="H74">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4311,8 +4796,14 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4328,8 +4819,14 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>1.3</v>
+      </c>
+      <c r="H76">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4345,8 +4842,14 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>2.8</v>
+      </c>
+      <c r="H77">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4362,8 +4865,17 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>645</v>
+      </c>
+      <c r="G78">
+        <v>0.4</v>
+      </c>
+      <c r="H78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4379,8 +4891,14 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>2.5</v>
+      </c>
+      <c r="H79">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4396,8 +4914,14 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>1.3</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4413,8 +4937,14 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H81">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4430,8 +4960,14 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>1.9</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4447,8 +4983,14 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>2.8</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4464,8 +5006,14 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H84">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4481,8 +5029,14 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>1.9</v>
+      </c>
+      <c r="H85">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4498,8 +5052,14 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H86">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4515,8 +5075,14 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>2.7</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4532,8 +5098,14 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4549,8 +5121,14 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H89">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4566,8 +5144,14 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>2.4</v>
+      </c>
+      <c r="H90">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4583,8 +5167,14 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>2.8</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4600,8 +5190,11 @@
       <c r="E92" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4617,8 +5210,11 @@
       <c r="E93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4634,8 +5230,11 @@
       <c r="E94" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4651,8 +5250,11 @@
       <c r="E95" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4668,8 +5270,11 @@
       <c r="E96" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4685,8 +5290,11 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4702,8 +5310,11 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4719,8 +5330,11 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4736,8 +5350,11 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4753,8 +5370,11 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4770,8 +5390,11 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4787,8 +5410,11 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4804,8 +5430,11 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4821,8 +5450,11 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4838,8 +5470,11 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4855,8 +5490,11 @@
       <c r="E107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4872,8 +5510,11 @@
       <c r="E108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4889,8 +5530,11 @@
       <c r="E109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -4906,8 +5550,11 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -4923,8 +5570,11 @@
       <c r="E111" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4940,8 +5590,11 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -4957,8 +5610,11 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -4974,8 +5630,11 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4991,8 +5650,11 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5008,8 +5670,11 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5025,8 +5690,11 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5042,8 +5710,11 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5059,8 +5730,11 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5076,8 +5750,11 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5093,8 +5770,11 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5110,8 +5790,11 @@
       <c r="E122" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5127,8 +5810,11 @@
       <c r="E123" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5144,8 +5830,11 @@
       <c r="E124" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5161,8 +5850,11 @@
       <c r="E125" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5178,8 +5870,11 @@
       <c r="E126" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5195,8 +5890,11 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5212,8 +5910,11 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5229,8 +5930,11 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5246,8 +5950,11 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5263,8 +5970,11 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -5280,8 +5990,11 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5297,8 +6010,11 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -5314,8 +6030,11 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -5331,8 +6050,11 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -5348,8 +6070,11 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -5365,8 +6090,11 @@
       <c r="E137" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5382,8 +6110,11 @@
       <c r="E138" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -5399,8 +6130,11 @@
       <c r="E139" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -5416,8 +6150,11 @@
       <c r="E140" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -5433,8 +6170,11 @@
       <c r="E141" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -5450,8 +6190,11 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -5467,8 +6210,11 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -5484,8 +6230,11 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -5501,8 +6250,11 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -5518,8 +6270,11 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -5535,8 +6290,11 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -5552,8 +6310,11 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -5569,8 +6330,11 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -5586,8 +6350,11 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -5603,8 +6370,11 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -5620,8 +6390,11 @@
       <c r="E152" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -5637,8 +6410,11 @@
       <c r="E153" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -5654,8 +6430,11 @@
       <c r="E154" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -5671,8 +6450,11 @@
       <c r="E155" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5688,8 +6470,14 @@
       <c r="E156" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>647</v>
+      </c>
+      <c r="H156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -5705,8 +6493,11 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -5722,8 +6513,11 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -5739,8 +6533,11 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5756,8 +6553,11 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -5773,8 +6573,11 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -5790,8 +6593,11 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -5807,8 +6613,11 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -5824,8 +6633,11 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -5841,8 +6653,11 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -5858,8 +6673,11 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -5875,8 +6693,11 @@
       <c r="E167" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -5892,8 +6713,11 @@
       <c r="E168" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -5909,8 +6733,11 @@
       <c r="E169" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -5926,8 +6753,11 @@
       <c r="E170" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -5943,8 +6773,11 @@
       <c r="E171" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -5960,8 +6793,11 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -5977,8 +6813,11 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -5994,8 +6833,11 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6011,8 +6853,11 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6028,8 +6873,11 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6045,8 +6893,11 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6062,8 +6913,11 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6079,8 +6933,11 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6096,8 +6953,11 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6113,8 +6973,11 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6130,8 +6993,11 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -6147,8 +7013,11 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -6164,8 +7033,11 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -6181,8 +7053,11 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -6198,8 +7073,11 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -6215,8 +7093,11 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -6232,8 +7113,11 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -6249,8 +7133,11 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -6266,8 +7153,11 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -6283,8 +7173,11 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -6300,8 +7193,11 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -6317,8 +7213,11 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -6334,8 +7233,11 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -6351,8 +7253,11 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -6368,8 +7273,11 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -6385,8 +7293,11 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -6402,8 +7313,11 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -6419,8 +7333,11 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -6436,8 +7353,11 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -6453,8 +7373,11 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6470,8 +7393,11 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -6487,8 +7413,11 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -6504,8 +7433,11 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -6521,8 +7453,11 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -6538,8 +7473,11 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -6555,8 +7493,11 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -6572,8 +7513,11 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -6589,8 +7533,11 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6606,8 +7553,11 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -6623,8 +7573,11 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -6640,8 +7593,11 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -6657,8 +7613,11 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -6674,8 +7633,11 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -6691,8 +7653,14 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>651</v>
+      </c>
+      <c r="H215">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -6708,8 +7676,11 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -6725,8 +7696,11 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -6742,8 +7716,11 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -6759,8 +7736,11 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -6776,8 +7756,11 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -6793,8 +7776,11 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -6810,8 +7796,11 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -6827,8 +7816,11 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -6844,8 +7836,11 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -6861,8 +7856,11 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -6878,8 +7876,11 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -6895,8 +7896,11 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -6912,8 +7916,11 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -6929,8 +7936,11 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -6946,8 +7956,11 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -6963,8 +7976,11 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -6980,8 +7996,11 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -6997,8 +8016,11 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -7014,8 +8036,11 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -7031,8 +8056,11 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -7048,8 +8076,11 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -7065,8 +8096,11 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -7082,8 +8116,11 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -7099,8 +8136,11 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -7116,8 +8156,11 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -7133,8 +8176,11 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -7150,8 +8196,11 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -7167,8 +8216,11 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -7184,8 +8236,11 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -7201,8 +8256,11 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -7218,8 +8276,11 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -7235,8 +8296,11 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -7252,8 +8316,11 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -7269,8 +8336,11 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -7286,8 +8356,11 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -7303,8 +8376,11 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -7320,8 +8396,11 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -7337,8 +8416,11 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7354,8 +8436,11 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -7371,8 +8456,11 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -7388,8 +8476,11 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -7405,8 +8496,11 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -7422,8 +8516,11 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -7439,8 +8536,11 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -7456,8 +8556,11 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -7473,8 +8576,11 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -7490,8 +8596,11 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7507,8 +8616,11 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -7524,8 +8636,11 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -7541,8 +8656,11 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -7558,8 +8676,11 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -7575,8 +8696,11 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -7592,8 +8716,11 @@
       <c r="E268" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -7609,8 +8736,11 @@
       <c r="E269" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -7626,8 +8756,11 @@
       <c r="E270" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -7643,8 +8776,11 @@
       <c r="E271" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -7660,8 +8796,11 @@
       <c r="E272" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -7677,8 +8816,11 @@
       <c r="E273" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -7694,8 +8836,11 @@
       <c r="E274" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -7711,8 +8856,11 @@
       <c r="E275" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -7728,8 +8876,11 @@
       <c r="E276" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -7745,8 +8896,11 @@
       <c r="E277" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -7762,8 +8916,11 @@
       <c r="E278" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -7779,8 +8936,11 @@
       <c r="E279" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -7796,8 +8956,11 @@
       <c r="E280" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -7813,8 +8976,11 @@
       <c r="E281" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -7830,8 +8996,11 @@
       <c r="E282" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -7847,8 +9016,11 @@
       <c r="E283" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -7864,8 +9036,11 @@
       <c r="E284" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -7881,8 +9056,11 @@
       <c r="E285" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -7898,8 +9076,11 @@
       <c r="E286" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -7915,8 +9096,11 @@
       <c r="E287" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -7932,8 +9116,11 @@
       <c r="E288" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -7949,8 +9136,11 @@
       <c r="E289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -7966,8 +9156,11 @@
       <c r="E290" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -7983,8 +9176,11 @@
       <c r="E291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -8000,8 +9196,11 @@
       <c r="E292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -8017,8 +9216,11 @@
       <c r="E293" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -8034,8 +9236,11 @@
       <c r="E294" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -8051,8 +9256,11 @@
       <c r="E295" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -8068,8 +9276,11 @@
       <c r="E296" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -8085,8 +9296,11 @@
       <c r="E297" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -8102,8 +9316,11 @@
       <c r="E298" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -8119,8 +9336,11 @@
       <c r="E299" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -8136,8 +9356,11 @@
       <c r="E300" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -8153,8 +9376,11 @@
       <c r="E301" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -8170,8 +9396,11 @@
       <c r="E302" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -8187,8 +9416,11 @@
       <c r="E303" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -8204,8 +9436,11 @@
       <c r="E304" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -8221,8 +9456,11 @@
       <c r="E305" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H305">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -8238,8 +9476,11 @@
       <c r="E306" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -8255,8 +9496,11 @@
       <c r="E307" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -8272,8 +9516,11 @@
       <c r="E308" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -8289,8 +9536,11 @@
       <c r="E309" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -8306,8 +9556,11 @@
       <c r="E310" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -8323,8 +9576,11 @@
       <c r="E311" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -8340,8 +9596,11 @@
       <c r="E312" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -8357,8 +9616,11 @@
       <c r="E313" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -8374,8 +9636,11 @@
       <c r="E314" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -8391,8 +9656,11 @@
       <c r="E315" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -8408,8 +9676,11 @@
       <c r="E316" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H316">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -8425,8 +9696,11 @@
       <c r="E317" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -8442,8 +9716,11 @@
       <c r="E318" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -8459,8 +9736,11 @@
       <c r="E319" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -8476,8 +9756,11 @@
       <c r="E320" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -8493,8 +9776,11 @@
       <c r="E321" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -8510,8 +9796,11 @@
       <c r="E322" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -8527,8 +9816,11 @@
       <c r="E323" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -8544,8 +9836,11 @@
       <c r="E324" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -8561,8 +9856,11 @@
       <c r="E325" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -8578,8 +9876,14 @@
       <c r="E326" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326" t="s">
+        <v>650</v>
+      </c>
+      <c r="H326" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -8595,8 +9899,14 @@
       <c r="E327" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327" t="s">
+        <v>650</v>
+      </c>
+      <c r="H327" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -8612,8 +9922,11 @@
       <c r="E328" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -8629,8 +9942,11 @@
       <c r="E329" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -8646,8 +9962,11 @@
       <c r="E330" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -8663,8 +9982,11 @@
       <c r="E331" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -8680,8 +10002,11 @@
       <c r="E332" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -8697,8 +10022,11 @@
       <c r="E333" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -8714,8 +10042,11 @@
       <c r="E334" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -8731,8 +10062,11 @@
       <c r="E335" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -8748,8 +10082,11 @@
       <c r="E336" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -8765,8 +10102,11 @@
       <c r="E337" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -8782,8 +10122,11 @@
       <c r="E338" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -8799,8 +10142,11 @@
       <c r="E339" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -8816,8 +10162,11 @@
       <c r="E340" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -8833,8 +10182,11 @@
       <c r="E341" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -8850,8 +10202,14 @@
       <c r="E342" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342" t="s">
+        <v>650</v>
+      </c>
+      <c r="H342" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -8867,8 +10225,11 @@
       <c r="E343" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -8884,8 +10245,11 @@
       <c r="E344" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -8901,8 +10265,11 @@
       <c r="E345" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -8918,8 +10285,11 @@
       <c r="E346" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -8935,8 +10305,11 @@
       <c r="E347" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -8952,8 +10325,11 @@
       <c r="E348" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -8969,8 +10345,11 @@
       <c r="E349" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -8986,8 +10365,11 @@
       <c r="E350" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -9003,8 +10385,11 @@
       <c r="E351" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -9020,8 +10405,11 @@
       <c r="E352" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -9037,8 +10425,11 @@
       <c r="E353" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -9054,8 +10445,11 @@
       <c r="E354" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -9071,8 +10465,11 @@
       <c r="E355" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -9088,8 +10485,11 @@
       <c r="E356" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -9105,8 +10505,11 @@
       <c r="E357" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -9125,8 +10528,11 @@
       <c r="G358" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -9145,8 +10551,11 @@
       <c r="G359" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -9165,8 +10574,11 @@
       <c r="G360" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -9185,8 +10597,11 @@
       <c r="G361" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -9205,8 +10620,11 @@
       <c r="G362" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -9225,8 +10643,11 @@
       <c r="G363">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -9245,8 +10666,11 @@
       <c r="G364">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -9265,8 +10689,11 @@
       <c r="G365">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -9285,8 +10712,11 @@
       <c r="G366">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -9305,8 +10735,11 @@
       <c r="G367">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -9325,8 +10758,11 @@
       <c r="G368">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -9345,8 +10781,11 @@
       <c r="G369">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -9365,8 +10804,11 @@
       <c r="G370">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -9385,8 +10827,11 @@
       <c r="G371">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -9405,8 +10850,11 @@
       <c r="G372">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -9425,8 +10873,11 @@
       <c r="G373" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -9445,8 +10896,11 @@
       <c r="G374" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -9465,8 +10919,11 @@
       <c r="G375" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -9485,8 +10942,11 @@
       <c r="G376" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -9505,8 +10965,11 @@
       <c r="G377">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -9525,8 +10988,11 @@
       <c r="G378">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9545,8 +11011,11 @@
       <c r="G379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -9565,8 +11034,11 @@
       <c r="G380">
         <v>5</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -9585,8 +11057,11 @@
       <c r="G381">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -9605,8 +11080,11 @@
       <c r="G382">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -9625,8 +11103,11 @@
       <c r="G383">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -9645,8 +11126,11 @@
       <c r="G384">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -9665,8 +11149,11 @@
       <c r="G385">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -9685,8 +11172,11 @@
       <c r="G386" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -9705,8 +11195,11 @@
       <c r="G387" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -9725,8 +11218,11 @@
       <c r="G388" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -9745,8 +11241,11 @@
       <c r="G389" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -9765,8 +11264,11 @@
       <c r="G390" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -9785,8 +11287,11 @@
       <c r="G391">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -9805,8 +11310,11 @@
       <c r="G392">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H392">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -9825,8 +11333,11 @@
       <c r="G393">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H393">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -9845,8 +11356,11 @@
       <c r="G394">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H394">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -9862,11 +11376,17 @@
       <c r="E395" t="s">
         <v>378</v>
       </c>
+      <c r="F395" t="s">
+        <v>648</v>
+      </c>
       <c r="G395">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H395">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -9885,8 +11405,11 @@
       <c r="G396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H396">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -9905,8 +11428,11 @@
       <c r="G397">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H397">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -9925,8 +11451,11 @@
       <c r="G398">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H398">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -9945,8 +11474,11 @@
       <c r="G399">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H399">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -9965,8 +11497,11 @@
       <c r="G400" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -9985,8 +11520,11 @@
       <c r="G401" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -10005,8 +11543,11 @@
       <c r="G402" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -10025,8 +11566,11 @@
       <c r="G403" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -10045,8 +11589,11 @@
       <c r="G404" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -10065,8 +11612,11 @@
       <c r="G405">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -10085,8 +11635,11 @@
       <c r="G406">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -10105,8 +11658,11 @@
       <c r="G407">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -10125,8 +11681,11 @@
       <c r="G408">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -10145,8 +11704,11 @@
       <c r="G409">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -10165,8 +11727,11 @@
       <c r="G410">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -10185,8 +11750,11 @@
       <c r="G411">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -10205,8 +11773,11 @@
       <c r="G412" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -10225,8 +11796,11 @@
       <c r="G413" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -10245,8 +11819,11 @@
       <c r="G414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -10265,8 +11842,11 @@
       <c r="G415" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -10285,8 +11865,11 @@
       <c r="G416">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -10305,8 +11888,11 @@
       <c r="G417">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -10325,8 +11911,11 @@
       <c r="G418">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H418">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -10345,8 +11934,11 @@
       <c r="G419">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H419">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -10365,8 +11957,11 @@
       <c r="G420">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -10385,8 +11980,11 @@
       <c r="G421">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H421">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -10405,8 +12003,11 @@
       <c r="G422">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -10425,8 +12026,11 @@
       <c r="G423">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H423">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -10445,8 +12049,11 @@
       <c r="G424">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H424">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -10465,8 +12072,11 @@
       <c r="G425" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H425">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -10485,8 +12095,11 @@
       <c r="G426" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H426">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -10505,8 +12118,11 @@
       <c r="G427" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H427">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -10525,8 +12141,11 @@
       <c r="G428" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H428">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -10542,11 +12161,17 @@
       <c r="E429" t="s">
         <v>378</v>
       </c>
+      <c r="F429" t="s">
+        <v>646</v>
+      </c>
       <c r="G429" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H429">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -10565,8 +12190,11 @@
       <c r="G430">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H430">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -10585,8 +12213,11 @@
       <c r="G431">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H431">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -10605,8 +12236,11 @@
       <c r="G432">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H432">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -10625,8 +12259,11 @@
       <c r="G433">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H433">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -10645,8 +12282,11 @@
       <c r="G434">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H434">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -10665,8 +12305,11 @@
       <c r="G435">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H435">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -10685,8 +12328,11 @@
       <c r="G436">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H436">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -10705,8 +12351,11 @@
       <c r="G437">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H437">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -10723,7 +12372,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -10740,7 +12389,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -10757,7 +12406,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -10774,7 +12423,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -10791,7 +12440,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -10808,7 +12457,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -10825,7 +12474,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -10842,7 +12491,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -10859,7 +12508,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -10876,7 +12525,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Michiko Samson\Documents\Temporal Ecology Lab\fuelinex\data\monitoringShootElongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1119576-8395-874C-8066-DF75FB2AE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152B645-9D6B-47B7-8F24-22E05F782C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="654">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1979,6 +1979,12 @@
   </si>
   <si>
     <t>doy107: most central one, even if shorter</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>doy114: all but one bud was cut</t>
   </si>
 </sst>
 </file>
@@ -2473,9 +2479,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2521,7 +2528,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2713,28 +2728,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:H617" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="pinus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:I617" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E79A2FF5-C40B-4272-B0CC-70D992DD2423}" name="114" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3057,22 +3062,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H617"/>
+  <dimension ref="A1:I617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F209" sqref="F209"/>
+      <selection pane="topRight" activeCell="I438" sqref="I438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3097,8 +3102,11 @@
       <c r="H1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3120,8 +3128,11 @@
       <c r="H2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3143,8 +3154,11 @@
       <c r="H3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3166,8 +3180,11 @@
       <c r="H4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3189,8 +3206,11 @@
       <c r="H5">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3212,8 +3232,11 @@
       <c r="H6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3235,8 +3258,11 @@
       <c r="H7">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3258,8 +3284,11 @@
       <c r="H8">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3281,8 +3310,11 @@
       <c r="H9">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3304,8 +3336,11 @@
       <c r="H10">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3327,8 +3362,11 @@
       <c r="H11">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3350,8 +3388,11 @@
       <c r="H12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3373,8 +3414,11 @@
       <c r="H13">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3396,8 +3440,11 @@
       <c r="H14">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3419,8 +3466,11 @@
       <c r="H15">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3442,8 +3492,11 @@
       <c r="H16">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3465,8 +3518,11 @@
       <c r="H17">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3488,8 +3544,11 @@
       <c r="H18">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3511,8 +3570,11 @@
       <c r="H19">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3534,8 +3596,11 @@
       <c r="H20">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3560,8 +3625,11 @@
       <c r="H21">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3583,8 +3651,11 @@
       <c r="H22">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3606,8 +3677,11 @@
       <c r="H23">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3629,8 +3703,11 @@
       <c r="H24">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3652,8 +3729,11 @@
       <c r="H25">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3675,8 +3755,11 @@
       <c r="H26">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3698,8 +3781,11 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3721,8 +3807,11 @@
       <c r="H28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3744,8 +3833,11 @@
       <c r="H29">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3767,8 +3859,11 @@
       <c r="H30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3790,8 +3885,11 @@
       <c r="H31">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3813,8 +3911,11 @@
       <c r="H32">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3836,8 +3937,11 @@
       <c r="H33">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3859,8 +3963,11 @@
       <c r="H34">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3882,8 +3989,11 @@
       <c r="H35">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3905,8 +4015,11 @@
       <c r="H36">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3928,8 +4041,11 @@
       <c r="H37">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3951,8 +4067,11 @@
       <c r="H38">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3974,8 +4093,11 @@
       <c r="H39">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3997,8 +4119,11 @@
       <c r="H40">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4020,8 +4145,11 @@
       <c r="H41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4043,8 +4171,11 @@
       <c r="H42">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4066,8 +4197,11 @@
       <c r="H43">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4089,8 +4223,11 @@
       <c r="H44">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4112,8 +4249,11 @@
       <c r="H45">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4135,8 +4275,11 @@
       <c r="H46">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4158,8 +4301,11 @@
       <c r="H47">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4181,8 +4327,11 @@
       <c r="H48">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4204,8 +4353,11 @@
       <c r="H49">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4227,8 +4379,11 @@
       <c r="H50">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4250,8 +4405,11 @@
       <c r="H51">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4273,8 +4431,11 @@
       <c r="H52">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4457,11 @@
       <c r="H53">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4319,8 +4483,11 @@
       <c r="H54">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4342,8 +4509,11 @@
       <c r="H55">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4365,8 +4535,11 @@
       <c r="H56">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I56" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4386,10 +4559,13 @@
         <v>1.9</v>
       </c>
       <c r="H57">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4411,8 +4587,11 @@
       <c r="H58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4434,8 +4613,11 @@
       <c r="H59">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4457,8 +4639,11 @@
       <c r="H60">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4480,8 +4665,11 @@
       <c r="H61">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4503,8 +4691,11 @@
       <c r="H62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I62" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4526,8 +4717,11 @@
       <c r="H63">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4549,8 +4743,11 @@
       <c r="H64">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4572,8 +4769,11 @@
       <c r="H65">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4595,8 +4795,11 @@
       <c r="H66">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4618,8 +4821,11 @@
       <c r="H67">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4641,8 +4847,11 @@
       <c r="H68">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4664,8 +4873,11 @@
       <c r="H69">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4687,8 +4899,11 @@
       <c r="H70">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4710,8 +4925,11 @@
       <c r="H71">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4733,8 +4951,11 @@
       <c r="H72">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4756,8 +4977,11 @@
       <c r="H73">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4779,8 +5003,11 @@
       <c r="H74">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4802,8 +5029,11 @@
       <c r="H75">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4825,8 +5055,11 @@
       <c r="H76">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4848,8 +5081,11 @@
       <c r="H77">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4874,8 +5110,11 @@
       <c r="H78">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I78" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4897,8 +5136,11 @@
       <c r="H79">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4920,8 +5162,11 @@
       <c r="H80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4943,8 +5188,11 @@
       <c r="H81">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4966,8 +5214,11 @@
       <c r="H82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I82" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4989,8 +5240,11 @@
       <c r="H83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5012,8 +5266,11 @@
       <c r="H84">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I84" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5035,8 +5292,11 @@
       <c r="H85">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I85" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5058,8 +5318,11 @@
       <c r="H86">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I86" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5081,8 +5344,11 @@
       <c r="H87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5104,8 +5370,11 @@
       <c r="H88">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I88" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5127,8 +5396,11 @@
       <c r="H89">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I89" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5150,8 +5422,11 @@
       <c r="H90">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I90" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5173,8 +5448,11 @@
       <c r="H91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I91" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5193,8 +5471,11 @@
       <c r="H92">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I92" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -5213,8 +5494,11 @@
       <c r="H93">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5233,8 +5517,11 @@
       <c r="H94">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I94" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -5253,8 +5540,11 @@
       <c r="H95">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I95" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -5273,8 +5563,11 @@
       <c r="H96">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I96" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -5293,8 +5586,11 @@
       <c r="H97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I97" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5313,8 +5609,11 @@
       <c r="H98">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I98" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5333,8 +5632,11 @@
       <c r="H99">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I99" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -5353,8 +5655,11 @@
       <c r="H100">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I100" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -5373,8 +5678,11 @@
       <c r="H101">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I101" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -5393,8 +5701,11 @@
       <c r="H102">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I102" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -5413,8 +5724,11 @@
       <c r="H103">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I103" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5433,8 +5747,11 @@
       <c r="H104">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I104" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5453,8 +5770,11 @@
       <c r="H105">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I105" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -5473,8 +5793,11 @@
       <c r="H106">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I106" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -5493,8 +5816,11 @@
       <c r="H107">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I107" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5513,8 +5839,11 @@
       <c r="H108">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I108" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5533,8 +5862,11 @@
       <c r="H109">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -5553,8 +5885,11 @@
       <c r="H110">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I110" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -5573,8 +5908,11 @@
       <c r="H111">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I111" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5593,8 +5931,11 @@
       <c r="H112">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I112" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5613,8 +5954,11 @@
       <c r="H113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I113" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -5633,8 +5977,11 @@
       <c r="H114">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -5653,8 +6000,11 @@
       <c r="H115">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I115" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5673,8 +6023,11 @@
       <c r="H116">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I116" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5693,8 +6046,11 @@
       <c r="H117">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I117" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5713,8 +6069,11 @@
       <c r="H118">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I118" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5733,8 +6092,11 @@
       <c r="H119">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I119" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5753,8 +6115,11 @@
       <c r="H120">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I120" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5773,8 +6138,11 @@
       <c r="H121">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I121" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5793,8 +6161,11 @@
       <c r="H122">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I122" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5813,8 +6184,11 @@
       <c r="H123">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I123" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5833,8 +6207,11 @@
       <c r="H124">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I124" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5853,8 +6230,11 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5873,8 +6253,11 @@
       <c r="H126">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I126" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5893,8 +6276,11 @@
       <c r="H127">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I127" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5913,8 +6299,11 @@
       <c r="H128">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I128" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5933,8 +6322,11 @@
       <c r="H129">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I129" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5953,8 +6345,11 @@
       <c r="H130">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I130" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5973,8 +6368,11 @@
       <c r="H131">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I131" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -5993,8 +6391,11 @@
       <c r="H132">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6013,8 +6414,11 @@
       <c r="H133">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -6033,8 +6437,11 @@
       <c r="H134">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I134" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -6053,8 +6460,11 @@
       <c r="H135">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I135" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6073,8 +6483,11 @@
       <c r="H136">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I136" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -6093,8 +6506,11 @@
       <c r="H137">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I137" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -6113,8 +6529,11 @@
       <c r="H138">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I138" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -6133,8 +6552,11 @@
       <c r="H139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I139" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6153,8 +6575,11 @@
       <c r="H140">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I140" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6173,8 +6598,11 @@
       <c r="H141">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I141" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6193,8 +6621,11 @@
       <c r="H142">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I142" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6213,8 +6644,11 @@
       <c r="H143">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I143" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6233,8 +6667,11 @@
       <c r="H144">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I144" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -6253,8 +6690,11 @@
       <c r="H145">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I145" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -6273,8 +6713,11 @@
       <c r="H146">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I146" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -6293,8 +6736,11 @@
       <c r="H147">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I147" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -6313,8 +6759,11 @@
       <c r="H148">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I148" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -6333,8 +6782,11 @@
       <c r="H149">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I149" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -6353,8 +6805,11 @@
       <c r="H150">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I150" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -6373,8 +6828,11 @@
       <c r="H151">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I151" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -6393,8 +6851,11 @@
       <c r="H152">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I152" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -6413,8 +6874,11 @@
       <c r="H153">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I153" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -6433,8 +6897,11 @@
       <c r="H154">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -6453,8 +6920,11 @@
       <c r="H155">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I155" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -6476,8 +6946,11 @@
       <c r="H156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I156" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -6496,8 +6969,11 @@
       <c r="H157">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I157" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -6516,8 +6992,11 @@
       <c r="H158">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I158" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -6536,8 +7015,11 @@
       <c r="H159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I159" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -6556,8 +7038,11 @@
       <c r="H160">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I160" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -6576,8 +7061,11 @@
       <c r="H161">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I161" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -6596,8 +7084,11 @@
       <c r="H162">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6616,8 +7107,11 @@
       <c r="H163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I163" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6636,8 +7130,11 @@
       <c r="H164">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I164" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6656,8 +7153,11 @@
       <c r="H165">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I165" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6676,8 +7176,11 @@
       <c r="H166">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I166" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6696,8 +7199,11 @@
       <c r="H167">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6716,8 +7222,11 @@
       <c r="H168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I168" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6736,8 +7245,11 @@
       <c r="H169">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I169" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6756,8 +7268,11 @@
       <c r="H170">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I170" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6776,8 +7291,11 @@
       <c r="H171">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I171" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6796,8 +7314,11 @@
       <c r="H172">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I172" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6816,8 +7337,11 @@
       <c r="H173">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I173" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6836,8 +7360,11 @@
       <c r="H174">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I174" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6856,8 +7383,11 @@
       <c r="H175">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6876,8 +7406,11 @@
       <c r="H176">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I176" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6896,8 +7429,11 @@
       <c r="H177">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I177" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6916,8 +7452,11 @@
       <c r="H178">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6936,8 +7475,11 @@
       <c r="H179">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I179" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6956,8 +7498,11 @@
       <c r="H180">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I180" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6976,8 +7521,11 @@
       <c r="H181">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I181" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6996,8 +7544,11 @@
       <c r="H182">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I182" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -7016,8 +7567,11 @@
       <c r="H183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I183" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -7036,8 +7590,11 @@
       <c r="H184">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I184" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -7056,8 +7613,11 @@
       <c r="H185">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I185" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -7076,8 +7636,11 @@
       <c r="H186">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I186" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -7096,8 +7659,11 @@
       <c r="H187">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I187" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -7116,8 +7682,11 @@
       <c r="H188">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I188" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -7136,8 +7705,11 @@
       <c r="H189">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I189" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -7156,8 +7728,11 @@
       <c r="H190">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I190" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -7173,11 +7748,17 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
+      <c r="F191" t="s">
+        <v>653</v>
+      </c>
       <c r="H191">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -7196,8 +7777,11 @@
       <c r="H192">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -7216,8 +7800,11 @@
       <c r="H193">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -7236,8 +7823,11 @@
       <c r="H194">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -7256,8 +7846,11 @@
       <c r="H195">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -7276,8 +7869,11 @@
       <c r="H196">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I196" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -7296,8 +7892,11 @@
       <c r="H197">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I197" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -7316,8 +7915,11 @@
       <c r="H198">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I198" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -7336,8 +7938,11 @@
       <c r="H199">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I199" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -7356,8 +7961,11 @@
       <c r="H200">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I200" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -7376,8 +7984,11 @@
       <c r="H201">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I201" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -7396,8 +8007,11 @@
       <c r="H202">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I202" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -7413,11 +8027,15 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
+      <c r="F203" s="2"/>
       <c r="H203">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I203" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -7436,8 +8054,11 @@
       <c r="H204">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I204" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -7456,8 +8077,11 @@
       <c r="H205">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I205" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -7476,8 +8100,11 @@
       <c r="H206">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -7496,8 +8123,11 @@
       <c r="H207">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -7516,8 +8146,11 @@
       <c r="H208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -7536,8 +8169,11 @@
       <c r="H209">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -7556,8 +8192,11 @@
       <c r="H210">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -7576,8 +8215,11 @@
       <c r="H211">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I211" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -7596,8 +8238,11 @@
       <c r="H212">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I212" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -7616,8 +8261,11 @@
       <c r="H213">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I213" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -7636,8 +8284,11 @@
       <c r="H214">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I214" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -7659,8 +8310,11 @@
       <c r="H215">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I215" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -7679,8 +8333,11 @@
       <c r="H216">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I216" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -7699,8 +8356,11 @@
       <c r="H217">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -7719,8 +8379,11 @@
       <c r="H218">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I218" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -7739,8 +8402,11 @@
       <c r="H219">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I219" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -7759,8 +8425,11 @@
       <c r="H220">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I220" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -7779,8 +8448,11 @@
       <c r="H221">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" s="2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -7799,8 +8471,11 @@
       <c r="H222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -7819,8 +8494,11 @@
       <c r="H223">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -7839,8 +8517,11 @@
       <c r="H224">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -7859,8 +8540,11 @@
       <c r="H225">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -7879,8 +8563,11 @@
       <c r="H226">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -7899,8 +8586,11 @@
       <c r="H227">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I227" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -7919,8 +8609,11 @@
       <c r="H228">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I228" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -7939,8 +8632,11 @@
       <c r="H229">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I229" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -7959,8 +8655,11 @@
       <c r="H230">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I230" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -7979,8 +8678,11 @@
       <c r="H231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I231" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -7999,8 +8701,11 @@
       <c r="H232">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I232" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -8019,8 +8724,11 @@
       <c r="H233">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I233" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -8039,8 +8747,11 @@
       <c r="H234">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I234" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -8059,8 +8770,11 @@
       <c r="H235">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I235" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -8079,8 +8793,11 @@
       <c r="H236">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -8099,8 +8816,11 @@
       <c r="H237">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -8119,8 +8839,11 @@
       <c r="H238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -8139,8 +8862,11 @@
       <c r="H239">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -8159,8 +8885,11 @@
       <c r="H240">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -8179,8 +8908,11 @@
       <c r="H241">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I241" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -8199,8 +8931,11 @@
       <c r="H242">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I242" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -8219,8 +8954,11 @@
       <c r="H243">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I243" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -8239,8 +8977,11 @@
       <c r="H244">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I244" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -8259,8 +9000,11 @@
       <c r="H245">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I245" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -8279,8 +9023,11 @@
       <c r="H246">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I246" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -8299,8 +9046,11 @@
       <c r="H247">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I247" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -8319,8 +9069,11 @@
       <c r="H248">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I248" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -8339,8 +9092,11 @@
       <c r="H249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I249" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -8359,8 +9115,11 @@
       <c r="H250">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I250" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -8379,8 +9138,11 @@
       <c r="H251">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -8399,8 +9161,11 @@
       <c r="H252">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -8419,8 +9184,11 @@
       <c r="H253">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -8439,8 +9207,11 @@
       <c r="H254">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -8459,8 +9230,11 @@
       <c r="H255">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -8479,8 +9253,11 @@
       <c r="H256">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I256" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -8499,8 +9276,11 @@
       <c r="H257">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I257" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -8519,8 +9299,11 @@
       <c r="H258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I258" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -8539,8 +9322,11 @@
       <c r="H259">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I259" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -8559,8 +9345,11 @@
       <c r="H260">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I260" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -8579,8 +9368,11 @@
       <c r="H261">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I261" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -8599,8 +9391,11 @@
       <c r="H262">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I262" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -8619,8 +9414,11 @@
       <c r="H263">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I263" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -8639,8 +9437,11 @@
       <c r="H264">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -8659,8 +9460,11 @@
       <c r="H265">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I265" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -8679,8 +9483,11 @@
       <c r="H266">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -8699,8 +9506,11 @@
       <c r="H267">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -8719,8 +9529,11 @@
       <c r="H268">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -8739,8 +9552,11 @@
       <c r="H269">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -8759,8 +9575,11 @@
       <c r="H270">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -8779,8 +9598,11 @@
       <c r="H271">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I271" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -8799,8 +9621,11 @@
       <c r="H272">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I272" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -8819,8 +9644,11 @@
       <c r="H273">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I273" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -8839,8 +9667,11 @@
       <c r="H274">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I274" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -8859,8 +9690,11 @@
       <c r="H275">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I275" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -8879,8 +9713,11 @@
       <c r="H276">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I276" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -8899,8 +9736,11 @@
       <c r="H277">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I277" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -8919,8 +9759,11 @@
       <c r="H278">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I278" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -8939,8 +9782,11 @@
       <c r="H279">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I279" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -8959,8 +9805,11 @@
       <c r="H280">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I280" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -8979,8 +9828,11 @@
       <c r="H281">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I281" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -8999,8 +9851,11 @@
       <c r="H282">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I282" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -9019,8 +9874,11 @@
       <c r="H283">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I283" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -9039,8 +9897,11 @@
       <c r="H284">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I284" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -9059,8 +9920,11 @@
       <c r="H285">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I285" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -9079,8 +9943,11 @@
       <c r="H286">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I286" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -9099,8 +9966,11 @@
       <c r="H287">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I287" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -9119,8 +9989,11 @@
       <c r="H288">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I288" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -9139,8 +10012,11 @@
       <c r="H289">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I289" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -9159,8 +10035,11 @@
       <c r="H290">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I290" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -9179,8 +10058,11 @@
       <c r="H291">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I291" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -9199,8 +10081,11 @@
       <c r="H292">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I292" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -9219,8 +10104,11 @@
       <c r="H293">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I293" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -9239,8 +10127,11 @@
       <c r="H294">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I294" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -9259,8 +10150,11 @@
       <c r="H295">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I295" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -9279,8 +10173,11 @@
       <c r="H296">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I296" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -9299,8 +10196,11 @@
       <c r="H297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I297" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -9319,8 +10219,11 @@
       <c r="H298">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I298" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -9339,8 +10242,11 @@
       <c r="H299">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I299" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -9359,8 +10265,11 @@
       <c r="H300">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I300" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -9379,8 +10288,11 @@
       <c r="H301">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I301" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -9399,8 +10311,11 @@
       <c r="H302">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I302" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -9419,8 +10334,11 @@
       <c r="H303">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I303" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -9439,8 +10357,11 @@
       <c r="H304">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I304" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -9459,8 +10380,11 @@
       <c r="H305">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I305" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -9479,8 +10403,11 @@
       <c r="H306">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I306" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -9499,8 +10426,11 @@
       <c r="H307">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I307" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -9519,8 +10449,11 @@
       <c r="H308">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I308" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -9539,8 +10472,11 @@
       <c r="H309">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I309" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -9559,8 +10495,11 @@
       <c r="H310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I310" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -9579,8 +10518,11 @@
       <c r="H311">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I311" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -9599,8 +10541,11 @@
       <c r="H312">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I312" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -9619,8 +10564,11 @@
       <c r="H313">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I313" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -9639,8 +10587,11 @@
       <c r="H314">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I314" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -9659,8 +10610,11 @@
       <c r="H315">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I315" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -9679,8 +10633,11 @@
       <c r="H316">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I316" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -9699,8 +10656,11 @@
       <c r="H317">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I317" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -9719,8 +10679,11 @@
       <c r="H318">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I318" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -9739,8 +10702,11 @@
       <c r="H319">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I319" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -9759,8 +10725,11 @@
       <c r="H320">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I320" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -9779,8 +10748,11 @@
       <c r="H321">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I321" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -9799,8 +10771,11 @@
       <c r="H322">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I322" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -9819,8 +10794,11 @@
       <c r="H323">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I323" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -9839,8 +10817,11 @@
       <c r="H324">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I324" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -9859,8 +10840,11 @@
       <c r="H325">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I325" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -9882,8 +10866,11 @@
       <c r="H326" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I326" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -9905,8 +10892,11 @@
       <c r="H327" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I327" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -9925,8 +10915,11 @@
       <c r="H328">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I328" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -9945,8 +10938,11 @@
       <c r="H329">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I329" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -9965,8 +10961,11 @@
       <c r="H330">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I330" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -9985,8 +10984,11 @@
       <c r="H331">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I331" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -10005,8 +11007,11 @@
       <c r="H332">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I332" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -10025,8 +11030,11 @@
       <c r="H333">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I333" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -10045,8 +11053,11 @@
       <c r="H334">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I334" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -10065,8 +11076,11 @@
       <c r="H335">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I335" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -10085,8 +11099,11 @@
       <c r="H336">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I336" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -10105,8 +11122,11 @@
       <c r="H337">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I337" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -10125,8 +11145,11 @@
       <c r="H338">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I338" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -10145,8 +11168,11 @@
       <c r="H339">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I339" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -10165,8 +11191,11 @@
       <c r="H340">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I340" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -10185,8 +11214,11 @@
       <c r="H341">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I341" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -10208,8 +11240,11 @@
       <c r="H342" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I342" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -10228,8 +11263,11 @@
       <c r="H343">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I343" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -10248,8 +11286,11 @@
       <c r="H344">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I344" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -10268,8 +11309,11 @@
       <c r="H345">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I345" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -10288,8 +11332,11 @@
       <c r="H346">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I346" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -10308,8 +11355,11 @@
       <c r="H347">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I347" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -10328,8 +11378,11 @@
       <c r="H348">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I348" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -10348,8 +11401,11 @@
       <c r="H349">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I349" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -10368,8 +11424,11 @@
       <c r="H350">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I350" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -10388,8 +11447,11 @@
       <c r="H351">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I351" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -10408,8 +11470,11 @@
       <c r="H352">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I352" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -10428,8 +11493,11 @@
       <c r="H353">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I353" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -10448,8 +11516,11 @@
       <c r="H354">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I354" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -10468,8 +11539,11 @@
       <c r="H355">
         <v>2</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I355" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -10488,8 +11562,11 @@
       <c r="H356">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I356" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -10508,8 +11585,11 @@
       <c r="H357">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I357" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -10531,8 +11611,11 @@
       <c r="H358">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I358" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -10554,8 +11637,11 @@
       <c r="H359">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I359" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -10577,8 +11663,11 @@
       <c r="H360">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I360" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -10600,8 +11689,11 @@
       <c r="H361">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I361" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -10623,8 +11715,11 @@
       <c r="H362">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I362" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -10646,8 +11741,11 @@
       <c r="H363">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I363" s="2">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -10669,8 +11767,11 @@
       <c r="H364">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I364" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -10692,8 +11793,11 @@
       <c r="H365">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I365" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -10715,8 +11819,11 @@
       <c r="H366">
         <v>6</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I366" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -10738,8 +11845,11 @@
       <c r="H367">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I367" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -10761,8 +11871,11 @@
       <c r="H368">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I368" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -10784,8 +11897,11 @@
       <c r="H369">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I369" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -10807,8 +11923,11 @@
       <c r="H370">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I370" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -10830,8 +11949,11 @@
       <c r="H371">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I371" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -10853,8 +11975,11 @@
       <c r="H372">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I372" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -10876,8 +12001,11 @@
       <c r="H373">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I373" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -10899,8 +12027,11 @@
       <c r="H374">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I374" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -10922,8 +12053,11 @@
       <c r="H375">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I375" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -10945,8 +12079,11 @@
       <c r="H376">
         <v>13</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I376" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -10968,8 +12105,11 @@
       <c r="H377">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I377" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -10991,8 +12131,11 @@
       <c r="H378">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I378" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -11014,8 +12157,11 @@
       <c r="H379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I379" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -11037,8 +12183,11 @@
       <c r="H380">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I380" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -11060,8 +12209,11 @@
       <c r="H381">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I381" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -11083,8 +12235,11 @@
       <c r="H382">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I382" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -11106,8 +12261,11 @@
       <c r="H383">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I383" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -11129,8 +12287,11 @@
       <c r="H384">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I384" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -11152,8 +12313,11 @@
       <c r="H385">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I385" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -11175,8 +12339,11 @@
       <c r="H386">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I386" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -11198,8 +12365,11 @@
       <c r="H387">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I387" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -11221,8 +12391,11 @@
       <c r="H388">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I388" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -11244,8 +12417,11 @@
       <c r="H389">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I389" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -11267,8 +12443,11 @@
       <c r="H390">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I390" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -11290,8 +12469,11 @@
       <c r="H391">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I391" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -11313,8 +12495,11 @@
       <c r="H392">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I392" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -11336,8 +12521,11 @@
       <c r="H393">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I393" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -11359,8 +12547,11 @@
       <c r="H394">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I394" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -11385,8 +12576,11 @@
       <c r="H395">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I395" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -11408,8 +12602,11 @@
       <c r="H396">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I396" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -11431,8 +12628,11 @@
       <c r="H397">
         <v>8</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I397" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -11454,8 +12654,11 @@
       <c r="H398">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I398" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -11477,8 +12680,11 @@
       <c r="H399">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I399" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -11500,8 +12706,11 @@
       <c r="H400">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I400" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -11523,8 +12732,11 @@
       <c r="H401">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I401" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -11546,8 +12758,11 @@
       <c r="H402">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I402" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -11569,8 +12784,11 @@
       <c r="H403">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I403" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -11592,8 +12810,11 @@
       <c r="H404">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I404" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -11615,8 +12836,11 @@
       <c r="H405">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I405" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -11638,8 +12862,11 @@
       <c r="H406">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I406" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -11661,8 +12888,11 @@
       <c r="H407">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I407" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -11684,8 +12914,11 @@
       <c r="H408">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I408" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -11707,8 +12940,11 @@
       <c r="H409">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I409" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -11730,8 +12966,11 @@
       <c r="H410">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I410" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -11753,8 +12992,11 @@
       <c r="H411">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I411" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -11776,8 +13018,11 @@
       <c r="H412">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I412" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -11799,8 +13044,11 @@
       <c r="H413">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I413" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -11822,8 +13070,11 @@
       <c r="H414">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I414" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -11845,8 +13096,11 @@
       <c r="H415">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I415" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -11868,8 +13122,11 @@
       <c r="H416">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I416" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -11891,8 +13148,11 @@
       <c r="H417">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I417" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -11914,8 +13174,11 @@
       <c r="H418">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I418" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -11937,8 +13200,11 @@
       <c r="H419">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I419" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -11960,8 +13226,11 @@
       <c r="H420">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I420" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -11983,8 +13252,11 @@
       <c r="H421">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I421" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -12006,8 +13278,11 @@
       <c r="H422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I422" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -12029,8 +13304,11 @@
       <c r="H423">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I423" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -12052,8 +13330,11 @@
       <c r="H424">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I424" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -12075,8 +13356,11 @@
       <c r="H425">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I425" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -12098,8 +13382,11 @@
       <c r="H426">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I426" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -12121,8 +13408,11 @@
       <c r="H427">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I427" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -12144,8 +13434,11 @@
       <c r="H428">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I428" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -12170,8 +13463,11 @@
       <c r="H429">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I429" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -12193,8 +13489,11 @@
       <c r="H430">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I430" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -12216,8 +13515,11 @@
       <c r="H431">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I431" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -12239,8 +13541,11 @@
       <c r="H432">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I432" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -12262,8 +13567,11 @@
       <c r="H433">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I433" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -12285,8 +13593,11 @@
       <c r="H434">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I434" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -12308,8 +13619,11 @@
       <c r="H435">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I435" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -12331,8 +13645,11 @@
       <c r="H436">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I436" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -12354,8 +13671,11 @@
       <c r="H437">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I437" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -12371,8 +13691,9 @@
       <c r="E438" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I438" s="2"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -12388,8 +13709,9 @@
       <c r="E439" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I439" s="2"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -12405,8 +13727,9 @@
       <c r="E440" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I440" s="2"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -12422,8 +13745,9 @@
       <c r="E441" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I441" s="2"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -12439,8 +13763,9 @@
       <c r="E442" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I442" s="2"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -12456,8 +13781,9 @@
       <c r="E443" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I443" s="2"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -12473,8 +13799,9 @@
       <c r="E444" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I444" s="2"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -12490,8 +13817,9 @@
       <c r="E445" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I445" s="2"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -12507,8 +13835,9 @@
       <c r="E446" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I446" s="2"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -12524,8 +13853,9 @@
       <c r="E447" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I447" s="2"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -12541,8 +13871,9 @@
       <c r="E448" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I448" s="2"/>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -12558,8 +13889,9 @@
       <c r="E449" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I449" s="2"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -12575,8 +13907,9 @@
       <c r="E450" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I450" s="2"/>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -12592,8 +13925,9 @@
       <c r="E451" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I451" s="2"/>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -12609,8 +13943,9 @@
       <c r="E452" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I452" s="2"/>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -12626,8 +13961,9 @@
       <c r="E453" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I453" s="2"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -12643,8 +13979,9 @@
       <c r="E454" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I454" s="2"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -12660,8 +13997,9 @@
       <c r="E455" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I455" s="2"/>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -12677,8 +14015,9 @@
       <c r="E456" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I456" s="2"/>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -12694,8 +14033,9 @@
       <c r="E457" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I457" s="2"/>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -12711,8 +14051,9 @@
       <c r="E458" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I458" s="2"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -12728,8 +14069,9 @@
       <c r="E459" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I459" s="2"/>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -12745,8 +14087,9 @@
       <c r="E460" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I460" s="2"/>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -12762,8 +14105,9 @@
       <c r="E461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I461" s="2"/>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -12779,8 +14123,9 @@
       <c r="E462" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I462" s="2"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -12796,8 +14141,9 @@
       <c r="E463" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I463" s="2"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -12813,8 +14159,9 @@
       <c r="E464" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I464" s="2"/>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -12830,8 +14177,9 @@
       <c r="E465" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I465" s="2"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -12847,8 +14195,9 @@
       <c r="E466" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I466" s="2"/>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -12864,8 +14213,9 @@
       <c r="E467" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I467" s="2"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -12881,8 +14231,9 @@
       <c r="E468" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I468" s="2"/>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -12898,8 +14249,9 @@
       <c r="E469" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I469" s="2"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -12915,8 +14267,9 @@
       <c r="E470" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I470" s="2"/>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -12932,8 +14285,9 @@
       <c r="E471" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I471" s="2"/>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -12949,8 +14303,9 @@
       <c r="E472" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I472" s="2"/>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -12966,8 +14321,9 @@
       <c r="E473" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I473" s="2"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -12983,8 +14339,9 @@
       <c r="E474" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I474" s="2"/>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -13000,8 +14357,9 @@
       <c r="E475" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I475" s="2"/>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -13017,8 +14375,9 @@
       <c r="E476" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I476" s="2"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -13034,8 +14393,9 @@
       <c r="E477" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I477" s="2"/>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -13051,8 +14411,9 @@
       <c r="E478" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I478" s="2"/>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -13068,8 +14429,9 @@
       <c r="E479" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I479" s="2"/>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -13085,8 +14447,9 @@
       <c r="E480" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I480" s="2"/>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -13102,8 +14465,9 @@
       <c r="E481" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I481" s="2"/>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -13119,8 +14483,9 @@
       <c r="E482" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I482" s="2"/>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -13136,8 +14501,9 @@
       <c r="E483" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I483" s="2"/>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -13153,8 +14519,9 @@
       <c r="E484" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I484" s="2"/>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -13170,8 +14537,9 @@
       <c r="E485" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I485" s="2"/>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -13187,8 +14555,9 @@
       <c r="E486" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I486" s="2"/>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -13204,8 +14573,9 @@
       <c r="E487" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I487" s="2"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -13221,8 +14591,9 @@
       <c r="E488" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I488" s="2"/>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -13238,8 +14609,9 @@
       <c r="E489" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I489" s="2"/>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -13255,8 +14627,9 @@
       <c r="E490" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I490" s="2"/>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -13272,8 +14645,9 @@
       <c r="E491" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I491" s="2"/>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -13289,8 +14663,9 @@
       <c r="E492" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I492" s="2"/>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -13306,8 +14681,9 @@
       <c r="E493" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I493" s="2"/>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -13323,8 +14699,9 @@
       <c r="E494" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I494" s="2"/>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -13340,8 +14717,9 @@
       <c r="E495" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I495" s="2"/>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -13357,8 +14735,9 @@
       <c r="E496" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I496" s="2"/>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -13374,8 +14753,9 @@
       <c r="E497" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I497" s="2"/>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -13391,8 +14771,9 @@
       <c r="E498" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I498" s="2"/>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -13408,8 +14789,9 @@
       <c r="E499" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I499" s="2"/>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -13425,8 +14807,9 @@
       <c r="E500" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I500" s="2"/>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -13442,8 +14825,9 @@
       <c r="E501" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I501" s="2"/>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -13459,8 +14843,9 @@
       <c r="E502" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I502" s="2"/>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -13476,8 +14861,9 @@
       <c r="E503" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I503" s="2"/>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -13493,8 +14879,9 @@
       <c r="E504" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I504" s="2"/>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -13510,8 +14897,9 @@
       <c r="E505" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I505" s="2"/>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -13527,8 +14915,9 @@
       <c r="E506" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I506" s="2"/>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -13544,8 +14933,9 @@
       <c r="E507" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I507" s="2"/>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -13561,8 +14951,9 @@
       <c r="E508" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I508" s="2"/>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -13578,8 +14969,9 @@
       <c r="E509" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I509" s="2"/>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -13595,8 +14987,9 @@
       <c r="E510" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I510" s="2"/>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -13612,8 +15005,9 @@
       <c r="E511" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I511" s="2"/>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -13629,8 +15023,9 @@
       <c r="E512" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I512" s="2"/>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -13646,8 +15041,9 @@
       <c r="E513" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I513" s="2"/>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -13663,8 +15059,9 @@
       <c r="E514" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I514" s="2"/>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -13680,8 +15077,9 @@
       <c r="E515" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I515" s="2"/>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -13697,8 +15095,9 @@
       <c r="E516" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I516" s="2"/>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -13714,8 +15113,9 @@
       <c r="E517" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I517" s="2"/>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -13731,8 +15131,9 @@
       <c r="E518" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I518" s="2"/>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -13748,8 +15149,9 @@
       <c r="E519" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I519" s="2"/>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -13765,8 +15167,9 @@
       <c r="E520" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I520" s="2"/>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -13782,8 +15185,9 @@
       <c r="E521" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I521" s="2"/>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -13799,8 +15203,9 @@
       <c r="E522" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I522" s="2"/>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -13816,8 +15221,9 @@
       <c r="E523" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I523" s="2"/>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -13833,8 +15239,9 @@
       <c r="E524" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I524" s="2"/>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -13850,8 +15257,9 @@
       <c r="E525" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I525" s="2"/>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -13867,8 +15275,9 @@
       <c r="E526" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I526" s="2"/>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -13884,8 +15293,9 @@
       <c r="E527" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I527" s="2"/>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -13901,8 +15311,9 @@
       <c r="E528" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I528" s="2"/>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -13918,8 +15329,9 @@
       <c r="E529" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I529" s="2"/>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -13935,8 +15347,9 @@
       <c r="E530" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I530" s="2"/>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -13952,8 +15365,9 @@
       <c r="E531" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I531" s="2"/>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -13969,8 +15383,9 @@
       <c r="E532" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I532" s="2"/>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -13986,8 +15401,9 @@
       <c r="E533" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I533" s="2"/>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -14003,8 +15419,9 @@
       <c r="E534" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I534" s="2"/>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -14020,8 +15437,9 @@
       <c r="E535" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I535" s="2"/>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -14037,8 +15455,9 @@
       <c r="E536" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I536" s="2"/>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -14054,8 +15473,9 @@
       <c r="E537" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I537" s="2"/>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -14071,8 +15491,9 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I538" s="2"/>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -14088,8 +15509,9 @@
       <c r="E539" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I539" s="2"/>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -14105,8 +15527,9 @@
       <c r="E540" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I540" s="2"/>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -14122,8 +15545,9 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I541" s="2"/>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -14139,8 +15563,9 @@
       <c r="E542" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I542" s="2"/>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -14156,8 +15581,9 @@
       <c r="E543" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I543" s="2"/>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -14173,8 +15599,9 @@
       <c r="E544" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I544" s="2"/>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -14190,8 +15617,9 @@
       <c r="E545" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I545" s="2"/>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -14207,8 +15635,9 @@
       <c r="E546" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I546" s="2"/>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -14224,8 +15653,9 @@
       <c r="E547" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I547" s="2"/>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -14241,8 +15671,9 @@
       <c r="E548" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I548" s="2"/>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -14258,8 +15689,9 @@
       <c r="E549" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I549" s="2"/>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -14275,8 +15707,9 @@
       <c r="E550" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I550" s="2"/>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -14292,8 +15725,9 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I551" s="2"/>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -14309,8 +15743,9 @@
       <c r="E552" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I552" s="2"/>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -14326,8 +15761,9 @@
       <c r="E553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I553" s="2"/>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -14343,8 +15779,9 @@
       <c r="E554" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I554" s="2"/>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -14360,8 +15797,9 @@
       <c r="E555" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I555" s="2"/>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -14377,8 +15815,9 @@
       <c r="E556" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I556" s="2"/>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -14394,8 +15833,9 @@
       <c r="E557" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I557" s="2"/>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -14411,8 +15851,9 @@
       <c r="E558" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I558" s="2"/>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -14428,8 +15869,9 @@
       <c r="E559" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I559" s="2"/>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -14445,8 +15887,9 @@
       <c r="E560" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I560" s="2"/>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -14462,8 +15905,9 @@
       <c r="E561" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I561" s="2"/>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -14479,8 +15923,9 @@
       <c r="E562" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I562" s="2"/>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -14496,8 +15941,9 @@
       <c r="E563" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I563" s="2"/>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -14513,8 +15959,9 @@
       <c r="E564" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I564" s="2"/>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -14530,8 +15977,9 @@
       <c r="E565" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I565" s="2"/>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -14547,8 +15995,9 @@
       <c r="E566" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I566" s="2"/>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -14564,8 +16013,9 @@
       <c r="E567" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I567" s="2"/>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -14581,8 +16031,9 @@
       <c r="E568" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I568" s="2"/>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -14598,8 +16049,9 @@
       <c r="E569" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I569" s="2"/>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -14615,8 +16067,9 @@
       <c r="E570" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I570" s="2"/>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -14632,8 +16085,9 @@
       <c r="E571" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I571" s="2"/>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -14649,8 +16103,9 @@
       <c r="E572" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I572" s="2"/>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -14666,8 +16121,9 @@
       <c r="E573" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I573" s="2"/>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -14683,8 +16139,9 @@
       <c r="E574" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I574" s="2"/>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -14700,8 +16157,9 @@
       <c r="E575" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I575" s="2"/>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -14717,8 +16175,9 @@
       <c r="E576" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I576" s="2"/>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -14734,8 +16193,9 @@
       <c r="E577" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I577" s="2"/>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -14751,8 +16211,9 @@
       <c r="E578" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I578" s="2"/>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -14768,8 +16229,9 @@
       <c r="E579" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I579" s="2"/>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -14785,8 +16247,9 @@
       <c r="E580" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I580" s="2"/>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -14802,8 +16265,9 @@
       <c r="E581" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I581" s="2"/>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -14819,8 +16283,9 @@
       <c r="E582" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I582" s="2"/>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -14836,8 +16301,9 @@
       <c r="E583" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I583" s="2"/>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -14853,8 +16319,9 @@
       <c r="E584" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I584" s="2"/>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -14870,8 +16337,9 @@
       <c r="E585" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I585" s="2"/>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -14887,8 +16355,9 @@
       <c r="E586" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I586" s="2"/>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -14904,8 +16373,9 @@
       <c r="E587" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I587" s="2"/>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -14921,8 +16391,9 @@
       <c r="E588" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I588" s="2"/>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -14938,8 +16409,9 @@
       <c r="E589" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I589" s="2"/>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -14955,8 +16427,9 @@
       <c r="E590" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I590" s="2"/>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -14972,8 +16445,9 @@
       <c r="E591" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I591" s="2"/>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -14989,8 +16463,9 @@
       <c r="E592" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I592" s="2"/>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -15006,8 +16481,9 @@
       <c r="E593" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I593" s="2"/>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -15023,8 +16499,9 @@
       <c r="E594" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I594" s="2"/>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -15040,8 +16517,9 @@
       <c r="E595" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I595" s="2"/>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -15057,8 +16535,9 @@
       <c r="E596" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I596" s="2"/>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -15074,8 +16553,9 @@
       <c r="E597" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I597" s="2"/>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -15091,8 +16571,9 @@
       <c r="E598" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I598" s="2"/>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -15108,8 +16589,9 @@
       <c r="E599" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I599" s="2"/>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -15125,8 +16607,9 @@
       <c r="E600" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I600" s="2"/>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -15142,8 +16625,9 @@
       <c r="E601" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I601" s="2"/>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -15159,8 +16643,9 @@
       <c r="E602" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I602" s="2"/>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -15176,8 +16661,9 @@
       <c r="E603" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I603" s="2"/>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -15193,8 +16679,9 @@
       <c r="E604" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I604" s="2"/>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -15210,8 +16697,9 @@
       <c r="E605" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I605" s="2"/>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -15227,8 +16715,9 @@
       <c r="E606" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I606" s="2"/>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -15244,8 +16733,9 @@
       <c r="E607" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I607" s="2"/>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -15261,8 +16751,9 @@
       <c r="E608" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I608" s="2"/>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -15278,8 +16769,9 @@
       <c r="E609" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I609" s="2"/>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -15295,8 +16787,9 @@
       <c r="E610" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I610" s="2"/>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -15312,8 +16805,9 @@
       <c r="E611" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I611" s="2"/>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -15329,8 +16823,9 @@
       <c r="E612" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I612" s="2"/>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -15346,8 +16841,9 @@
       <c r="E613" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I613" s="2"/>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -15363,8 +16859,9 @@
       <c r="E614" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I614" s="2"/>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -15380,8 +16877,9 @@
       <c r="E615" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I615" s="2"/>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -15397,8 +16895,9 @@
       <c r="E616" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I616" s="2"/>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -15414,6 +16913,7 @@
       <c r="E617" t="s">
         <v>552</v>
       </c>
+      <c r="I617" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70DF1D6-A01B-4142-9960-A3EC5A1DC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB6F4A-896E-F340-9A2D-4F2E2C12B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="-860" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="667">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2021,6 +2021,9 @@
   </si>
   <si>
     <t>doy135: measurement from previous weeks are invalid because shoot snapped off.</t>
+  </si>
+  <si>
+    <t>doy129: dead</t>
   </si>
 </sst>
 </file>
@@ -2521,10 +2524,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3142,9 +3146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L486" sqref="L486"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K486" sqref="K486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17767,7 +17771,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -17790,7 +17794,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -17813,7 +17817,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -17836,7 +17840,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -17859,7 +17863,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -17885,7 +17889,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -17908,7 +17912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -17931,7 +17935,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -17954,7 +17958,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -17977,7 +17981,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -18023,7 +18027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -18048,8 +18052,11 @@
       <c r="L476">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M476" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -18072,7 +18079,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -18095,7 +18102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -18118,7 +18125,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -18157,10 +18164,15 @@
       <c r="E481" t="s">
         <v>460</v>
       </c>
+      <c r="F481" t="s">
+        <v>666</v>
+      </c>
       <c r="K481" t="s">
         <v>649</v>
       </c>
-      <c r="L481" s="2"/>
+      <c r="L481" s="2" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -18201,7 +18213,7 @@
       <c r="E483" t="s">
         <v>460</v>
       </c>
-      <c r="K483" s="2">
+      <c r="K483" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="L483">
@@ -18224,7 +18236,7 @@
       <c r="E484" t="s">
         <v>460</v>
       </c>
-      <c r="K484" s="2">
+      <c r="K484" s="3">
         <v>3.9</v>
       </c>
       <c r="L484">
@@ -18247,8 +18259,8 @@
       <c r="E485" t="s">
         <v>460</v>
       </c>
-      <c r="K485" s="2">
-        <v>2.2000000000000002</v>
+      <c r="K485" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="L485">
         <v>3.3</v>
@@ -18270,8 +18282,8 @@
       <c r="E486" t="s">
         <v>460</v>
       </c>
-      <c r="K486" s="2">
-        <v>2.4</v>
+      <c r="K486" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="L486">
         <v>2.1</v>
@@ -18293,7 +18305,9 @@
       <c r="E487" t="s">
         <v>460</v>
       </c>
-      <c r="K487" s="2"/>
+      <c r="K487" s="2">
+        <v>2.4</v>
+      </c>
       <c r="L487">
         <v>2.5</v>
       </c>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB6F4A-896E-F340-9A2D-4F2E2C12B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96890776-22B4-1B45-8C2F-B1320365F5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="670">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2024,6 +2024,15 @@
   </si>
   <si>
     <t>doy129: dead</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>doy142: measurement from 135 is probably wrong</t>
   </si>
 </sst>
 </file>
@@ -2574,7 +2583,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2720,7 +2737,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2806,22 +2823,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M617" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E79A2FF5-C40B-4272-B0CC-70D992DD2423}" name="114" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{6974BA24-32C9-E646-B8E2-B57C96D6AE61}" name="121" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{950026EF-1938-1E49-BFDB-05B21959D7C5}" name="122" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{D2431F7E-CF65-C445-82A9-C0156A164D2A}" name="128" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{7BEB78EC-34AE-4C43-AC80-E51EF16D5745}" name="135" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:N617" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="quercus"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E79A2FF5-C40B-4272-B0CC-70D992DD2423}" name="114" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{6974BA24-32C9-E646-B8E2-B57C96D6AE61}" name="121" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{950026EF-1938-1E49-BFDB-05B21959D7C5}" name="122" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{D2431F7E-CF65-C445-82A9-C0156A164D2A}" name="128" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7BEB78EC-34AE-4C43-AC80-E51EF16D5745}" name="135" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{C5CDDF1D-7DF0-8545-BB31-62F5EB2195C4}" name="142" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3144,11 +3173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M617"/>
+  <dimension ref="A1:N617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K486" sqref="K486"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N619" sqref="N619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,7 +3189,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3200,8 +3229,11 @@
       <c r="M1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3232,8 +3264,14 @@
       <c r="L2">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>649</v>
+      </c>
+      <c r="N2" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3264,8 +3302,14 @@
       <c r="L3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>5.2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3296,8 +3340,14 @@
       <c r="L4">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3328,8 +3378,14 @@
       <c r="L5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>4.8</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3360,8 +3416,14 @@
       <c r="L6">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>8.9</v>
+      </c>
+      <c r="N6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3392,8 +3454,9 @@
       <c r="L7">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3424,8 +3487,9 @@
       <c r="L8">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3456,8 +3520,9 @@
       <c r="L9">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3488,8 +3553,9 @@
       <c r="L10">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3520,8 +3586,9 @@
       <c r="L11">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3552,8 +3619,9 @@
       <c r="L12">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3584,8 +3652,9 @@
       <c r="L13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3616,8 +3685,9 @@
       <c r="L14">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3648,8 +3718,9 @@
       <c r="L15">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3680,8 +3751,9 @@
       <c r="L16">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3712,8 +3784,14 @@
       <c r="L17">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>7.5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3744,8 +3822,14 @@
       <c r="L18">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>14.9</v>
+      </c>
+      <c r="N18" s="3">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3776,8 +3860,14 @@
       <c r="L19">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>8.4</v>
+      </c>
+      <c r="N19" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +3898,14 @@
       <c r="L20">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3843,8 +3939,14 @@
       <c r="L21">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>3.8</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3875,8 +3977,9 @@
       <c r="L22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3907,8 +4010,9 @@
       <c r="L23">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3939,8 +4043,9 @@
       <c r="L24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3971,8 +4076,9 @@
       <c r="L25">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4003,8 +4109,9 @@
       <c r="L26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4035,8 +4142,9 @@
       <c r="L27">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4067,8 +4175,9 @@
       <c r="L28">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4099,8 +4208,9 @@
       <c r="L29">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4131,8 +4241,9 @@
       <c r="L30">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4163,8 +4274,9 @@
       <c r="L31">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4195,8 +4307,14 @@
       <c r="L32">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>6.2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4227,8 +4345,14 @@
       <c r="L33">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>10.6</v>
+      </c>
+      <c r="N33" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4259,8 +4383,14 @@
       <c r="L34">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>5.8</v>
+      </c>
+      <c r="N34" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4291,8 +4421,14 @@
       <c r="L35">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>9.5</v>
+      </c>
+      <c r="N35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4323,8 +4459,14 @@
       <c r="L36">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N36" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4355,8 +4497,9 @@
       <c r="L37">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4387,8 +4530,9 @@
       <c r="L38">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4563,9 @@
       <c r="L39">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4451,8 +4596,9 @@
       <c r="L40">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4483,8 +4629,9 @@
       <c r="L41">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4515,8 +4662,9 @@
       <c r="L42">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4547,8 +4695,9 @@
       <c r="L43">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4579,8 +4728,9 @@
       <c r="L44">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4611,8 +4761,9 @@
       <c r="L45">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4643,8 +4794,9 @@
       <c r="L46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4675,8 +4827,14 @@
       <c r="L47">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>7.6</v>
+      </c>
+      <c r="N47" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4707,8 +4865,14 @@
       <c r="L48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>5.9</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4739,8 +4903,14 @@
       <c r="L49">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>9.6</v>
+      </c>
+      <c r="N49" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4771,8 +4941,14 @@
       <c r="L50">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>10.9</v>
+      </c>
+      <c r="N50" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4803,8 +4979,14 @@
       <c r="L51">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>12.2</v>
+      </c>
+      <c r="N51" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4835,8 +5017,9 @@
       <c r="L52">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4867,8 +5050,9 @@
       <c r="L53">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4899,8 +5083,9 @@
       <c r="L54">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4931,8 +5116,9 @@
       <c r="L55">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4963,8 +5149,9 @@
       <c r="L56">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4995,8 +5182,9 @@
       <c r="L57">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -5027,8 +5215,9 @@
       <c r="L58">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5059,8 +5248,9 @@
       <c r="L59">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5091,8 +5281,9 @@
       <c r="L60">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -5123,8 +5314,9 @@
       <c r="L61">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5155,8 +5347,14 @@
       <c r="L62">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>4.2</v>
+      </c>
+      <c r="N62" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -5187,8 +5385,14 @@
       <c r="L63">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>5.5</v>
+      </c>
+      <c r="N63" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5219,8 +5423,14 @@
       <c r="L64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>11.5</v>
+      </c>
+      <c r="N64" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5251,8 +5461,14 @@
       <c r="L65">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N65" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -5283,8 +5499,14 @@
       <c r="L66">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N66" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -5315,8 +5537,9 @@
       <c r="L67">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -5347,8 +5570,9 @@
       <c r="L68">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -5379,8 +5603,9 @@
       <c r="L69">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -5411,8 +5636,9 @@
       <c r="L70">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5443,8 +5669,9 @@
       <c r="L71">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5475,8 +5702,9 @@
       <c r="L72">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5507,8 +5735,9 @@
       <c r="L73">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5539,8 +5768,9 @@
       <c r="L74">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -5571,8 +5801,9 @@
       <c r="L75">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5603,8 +5834,9 @@
       <c r="L76">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5635,8 +5867,14 @@
       <c r="L77">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>7.3</v>
+      </c>
+      <c r="N77" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5908,14 @@
       <c r="L78">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>3.7</v>
+      </c>
+      <c r="N78" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5702,8 +5946,14 @@
       <c r="L79">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>5.6</v>
+      </c>
+      <c r="N79" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5734,8 +5984,14 @@
       <c r="L80">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>7.3</v>
+      </c>
+      <c r="N80" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5766,8 +6022,14 @@
       <c r="L81">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>9.5</v>
+      </c>
+      <c r="N81" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5798,8 +6060,9 @@
       <c r="L82">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5830,8 +6093,9 @@
       <c r="L83">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5862,8 +6126,9 @@
       <c r="L84">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5894,8 +6159,9 @@
       <c r="L85">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5926,8 +6192,9 @@
       <c r="L86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5958,8 +6225,9 @@
       <c r="L87">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5990,8 +6258,9 @@
       <c r="L88">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -6022,8 +6291,9 @@
       <c r="L89">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -6054,8 +6324,9 @@
       <c r="L90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -6086,8 +6357,9 @@
       <c r="L91">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -6115,8 +6387,14 @@
       <c r="L92" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>7.8</v>
+      </c>
+      <c r="N92" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -6144,8 +6422,14 @@
       <c r="L93">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>5.7</v>
+      </c>
+      <c r="N93" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -6173,8 +6457,14 @@
       <c r="L94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N94" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -6202,8 +6492,14 @@
       <c r="L95">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>8.4</v>
+      </c>
+      <c r="N95" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -6231,8 +6527,14 @@
       <c r="L96">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>2.9</v>
+      </c>
+      <c r="N96" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -6260,8 +6562,9 @@
       <c r="L97">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -6289,8 +6592,9 @@
       <c r="L98">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -6318,8 +6622,9 @@
       <c r="L99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -6347,8 +6652,9 @@
       <c r="L100">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -6376,8 +6682,9 @@
       <c r="L101">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -6405,8 +6712,9 @@
       <c r="L102">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -6434,8 +6742,9 @@
       <c r="L103">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -6463,8 +6772,9 @@
       <c r="L104">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -6492,8 +6802,9 @@
       <c r="L105">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -6521,8 +6832,9 @@
       <c r="L106">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -6550,8 +6862,14 @@
       <c r="L107">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="N107" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6579,8 +6897,14 @@
       <c r="L108">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>9.6</v>
+      </c>
+      <c r="N108" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -6608,8 +6932,14 @@
       <c r="L109">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>6.8</v>
+      </c>
+      <c r="N109" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -6637,8 +6967,14 @@
       <c r="L110">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>1.5</v>
+      </c>
+      <c r="N110" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -6666,8 +7002,14 @@
       <c r="L111">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>4.2</v>
+      </c>
+      <c r="N111" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6695,8 +7037,9 @@
       <c r="L112">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -6724,8 +7067,9 @@
       <c r="L113">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6753,8 +7097,9 @@
       <c r="L114">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -6782,8 +7127,9 @@
       <c r="L115">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6811,8 +7157,9 @@
       <c r="L116">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6840,8 +7187,9 @@
       <c r="L117">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6869,8 +7217,9 @@
       <c r="L118">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6898,8 +7247,9 @@
       <c r="L119">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6927,8 +7277,9 @@
       <c r="L120">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6956,8 +7307,9 @@
       <c r="L121">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6985,8 +7337,14 @@
       <c r="L122">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N122" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -7014,8 +7372,14 @@
       <c r="L123">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -7043,8 +7407,14 @@
       <c r="L124">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>0.8</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -7072,8 +7442,14 @@
       <c r="L125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>4.5</v>
+      </c>
+      <c r="N125" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -7101,8 +7477,14 @@
       <c r="L126">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>0.6</v>
+      </c>
+      <c r="N126" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -7130,8 +7512,9 @@
       <c r="L127">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -7159,8 +7542,9 @@
       <c r="L128">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -7188,8 +7572,9 @@
       <c r="L129">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -7217,8 +7602,9 @@
       <c r="L130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -7246,8 +7632,9 @@
       <c r="L131">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -7275,8 +7662,9 @@
       <c r="L132">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -7304,8 +7692,9 @@
       <c r="L133">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -7333,8 +7722,9 @@
       <c r="L134">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -7362,8 +7752,9 @@
       <c r="L135">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -7391,8 +7782,9 @@
       <c r="L136">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -7420,8 +7812,14 @@
       <c r="L137">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>14</v>
+      </c>
+      <c r="N137" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -7449,8 +7847,14 @@
       <c r="L138">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N138" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -7478,8 +7882,14 @@
       <c r="L139">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N139" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -7507,8 +7917,14 @@
       <c r="L140">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <v>0.6</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7536,8 +7952,14 @@
       <c r="L141">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>4.7</v>
+      </c>
+      <c r="N141" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -7565,8 +7987,9 @@
       <c r="L142">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -7594,8 +8017,9 @@
       <c r="L143">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7623,8 +8047,9 @@
       <c r="L144">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7652,8 +8077,9 @@
       <c r="L145">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -7681,8 +8107,9 @@
       <c r="L146">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -7710,8 +8137,9 @@
       <c r="L147">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -7739,8 +8167,9 @@
       <c r="L148">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7768,8 +8197,9 @@
       <c r="L149">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -7797,8 +8227,9 @@
       <c r="L150">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -7826,8 +8257,9 @@
       <c r="L151">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -7855,8 +8287,14 @@
       <c r="L152">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <v>1.4</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -7884,8 +8322,14 @@
       <c r="L153">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>1.3</v>
+      </c>
+      <c r="N153" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -7913,8 +8357,14 @@
       <c r="L154">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <v>7.9</v>
+      </c>
+      <c r="N154" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -7942,8 +8392,14 @@
       <c r="L155">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155">
+        <v>7.1</v>
+      </c>
+      <c r="N155" s="3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -7974,8 +8430,14 @@
       <c r="L156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <v>0.4</v>
+      </c>
+      <c r="N156" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -8003,8 +8465,9 @@
       <c r="L157">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -8032,8 +8495,9 @@
       <c r="L158">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -8061,8 +8525,9 @@
       <c r="L159">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -8090,8 +8555,9 @@
       <c r="L160">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -8119,8 +8585,9 @@
       <c r="L161">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -8148,8 +8615,9 @@
       <c r="L162">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -8177,8 +8645,9 @@
       <c r="L163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -8206,8 +8675,9 @@
       <c r="L164">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -8235,8 +8705,9 @@
       <c r="L165">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -8264,8 +8735,9 @@
       <c r="L166">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -8293,8 +8765,14 @@
       <c r="L167">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N167" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -8322,8 +8800,14 @@
       <c r="L168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168">
+        <v>0.5</v>
+      </c>
+      <c r="N168" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -8351,8 +8835,14 @@
       <c r="L169">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <v>5.2</v>
+      </c>
+      <c r="N169" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -8380,8 +8870,14 @@
       <c r="L170">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <v>0.5</v>
+      </c>
+      <c r="N170" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -8409,8 +8905,14 @@
       <c r="L171">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <v>0.7</v>
+      </c>
+      <c r="N171" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -8438,8 +8940,9 @@
       <c r="L172">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -8467,8 +8970,9 @@
       <c r="L173">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -8496,8 +9000,9 @@
       <c r="L174">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -8525,8 +9030,9 @@
       <c r="L175">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -8554,8 +9060,9 @@
       <c r="L176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -8583,8 +9090,9 @@
       <c r="L177">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -8612,8 +9120,9 @@
       <c r="L178">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -8641,8 +9150,9 @@
       <c r="L179">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -8670,8 +9180,9 @@
       <c r="L180">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -8699,8 +9210,9 @@
       <c r="L181">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -8731,8 +9243,11 @@
       <c r="M182">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -8763,8 +9278,11 @@
       <c r="M183">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="3">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -8795,8 +9313,11 @@
       <c r="M184">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -8827,8 +9348,11 @@
       <c r="M185">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -8859,8 +9383,11 @@
       <c r="M186">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="3">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -8891,8 +9418,11 @@
       <c r="M187">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -8923,8 +9453,11 @@
       <c r="M188">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -8955,8 +9488,11 @@
       <c r="M189">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -8987,8 +9523,11 @@
       <c r="M190">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -9022,8 +9561,11 @@
       <c r="M191">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -9054,8 +9596,11 @@
       <c r="M192">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -9086,8 +9631,11 @@
       <c r="M193">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -9118,8 +9666,11 @@
       <c r="M194">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -9150,8 +9701,11 @@
       <c r="M195">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -9182,8 +9736,11 @@
       <c r="M196">
         <v>10</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -9214,8 +9771,11 @@
       <c r="M197">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -9246,8 +9806,11 @@
       <c r="M198">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="3">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -9278,8 +9841,11 @@
       <c r="M199">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -9310,8 +9876,11 @@
       <c r="M200">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -9342,8 +9911,11 @@
       <c r="M201">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -9374,8 +9946,11 @@
       <c r="M202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -9406,8 +9981,11 @@
       <c r="M203">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -9438,8 +10016,11 @@
       <c r="M204">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -9470,8 +10051,11 @@
       <c r="M205">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="3">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -9502,8 +10086,11 @@
       <c r="M206">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -9534,8 +10121,11 @@
       <c r="M207">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -9566,8 +10156,11 @@
       <c r="M208">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="3">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -9598,8 +10191,11 @@
       <c r="M209">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -9630,8 +10226,11 @@
       <c r="M210">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -9662,8 +10261,11 @@
       <c r="M211">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -9694,8 +10296,11 @@
       <c r="M212">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="3">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -9726,8 +10331,11 @@
       <c r="M213">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -9758,8 +10366,11 @@
       <c r="M214">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -9793,8 +10404,11 @@
       <c r="M215">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -9825,8 +10439,11 @@
       <c r="M216">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -9857,8 +10474,11 @@
       <c r="M217">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -9889,8 +10509,11 @@
       <c r="M218">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -9921,8 +10544,11 @@
       <c r="M219">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -9953,8 +10579,11 @@
       <c r="M220">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="3">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -9985,8 +10614,11 @@
       <c r="M221">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="3">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -10002,6 +10634,9 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
+      <c r="F222" t="s">
+        <v>669</v>
+      </c>
       <c r="H222">
         <v>1</v>
       </c>
@@ -10017,8 +10652,11 @@
       <c r="M222">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -10049,8 +10687,11 @@
       <c r="M223">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -10081,8 +10722,11 @@
       <c r="M224">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -10113,8 +10757,11 @@
       <c r="M225">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="3">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -10130,6 +10777,9 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
+      <c r="F226" t="s">
+        <v>669</v>
+      </c>
       <c r="H226">
         <v>0.6</v>
       </c>
@@ -10145,8 +10795,11 @@
       <c r="M226">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -10177,8 +10830,11 @@
       <c r="M227">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -10209,8 +10865,11 @@
       <c r="M228">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -10241,8 +10900,11 @@
       <c r="M229">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="3">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -10273,8 +10935,11 @@
       <c r="M230">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -10305,8 +10970,11 @@
       <c r="M231">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -10337,8 +11005,11 @@
       <c r="M232">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -10369,8 +11040,11 @@
       <c r="M233">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -10401,8 +11075,11 @@
       <c r="M234">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -10433,8 +11110,11 @@
       <c r="M235">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -10465,8 +11145,11 @@
       <c r="M236">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -10497,8 +11180,11 @@
       <c r="M237">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -10532,8 +11218,11 @@
       <c r="M238">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -10564,8 +11253,11 @@
       <c r="M239">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -10596,8 +11288,11 @@
       <c r="M240">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -10628,8 +11323,11 @@
       <c r="M241">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -10660,8 +11358,11 @@
       <c r="M242">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -10692,8 +11393,11 @@
       <c r="M243">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -10724,8 +11428,11 @@
       <c r="M244">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" s="3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -10756,8 +11463,11 @@
       <c r="M245">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -10788,8 +11498,11 @@
       <c r="M246">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -10820,8 +11533,11 @@
       <c r="M247">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -10852,8 +11568,11 @@
       <c r="M248">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -10884,8 +11603,11 @@
       <c r="M249">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="3">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -10916,8 +11638,11 @@
       <c r="M250">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -10948,8 +11673,11 @@
       <c r="M251">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="3">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -10980,8 +11708,11 @@
       <c r="M252">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -11012,8 +11743,11 @@
       <c r="M253">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -11044,8 +11778,11 @@
       <c r="M254">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -11076,8 +11813,11 @@
       <c r="M255">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -11108,8 +11848,11 @@
       <c r="M256">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -11140,8 +11883,11 @@
       <c r="M257">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -11172,8 +11918,11 @@
       <c r="M258">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -11204,8 +11953,11 @@
       <c r="M259">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -11236,8 +11988,11 @@
       <c r="M260">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -11268,8 +12023,11 @@
       <c r="M261">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -11300,8 +12058,11 @@
       <c r="M262">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -11332,8 +12093,11 @@
       <c r="M263">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -11349,6 +12113,9 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
+      <c r="F264" t="s">
+        <v>668</v>
+      </c>
       <c r="H264">
         <v>0.8</v>
       </c>
@@ -11367,8 +12134,11 @@
       <c r="M264" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -11399,8 +12169,11 @@
       <c r="M265">
         <v>10</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -11431,8 +12204,11 @@
       <c r="M266">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -11463,8 +12239,11 @@
       <c r="M267">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -11495,8 +12274,11 @@
       <c r="M268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -11527,8 +12309,11 @@
       <c r="M269">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -11559,8 +12344,11 @@
       <c r="M270">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="3">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -11591,8 +12379,11 @@
       <c r="M271">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -11620,8 +12411,9 @@
       <c r="L272">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N272" s="3"/>
+    </row>
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -11649,8 +12441,9 @@
       <c r="L273">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N273" s="3"/>
+    </row>
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -11678,8 +12471,9 @@
       <c r="L274">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N274" s="3"/>
+    </row>
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -11707,8 +12501,9 @@
       <c r="L275">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N275" s="3"/>
+    </row>
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -11736,8 +12531,9 @@
       <c r="L276">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N276" s="3"/>
+    </row>
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -11765,8 +12561,9 @@
       <c r="L277">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N277" s="3"/>
+    </row>
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -11794,8 +12591,9 @@
       <c r="L278">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N278" s="3"/>
+    </row>
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -11823,8 +12621,9 @@
       <c r="L279">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N279" s="3"/>
+    </row>
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -11852,8 +12651,9 @@
       <c r="L280" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N280" s="3"/>
+    </row>
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -11881,8 +12681,9 @@
       <c r="L281">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N281" s="3"/>
+    </row>
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -11910,8 +12711,9 @@
       <c r="L282">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N282" s="3"/>
+    </row>
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -11939,8 +12741,9 @@
       <c r="L283">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N283" s="3"/>
+    </row>
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -11968,8 +12771,9 @@
       <c r="L284">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N284" s="3"/>
+    </row>
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -11997,8 +12801,9 @@
       <c r="L285">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N285" s="3"/>
+    </row>
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -12026,8 +12831,9 @@
       <c r="L286">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N286" s="3"/>
+    </row>
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -12055,8 +12861,9 @@
       <c r="L287">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N287" s="3"/>
+    </row>
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -12084,8 +12891,9 @@
       <c r="L288">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N288" s="3"/>
+    </row>
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -12113,8 +12921,9 @@
       <c r="L289">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N289" s="3"/>
+    </row>
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -12142,8 +12951,9 @@
       <c r="L290">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N290" s="3"/>
+    </row>
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -12171,8 +12981,9 @@
       <c r="L291">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N291" s="3"/>
+    </row>
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -12200,8 +13011,9 @@
       <c r="L292">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N292" s="3"/>
+    </row>
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -12229,8 +13041,9 @@
       <c r="L293">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N293" s="3"/>
+    </row>
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -12258,8 +13071,9 @@
       <c r="L294">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N294" s="3"/>
+    </row>
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -12287,8 +13101,9 @@
       <c r="L295">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N295" s="3"/>
+    </row>
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -12316,8 +13131,9 @@
       <c r="L296">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N296" s="3"/>
+    </row>
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -12345,8 +13161,9 @@
       <c r="L297">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N297" s="3"/>
+    </row>
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -12374,8 +13191,9 @@
       <c r="L298">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N298" s="3"/>
+    </row>
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -12403,8 +13221,9 @@
       <c r="L299">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N299" s="3"/>
+    </row>
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -12432,8 +13251,9 @@
       <c r="L300">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N300" s="3"/>
+    </row>
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -12461,8 +13281,9 @@
       <c r="L301">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N301" s="3"/>
+    </row>
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -12490,8 +13311,9 @@
       <c r="L302">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N302" s="3"/>
+    </row>
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -12519,8 +13341,9 @@
       <c r="L303">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N303" s="3"/>
+    </row>
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -12548,8 +13371,9 @@
       <c r="L304">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N304" s="3"/>
+    </row>
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -12577,8 +13401,9 @@
       <c r="L305">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N305" s="3"/>
+    </row>
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -12606,8 +13431,9 @@
       <c r="L306">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N306" s="3"/>
+    </row>
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -12635,8 +13461,9 @@
       <c r="L307">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N307" s="3"/>
+    </row>
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -12664,8 +13491,9 @@
       <c r="L308">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N308" s="3"/>
+    </row>
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -12693,8 +13521,9 @@
       <c r="L309">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N309" s="3"/>
+    </row>
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -12722,8 +13551,9 @@
       <c r="L310">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N310" s="3"/>
+    </row>
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -12751,8 +13581,9 @@
       <c r="L311">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N311" s="3"/>
+    </row>
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -12780,8 +13611,9 @@
       <c r="L312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N312" s="3"/>
+    </row>
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -12809,8 +13641,9 @@
       <c r="L313">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N313" s="3"/>
+    </row>
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -12838,8 +13671,9 @@
       <c r="L314">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N314" s="3"/>
+    </row>
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -12867,8 +13701,9 @@
       <c r="L315">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N315" s="3"/>
+    </row>
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -12896,8 +13731,9 @@
       <c r="L316">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N316" s="3"/>
+    </row>
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -12925,8 +13761,9 @@
       <c r="L317">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N317" s="3"/>
+    </row>
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -12954,8 +13791,9 @@
       <c r="L318">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N318" s="3"/>
+    </row>
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -12983,8 +13821,9 @@
       <c r="L319">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N319" s="3"/>
+    </row>
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -13012,8 +13851,9 @@
       <c r="L320">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N320" s="3"/>
+    </row>
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -13041,8 +13881,9 @@
       <c r="L321">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N321" s="3"/>
+    </row>
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -13070,8 +13911,9 @@
       <c r="L322">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N322" s="3"/>
+    </row>
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -13099,8 +13941,9 @@
       <c r="L323">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N323" s="3"/>
+    </row>
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -13128,8 +13971,9 @@
       <c r="L324">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N324" s="3"/>
+    </row>
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -13157,8 +14001,9 @@
       <c r="L325">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N325" s="3"/>
+    </row>
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -13189,8 +14034,9 @@
       <c r="L326" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N326" s="3"/>
+    </row>
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -13221,8 +14067,9 @@
       <c r="L327" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N327" s="3"/>
+    </row>
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -13250,8 +14097,9 @@
       <c r="L328">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N328" s="3"/>
+    </row>
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -13279,8 +14127,9 @@
       <c r="L329">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N329" s="3"/>
+    </row>
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -13308,8 +14157,9 @@
       <c r="L330">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N330" s="3"/>
+    </row>
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -13337,8 +14187,9 @@
       <c r="L331">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N331" s="3"/>
+    </row>
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -13366,8 +14217,9 @@
       <c r="L332">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N332" s="3"/>
+    </row>
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -13395,8 +14247,9 @@
       <c r="L333">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N333" s="3"/>
+    </row>
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -13424,8 +14277,9 @@
       <c r="L334">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N334" s="3"/>
+    </row>
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -13453,8 +14307,9 @@
       <c r="L335">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N335" s="3"/>
+    </row>
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -13482,8 +14337,9 @@
       <c r="L336">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N336" s="3"/>
+    </row>
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -13511,8 +14367,9 @@
       <c r="L337">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N337" s="3"/>
+    </row>
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -13540,8 +14397,9 @@
       <c r="L338">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N338" s="3"/>
+    </row>
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -13569,8 +14427,9 @@
       <c r="L339">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N339" s="3"/>
+    </row>
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -13598,8 +14457,9 @@
       <c r="L340">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N340" s="3"/>
+    </row>
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -13627,8 +14487,9 @@
       <c r="L341">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N341" s="3"/>
+    </row>
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -13659,8 +14520,9 @@
       <c r="L342" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N342" s="3"/>
+    </row>
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -13688,8 +14550,9 @@
       <c r="L343">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N343" s="3"/>
+    </row>
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -13717,8 +14580,9 @@
       <c r="L344">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N344" s="3"/>
+    </row>
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -13746,8 +14610,9 @@
       <c r="L345">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N345" s="3"/>
+    </row>
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -13775,8 +14640,9 @@
       <c r="L346">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N346" s="3"/>
+    </row>
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -13804,8 +14670,9 @@
       <c r="L347">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N347" s="3"/>
+    </row>
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -13833,8 +14700,9 @@
       <c r="L348">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N348" s="3"/>
+    </row>
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -13862,8 +14730,9 @@
       <c r="L349">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N349" s="3"/>
+    </row>
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -13891,8 +14760,9 @@
       <c r="L350">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N350" s="3"/>
+    </row>
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -13920,8 +14790,9 @@
       <c r="L351">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N351" s="3"/>
+    </row>
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -13949,8 +14820,9 @@
       <c r="L352">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352" s="3"/>
+    </row>
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -13978,8 +14850,9 @@
       <c r="L353">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353" s="3"/>
+    </row>
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -14007,8 +14880,9 @@
       <c r="L354" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354" s="3"/>
+    </row>
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -14036,8 +14910,9 @@
       <c r="L355">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355" s="3"/>
+    </row>
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -14065,8 +14940,9 @@
       <c r="L356">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356" s="3"/>
+    </row>
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -14094,8 +14970,9 @@
       <c r="L357">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357" s="3"/>
+    </row>
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -14132,8 +15009,9 @@
       <c r="M358">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358" s="3"/>
+    </row>
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -14170,8 +15048,9 @@
       <c r="M359">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359" s="3"/>
+    </row>
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -14208,8 +15087,9 @@
       <c r="M360">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360" s="3"/>
+    </row>
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -14246,8 +15126,9 @@
       <c r="M361">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361" s="3"/>
+    </row>
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -14284,8 +15165,9 @@
       <c r="M362">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362" s="3"/>
+    </row>
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -14322,8 +15204,9 @@
       <c r="M363">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363" s="3"/>
+    </row>
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -14360,8 +15243,9 @@
       <c r="M364">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364" s="3"/>
+    </row>
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -14398,8 +15282,9 @@
       <c r="M365">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365" s="3"/>
+    </row>
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -14436,8 +15321,9 @@
       <c r="M366">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366" s="3"/>
+    </row>
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -14474,8 +15360,9 @@
       <c r="M367">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367" s="3"/>
+    </row>
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -14512,8 +15399,9 @@
       <c r="M368">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368" s="3"/>
+    </row>
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -14550,8 +15438,9 @@
       <c r="M369">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369" s="3"/>
+    </row>
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -14588,8 +15477,9 @@
       <c r="M370">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370" s="3"/>
+    </row>
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -14626,8 +15516,9 @@
       <c r="M371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371" s="3"/>
+    </row>
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -14664,8 +15555,9 @@
       <c r="M372">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372" s="3"/>
+    </row>
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -14702,8 +15594,9 @@
       <c r="M373">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373" s="3"/>
+    </row>
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -14740,8 +15633,9 @@
       <c r="M374">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374" s="3"/>
+    </row>
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -14778,8 +15672,9 @@
       <c r="M375">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375" s="3"/>
+    </row>
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -14816,8 +15711,9 @@
       <c r="M376">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376" s="3"/>
+    </row>
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -14854,8 +15750,9 @@
       <c r="M377">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377" s="3"/>
+    </row>
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -14892,8 +15789,9 @@
       <c r="M378">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378" s="3"/>
+    </row>
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -14930,8 +15828,9 @@
       <c r="M379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379" s="3"/>
+    </row>
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -14968,8 +15867,9 @@
       <c r="M380">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380" s="3"/>
+    </row>
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -15006,8 +15906,9 @@
       <c r="M381">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381" s="3"/>
+    </row>
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -15044,8 +15945,9 @@
       <c r="M382">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382" s="3"/>
+    </row>
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -15082,8 +15984,9 @@
       <c r="M383">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383" s="3"/>
+    </row>
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -15120,8 +16023,9 @@
       <c r="M384">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384" s="3"/>
+    </row>
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -15158,8 +16062,9 @@
       <c r="M385">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385" s="3"/>
+    </row>
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -15196,8 +16101,9 @@
       <c r="M386">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386" s="3"/>
+    </row>
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -15234,8 +16140,9 @@
       <c r="M387">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387" s="3"/>
+    </row>
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -15275,8 +16182,9 @@
       <c r="M388">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388" s="3"/>
+    </row>
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -15313,8 +16221,9 @@
       <c r="M389">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389" s="3"/>
+    </row>
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -15351,8 +16260,9 @@
       <c r="M390">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390" s="3"/>
+    </row>
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -15389,8 +16299,9 @@
       <c r="M391">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391" s="3"/>
+    </row>
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -15427,8 +16338,9 @@
       <c r="M392">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N392" s="3"/>
+    </row>
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -15465,8 +16377,9 @@
       <c r="M393">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393" s="3"/>
+    </row>
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -15503,8 +16416,9 @@
       <c r="M394">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N394" s="3"/>
+    </row>
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -15544,8 +16458,9 @@
       <c r="M395">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395" s="3"/>
+    </row>
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -15582,8 +16497,9 @@
       <c r="M396">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N396" s="3"/>
+    </row>
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -15620,8 +16536,9 @@
       <c r="M397">
         <v>11</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N397" s="3"/>
+    </row>
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -15658,8 +16575,9 @@
       <c r="M398">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398" s="3"/>
+    </row>
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -15696,8 +16614,9 @@
       <c r="M399">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N399" s="3"/>
+    </row>
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -15734,8 +16653,9 @@
       <c r="M400">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400" s="3"/>
+    </row>
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -15772,8 +16692,9 @@
       <c r="M401">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N401" s="3"/>
+    </row>
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -15810,8 +16731,9 @@
       <c r="M402">
         <v>5</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N402" s="3"/>
+    </row>
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -15848,8 +16770,9 @@
       <c r="M403">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N403" s="3"/>
+    </row>
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -15886,8 +16809,9 @@
       <c r="M404">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N404" s="3"/>
+    </row>
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -15927,8 +16851,9 @@
       <c r="M405">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N405" s="3"/>
+    </row>
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -15965,8 +16890,9 @@
       <c r="M406">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N406" s="3"/>
+    </row>
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -16003,8 +16929,9 @@
       <c r="M407">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N407" s="3"/>
+    </row>
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -16041,8 +16968,9 @@
       <c r="M408">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N408" s="3"/>
+    </row>
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -16079,8 +17007,9 @@
       <c r="M409">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N409" s="3"/>
+    </row>
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -16117,8 +17046,9 @@
       <c r="M410">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N410" s="3"/>
+    </row>
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -16155,8 +17085,9 @@
       <c r="M411">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N411" s="3"/>
+    </row>
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -16193,8 +17124,9 @@
       <c r="M412">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N412" s="3"/>
+    </row>
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -16231,8 +17163,9 @@
       <c r="M413">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N413" s="3"/>
+    </row>
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -16269,8 +17202,9 @@
       <c r="M414">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N414" s="3"/>
+    </row>
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -16307,8 +17241,9 @@
       <c r="M415">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N415" s="3"/>
+    </row>
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -16345,8 +17280,9 @@
       <c r="M416">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N416" s="3"/>
+    </row>
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -16383,8 +17319,9 @@
       <c r="M417">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N417" s="3"/>
+    </row>
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -16421,8 +17358,9 @@
       <c r="M418">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N418" s="3"/>
+    </row>
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -16459,8 +17397,9 @@
       <c r="M419">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N419" s="3"/>
+    </row>
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -16497,8 +17436,9 @@
       <c r="M420">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N420" s="3"/>
+    </row>
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -16535,8 +17475,9 @@
       <c r="M421">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N421" s="3"/>
+    </row>
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -16573,8 +17514,9 @@
       <c r="M422" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N422" s="3"/>
+    </row>
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -16611,8 +17553,9 @@
       <c r="M423">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N423" s="3"/>
+    </row>
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -16649,8 +17592,9 @@
       <c r="M424">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N424" s="3"/>
+    </row>
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -16687,8 +17631,9 @@
       <c r="M425">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N425" s="3"/>
+    </row>
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -16725,8 +17670,9 @@
       <c r="M426">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N426" s="3"/>
+    </row>
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -16763,8 +17709,9 @@
       <c r="M427">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N427" s="3"/>
+    </row>
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -16801,8 +17748,9 @@
       <c r="M428">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N428" s="3"/>
+    </row>
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -16842,8 +17790,9 @@
       <c r="M429">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N429" s="3"/>
+    </row>
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -16880,8 +17829,9 @@
       <c r="M430">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N430" s="3"/>
+    </row>
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -16918,8 +17868,9 @@
       <c r="M431">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N431" s="3"/>
+    </row>
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -16956,8 +17907,9 @@
       <c r="M432">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N432" s="3"/>
+    </row>
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -16994,8 +17946,9 @@
       <c r="M433">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N433" s="3"/>
+    </row>
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -17032,8 +17985,9 @@
       <c r="M434">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N434" s="3"/>
+    </row>
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -17070,8 +18024,9 @@
       <c r="M435">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N435" s="3"/>
+    </row>
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -17108,8 +18063,9 @@
       <c r="M436">
         <v>3</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N436" s="3"/>
+    </row>
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -17146,8 +18102,9 @@
       <c r="M437">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N437" s="3"/>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -17169,8 +18126,14 @@
       <c r="L438">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M438" t="s">
+        <v>649</v>
+      </c>
+      <c r="N438" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -17192,8 +18155,14 @@
       <c r="L439">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M439">
+        <v>1.8</v>
+      </c>
+      <c r="N439" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -17215,8 +18184,14 @@
       <c r="L440">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M440">
+        <v>3.4</v>
+      </c>
+      <c r="N440" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -17238,8 +18213,14 @@
       <c r="L441">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M441">
+        <v>3.9</v>
+      </c>
+      <c r="N441" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -17261,8 +18242,14 @@
       <c r="L442">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M442">
+        <v>3.1</v>
+      </c>
+      <c r="N442" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -17284,8 +18271,9 @@
       <c r="L443">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N443" s="3"/>
+    </row>
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -17307,8 +18295,9 @@
       <c r="L444">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N444" s="3"/>
+    </row>
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -17330,8 +18319,9 @@
       <c r="L445">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N445" s="3"/>
+    </row>
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -17353,8 +18343,9 @@
       <c r="L446">
         <v>2</v>
       </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N446" s="3"/>
+    </row>
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -17376,8 +18367,9 @@
       <c r="L447">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N447" s="3"/>
+    </row>
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -17399,8 +18391,9 @@
       <c r="L448">
         <v>6</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N448" s="3"/>
+    </row>
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -17422,8 +18415,9 @@
       <c r="L449">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N449" s="3"/>
+    </row>
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -17445,8 +18439,9 @@
       <c r="L450">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N450" s="3"/>
+    </row>
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -17468,8 +18463,9 @@
       <c r="L451">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N451" s="3"/>
+    </row>
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -17491,8 +18487,9 @@
       <c r="L452">
         <v>8</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N452" s="3"/>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -17514,8 +18511,14 @@
       <c r="L453">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M453">
+        <v>21.9</v>
+      </c>
+      <c r="N453" s="3">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -17537,8 +18540,14 @@
       <c r="L454">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M454">
+        <v>9.5</v>
+      </c>
+      <c r="N454" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -17560,8 +18569,14 @@
       <c r="L455">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M455">
+        <v>3.6</v>
+      </c>
+      <c r="N455" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -17583,8 +18598,14 @@
       <c r="L456">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M456">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N456" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -17606,8 +18627,14 @@
       <c r="L457">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M457">
+        <v>8.5</v>
+      </c>
+      <c r="N457" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -17629,8 +18656,9 @@
       <c r="L458">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N458" s="3"/>
+    </row>
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -17652,8 +18680,9 @@
       <c r="L459">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N459" s="3"/>
+    </row>
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -17675,8 +18704,9 @@
       <c r="L460">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N460" s="3"/>
+    </row>
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -17698,8 +18728,9 @@
       <c r="L461">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N461" s="3"/>
+    </row>
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -17721,8 +18752,9 @@
       <c r="L462">
         <v>8</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N462" s="3"/>
+    </row>
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -17747,8 +18779,9 @@
       <c r="L463" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N463" s="3"/>
+    </row>
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -17770,8 +18803,9 @@
       <c r="L464">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N464" s="3"/>
+    </row>
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -17793,8 +18827,9 @@
       <c r="L465">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N465" s="3"/>
+    </row>
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -17816,8 +18851,9 @@
       <c r="L466">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N466" s="3"/>
+    </row>
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -17839,8 +18875,9 @@
       <c r="L467">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N467" s="3"/>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -17862,8 +18899,14 @@
       <c r="L468">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M468">
+        <v>8</v>
+      </c>
+      <c r="N468" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -17888,8 +18931,14 @@
       <c r="L469">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M469">
+        <v>1.7</v>
+      </c>
+      <c r="N469" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -17911,8 +18960,14 @@
       <c r="L470">
         <v>6</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M470">
+        <v>7.3</v>
+      </c>
+      <c r="N470" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -17934,8 +18989,14 @@
       <c r="L471">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M471">
+        <v>3.5</v>
+      </c>
+      <c r="N471" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -17957,8 +19018,14 @@
       <c r="L472">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M472">
+        <v>2.1</v>
+      </c>
+      <c r="N472" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -17980,8 +19047,9 @@
       <c r="L473">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N473" s="3"/>
+    </row>
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -18003,8 +19071,9 @@
       <c r="L474">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N474" s="3"/>
+    </row>
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -18026,8 +19095,9 @@
       <c r="L475">
         <v>2</v>
       </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N475" s="3"/>
+    </row>
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -18055,8 +19125,9 @@
       <c r="M476" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N476" s="3"/>
+    </row>
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -18078,8 +19149,9 @@
       <c r="L477">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N477" s="3"/>
+    </row>
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -18101,8 +19173,9 @@
       <c r="L478">
         <v>2</v>
       </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N478" s="3"/>
+    </row>
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -18124,8 +19197,9 @@
       <c r="L479">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N479" s="3"/>
+    </row>
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -18147,8 +19221,9 @@
       <c r="L480">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N480" s="3"/>
+    </row>
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -18173,8 +19248,9 @@
       <c r="L481" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N481" s="3"/>
+    </row>
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -18196,8 +19272,9 @@
       <c r="L482">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N482" s="3"/>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -18213,14 +19290,20 @@
       <c r="E483" t="s">
         <v>460</v>
       </c>
-      <c r="K483" s="3">
+      <c r="K483">
         <v>4.0999999999999996</v>
       </c>
       <c r="L483">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M483">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N483" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -18236,14 +19319,20 @@
       <c r="E484" t="s">
         <v>460</v>
       </c>
-      <c r="K484" s="3">
+      <c r="K484">
         <v>3.9</v>
       </c>
       <c r="L484">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M484">
+        <v>4.5</v>
+      </c>
+      <c r="N484" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -18259,14 +19348,20 @@
       <c r="E485" t="s">
         <v>460</v>
       </c>
-      <c r="K485" s="3" t="s">
+      <c r="K485" t="s">
         <v>649</v>
       </c>
       <c r="L485">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M485">
+        <v>4.3</v>
+      </c>
+      <c r="N485" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -18282,14 +19377,20 @@
       <c r="E486" t="s">
         <v>460</v>
       </c>
-      <c r="K486" s="3" t="s">
+      <c r="K486" t="s">
         <v>649</v>
       </c>
       <c r="L486">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M486">
+        <v>2.1</v>
+      </c>
+      <c r="N486" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -18311,8 +19412,14 @@
       <c r="L487">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M487">
+        <v>2.5</v>
+      </c>
+      <c r="N487" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -18334,8 +19441,9 @@
       <c r="L488">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N488" s="3"/>
+    </row>
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -18357,8 +19465,9 @@
       <c r="L489">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N489" s="3"/>
+    </row>
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -18380,8 +19489,9 @@
       <c r="L490">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N490" s="3"/>
+    </row>
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -18403,8 +19513,9 @@
       <c r="L491">
         <v>12</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N491" s="3"/>
+    </row>
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -18426,8 +19537,9 @@
       <c r="L492">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N492" s="3"/>
+    </row>
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -18449,8 +19561,9 @@
       <c r="L493">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N493" s="3"/>
+    </row>
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -18472,8 +19585,9 @@
       <c r="L494">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N494" s="3"/>
+    </row>
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -18495,8 +19609,9 @@
       <c r="L495">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N495" s="3"/>
+    </row>
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -18518,8 +19633,9 @@
       <c r="L496">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N496" s="3"/>
+    </row>
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -18541,8 +19657,9 @@
       <c r="L497">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N497" s="3"/>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -18564,8 +19681,14 @@
       <c r="L498">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M498">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N498" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -18587,8 +19710,14 @@
       <c r="L499">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M499">
+        <v>4.7</v>
+      </c>
+      <c r="N499" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -18610,8 +19739,14 @@
       <c r="L500">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M500">
+        <v>2.4</v>
+      </c>
+      <c r="N500" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -18633,8 +19768,14 @@
       <c r="L501">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M501">
+        <v>1.5</v>
+      </c>
+      <c r="N501" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -18656,8 +19797,14 @@
       <c r="L502">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M502">
+        <v>10.5</v>
+      </c>
+      <c r="N502" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -18679,8 +19826,9 @@
       <c r="L503" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N503" s="3"/>
+    </row>
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -18705,8 +19853,9 @@
       <c r="L504" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N504" s="3"/>
+    </row>
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -18728,8 +19877,9 @@
       <c r="L505">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N505" s="3"/>
+    </row>
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -18751,8 +19901,9 @@
       <c r="L506">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N506" s="3"/>
+    </row>
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -18774,8 +19925,9 @@
       <c r="L507">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N507" s="3"/>
+    </row>
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -18797,8 +19949,9 @@
       <c r="L508">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N508" s="3"/>
+    </row>
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -18820,8 +19973,9 @@
       <c r="L509">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N509" s="3"/>
+    </row>
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -18843,8 +19997,9 @@
       <c r="L510">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N510" s="3"/>
+    </row>
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -18866,8 +20021,9 @@
       <c r="L511">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N511" s="3"/>
+    </row>
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -18889,8 +20045,9 @@
       <c r="L512">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N512" s="3"/>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -18912,8 +20069,14 @@
       <c r="L513">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M513">
+        <v>3.9</v>
+      </c>
+      <c r="N513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -18935,8 +20098,14 @@
       <c r="L514">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M514">
+        <v>3.4</v>
+      </c>
+      <c r="N514" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -18958,8 +20127,14 @@
       <c r="L515">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M515">
+        <v>1.8</v>
+      </c>
+      <c r="N515" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -18981,8 +20156,14 @@
       <c r="L516">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M516">
+        <v>1.8</v>
+      </c>
+      <c r="N516" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -19004,8 +20185,14 @@
       <c r="L517">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M517">
+        <v>7.1</v>
+      </c>
+      <c r="N517" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -19027,8 +20214,9 @@
       <c r="L518">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N518" s="3"/>
+    </row>
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -19050,8 +20238,9 @@
       <c r="L519">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N519" s="3"/>
+    </row>
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -19073,8 +20262,9 @@
       <c r="L520">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N520" s="3"/>
+    </row>
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -19096,8 +20286,9 @@
       <c r="L521">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N521" s="3"/>
+    </row>
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -19119,8 +20310,9 @@
       <c r="L522">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N522" s="3"/>
+    </row>
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -19145,8 +20337,9 @@
       <c r="L523">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N523" s="3"/>
+    </row>
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -19168,8 +20361,9 @@
       <c r="L524">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N524" s="3"/>
+    </row>
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -19191,8 +20385,9 @@
       <c r="L525">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N525" s="3"/>
+    </row>
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -19214,8 +20409,9 @@
       <c r="L526">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N526" s="3"/>
+    </row>
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -19240,8 +20436,9 @@
       <c r="L527">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N527" s="3"/>
+    </row>
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -19257,8 +20454,11 @@
       <c r="E528" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N528" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -19274,8 +20474,11 @@
       <c r="E529" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N529" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -19291,8 +20494,11 @@
       <c r="E530" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N530" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -19308,8 +20514,11 @@
       <c r="E531" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N531" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -19325,8 +20534,11 @@
       <c r="E532" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N532" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -19342,8 +20554,11 @@
       <c r="E533" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N533" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -19359,8 +20574,11 @@
       <c r="E534" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N534" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -19376,8 +20594,11 @@
       <c r="E535" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N535" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -19393,8 +20614,11 @@
       <c r="E536" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N536" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -19410,8 +20634,11 @@
       <c r="E537" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N537" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -19427,8 +20654,11 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N538" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -19444,8 +20674,11 @@
       <c r="E539" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N539" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -19461,8 +20694,11 @@
       <c r="E540" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N540" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -19478,8 +20714,11 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N541" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -19495,8 +20734,11 @@
       <c r="E542" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N542" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -19512,8 +20754,11 @@
       <c r="E543" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N543" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -19529,8 +20774,11 @@
       <c r="E544" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N544" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -19546,8 +20794,11 @@
       <c r="E545" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N545" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -19563,8 +20814,11 @@
       <c r="E546" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N546" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -19580,8 +20834,11 @@
       <c r="E547" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N547" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -19597,8 +20854,11 @@
       <c r="E548" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N548" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -19614,8 +20874,11 @@
       <c r="E549" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N549" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -19631,8 +20894,11 @@
       <c r="E550" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N550" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -19648,8 +20914,11 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N551" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -19665,8 +20934,11 @@
       <c r="E552" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N552" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -19682,8 +20954,11 @@
       <c r="E553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N553" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -19699,8 +20974,11 @@
       <c r="E554" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N554" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -19716,8 +20994,11 @@
       <c r="E555" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N555" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -19733,8 +21014,11 @@
       <c r="E556" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N556" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -19750,8 +21034,11 @@
       <c r="E557" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N557" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -19767,8 +21054,11 @@
       <c r="E558" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N558" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -19784,8 +21074,11 @@
       <c r="E559" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N559" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -19801,8 +21094,11 @@
       <c r="E560" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N560" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -19818,8 +21114,11 @@
       <c r="E561" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N561" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -19835,8 +21134,11 @@
       <c r="E562" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N562" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -19852,8 +21154,11 @@
       <c r="E563" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N563" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -19869,8 +21174,11 @@
       <c r="E564" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N564" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -19886,8 +21194,11 @@
       <c r="E565" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N565" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -19903,8 +21214,11 @@
       <c r="E566" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N566" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -19920,8 +21234,11 @@
       <c r="E567" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N567" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -19937,8 +21254,11 @@
       <c r="E568" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N568" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -19954,8 +21274,11 @@
       <c r="E569" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N569" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -19971,8 +21294,11 @@
       <c r="E570" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N570" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -19988,8 +21314,11 @@
       <c r="E571" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N571" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -20005,8 +21334,11 @@
       <c r="E572" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N572" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -20022,8 +21354,11 @@
       <c r="E573" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N573" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -20039,8 +21374,11 @@
       <c r="E574" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N574" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -20056,8 +21394,11 @@
       <c r="E575" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N575" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -20073,8 +21414,11 @@
       <c r="E576" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N576" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -20090,8 +21434,11 @@
       <c r="E577" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N577" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -20107,8 +21454,11 @@
       <c r="E578" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N578" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -20124,8 +21474,11 @@
       <c r="E579" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N579" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -20141,8 +21494,11 @@
       <c r="E580" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N580" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -20158,8 +21514,11 @@
       <c r="E581" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N581" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -20175,8 +21534,11 @@
       <c r="E582" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N582" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -20192,8 +21554,11 @@
       <c r="E583" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N583" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -20209,8 +21574,11 @@
       <c r="E584" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N584" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -20226,8 +21594,11 @@
       <c r="E585" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N585" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -20243,8 +21614,11 @@
       <c r="E586" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N586" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -20260,8 +21634,11 @@
       <c r="E587" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N587" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -20277,8 +21654,11 @@
       <c r="E588" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N588" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -20294,8 +21674,11 @@
       <c r="E589" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N589" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -20311,8 +21694,11 @@
       <c r="E590" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N590" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -20328,8 +21714,11 @@
       <c r="E591" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N591" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -20345,8 +21734,11 @@
       <c r="E592" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N592" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -20362,8 +21754,11 @@
       <c r="E593" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N593" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -20379,8 +21774,11 @@
       <c r="E594" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N594" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -20396,8 +21794,11 @@
       <c r="E595" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N595" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -20413,8 +21814,11 @@
       <c r="E596" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N596" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -20430,8 +21834,11 @@
       <c r="E597" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N597" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -20447,8 +21854,11 @@
       <c r="E598" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N598" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -20464,8 +21874,11 @@
       <c r="E599" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N599" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -20481,8 +21894,11 @@
       <c r="E600" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N600" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -20498,8 +21914,11 @@
       <c r="E601" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N601" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -20515,8 +21934,11 @@
       <c r="E602" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N602" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -20532,8 +21954,11 @@
       <c r="E603" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N603" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -20549,8 +21974,11 @@
       <c r="E604" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N604" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -20566,8 +21994,11 @@
       <c r="E605" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N605" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -20583,8 +22014,11 @@
       <c r="E606" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N606" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -20600,8 +22034,11 @@
       <c r="E607" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N607" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -20617,8 +22054,11 @@
       <c r="E608" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N608" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -20634,8 +22074,11 @@
       <c r="E609" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N609" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -20651,8 +22094,11 @@
       <c r="E610" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N610" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -20668,8 +22114,11 @@
       <c r="E611" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N611" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -20685,8 +22134,11 @@
       <c r="E612" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N612" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -20702,8 +22154,11 @@
       <c r="E613" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N613" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -20719,8 +22174,11 @@
       <c r="E614" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N614" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -20736,8 +22194,11 @@
       <c r="E615" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N615" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -20753,8 +22214,11 @@
       <c r="E616" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N616" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -20769,6 +22233,9 @@
       </c>
       <c r="E617" t="s">
         <v>552</v>
+      </c>
+      <c r="N617" s="3">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/TELab/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96890776-22B4-1B45-8C2F-B1320365F5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1F2301-8874-D744-A86D-1536E7667EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="670">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2737,7 +2737,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>437</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2827,12 +2827,12 @@
   <autoFilter ref="A1:N617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="quercus"/>
+        <filter val="betula"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3175,9 +3175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N619" sqref="N619"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3229,7 @@
       <c r="M1" t="s">
         <v>663</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>667</v>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       <c r="M2" t="s">
         <v>649</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <v>8</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="M3">
         <v>5.2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <v>5.4</v>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       <c r="M4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="M5">
         <v>4.8</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <v>5.2</v>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="M6">
         <v>8.9</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <v>9</v>
       </c>
     </row>
@@ -3454,7 +3454,12 @@
       <c r="L7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="M7">
+        <v>8.5</v>
+      </c>
+      <c r="N7">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3487,7 +3492,12 @@
       <c r="L8">
         <v>3.6</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="M8">
+        <v>3.7</v>
+      </c>
+      <c r="N8">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3520,7 +3530,12 @@
       <c r="L9">
         <v>9.5</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="M9">
+        <v>11.1</v>
+      </c>
+      <c r="N9">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3553,7 +3568,12 @@
       <c r="L10">
         <v>11.5</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="M10">
+        <v>12.7</v>
+      </c>
+      <c r="N10">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3586,7 +3606,12 @@
       <c r="L11">
         <v>3.7</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="M11">
+        <v>3.9</v>
+      </c>
+      <c r="N11">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3619,7 +3644,12 @@
       <c r="L12">
         <v>3.3</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="M12">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3652,7 +3682,12 @@
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="M13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N13">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3685,7 +3720,12 @@
       <c r="L14">
         <v>4.8</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="M14">
+        <v>5.4</v>
+      </c>
+      <c r="N14">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3718,7 +3758,12 @@
       <c r="L15">
         <v>5.6</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="M15">
+        <v>6.9</v>
+      </c>
+      <c r="N15">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3751,7 +3796,12 @@
       <c r="L16">
         <v>5.6</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="M16">
+        <v>5.8</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3787,7 +3837,7 @@
       <c r="M17">
         <v>7.5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <v>7.6</v>
       </c>
     </row>
@@ -3825,7 +3875,7 @@
       <c r="M18">
         <v>14.9</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <v>15.4</v>
       </c>
     </row>
@@ -3863,7 +3913,7 @@
       <c r="M19">
         <v>8.4</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <v>8.5</v>
       </c>
     </row>
@@ -3901,7 +3951,7 @@
       <c r="M20">
         <v>10.199999999999999</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <v>10.8</v>
       </c>
     </row>
@@ -3942,7 +3992,7 @@
       <c r="M21">
         <v>3.8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <v>3.8</v>
       </c>
     </row>
@@ -3977,7 +4027,12 @@
       <c r="L22">
         <v>9</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="M22">
+        <v>9.4</v>
+      </c>
+      <c r="N22">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4010,7 +4065,12 @@
       <c r="L23">
         <v>7.1</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="M23">
+        <v>7.7</v>
+      </c>
+      <c r="N23">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -4043,7 +4103,12 @@
       <c r="L24">
         <v>5</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="M24">
+        <v>5.2</v>
+      </c>
+      <c r="N24">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -4076,7 +4141,12 @@
       <c r="L25">
         <v>7.6</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="M25">
+        <v>8.5</v>
+      </c>
+      <c r="N25">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -4109,7 +4179,12 @@
       <c r="L26">
         <v>8</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="M26">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N26">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -4140,9 +4215,14 @@
         <v>5.4</v>
       </c>
       <c r="L27">
-        <v>6.8</v>
-      </c>
-      <c r="N27" s="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="M27">
+        <v>5.9</v>
+      </c>
+      <c r="N27">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -4175,7 +4255,12 @@
       <c r="L28">
         <v>4.7</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="M28">
+        <v>4.7</v>
+      </c>
+      <c r="N28">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -4208,7 +4293,12 @@
       <c r="L29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="M29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N29">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -4241,7 +4331,12 @@
       <c r="L30">
         <v>6.3</v>
       </c>
-      <c r="N30" s="3"/>
+      <c r="M30">
+        <v>6.8</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -4274,7 +4369,12 @@
       <c r="L31">
         <v>7.4</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="M31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N31">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4310,7 +4410,7 @@
       <c r="M32">
         <v>6.2</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <v>6.6</v>
       </c>
     </row>
@@ -4348,7 +4448,7 @@
       <c r="M33">
         <v>10.6</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33">
         <v>10.9</v>
       </c>
     </row>
@@ -4386,7 +4486,7 @@
       <c r="M34">
         <v>5.8</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <v>5.9</v>
       </c>
     </row>
@@ -4424,7 +4524,7 @@
       <c r="M35">
         <v>9.5</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <v>10</v>
       </c>
     </row>
@@ -4462,7 +4562,7 @@
       <c r="M36">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -4497,7 +4597,12 @@
       <c r="L37">
         <v>6.1</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="M37">
+        <v>6.5</v>
+      </c>
+      <c r="N37">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4530,7 +4635,12 @@
       <c r="L38">
         <v>5.4</v>
       </c>
-      <c r="N38" s="3"/>
+      <c r="M38">
+        <v>5.7</v>
+      </c>
+      <c r="N38">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -4563,7 +4673,12 @@
       <c r="L39">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="M39">
+        <v>10.4</v>
+      </c>
+      <c r="N39">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4596,7 +4711,12 @@
       <c r="L40">
         <v>8.5</v>
       </c>
-      <c r="N40" s="3"/>
+      <c r="M40">
+        <v>10.1</v>
+      </c>
+      <c r="N40">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -4629,7 +4749,12 @@
       <c r="L41">
         <v>2.9</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="M41">
+        <v>2.9</v>
+      </c>
+      <c r="N41">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4662,7 +4787,12 @@
       <c r="L42">
         <v>8.4</v>
       </c>
-      <c r="N42" s="3"/>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4695,7 +4825,12 @@
       <c r="L43">
         <v>3.6</v>
       </c>
-      <c r="N43" s="3"/>
+      <c r="M43">
+        <v>3.7</v>
+      </c>
+      <c r="N43">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -4728,7 +4863,12 @@
       <c r="L44">
         <v>6.7</v>
       </c>
-      <c r="N44" s="3"/>
+      <c r="M44">
+        <v>7.8</v>
+      </c>
+      <c r="N44">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4761,7 +4901,12 @@
       <c r="L45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="M45">
+        <v>5.3</v>
+      </c>
+      <c r="N45">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -4794,7 +4939,12 @@
       <c r="L46">
         <v>4</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="M46">
+        <v>4.3</v>
+      </c>
+      <c r="N46">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4830,7 +4980,7 @@
       <c r="M47">
         <v>7.6</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -4868,7 +5018,7 @@
       <c r="M48">
         <v>5.9</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48">
         <v>6.8</v>
       </c>
     </row>
@@ -4906,7 +5056,7 @@
       <c r="M49">
         <v>9.6</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49">
         <v>10.7</v>
       </c>
     </row>
@@ -4944,7 +5094,7 @@
       <c r="M50">
         <v>10.9</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50">
         <v>11.1</v>
       </c>
     </row>
@@ -4982,7 +5132,7 @@
       <c r="M51">
         <v>12.2</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51">
         <v>12.5</v>
       </c>
     </row>
@@ -5017,7 +5167,12 @@
       <c r="L52">
         <v>3.9</v>
       </c>
-      <c r="N52" s="3"/>
+      <c r="M52">
+        <v>3.9</v>
+      </c>
+      <c r="N52">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -5050,7 +5205,12 @@
       <c r="L53">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="M53">
+        <v>10.5</v>
+      </c>
+      <c r="N53">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -5083,7 +5243,12 @@
       <c r="L54">
         <v>11.5</v>
       </c>
-      <c r="N54" s="3"/>
+      <c r="M54">
+        <v>13.1</v>
+      </c>
+      <c r="N54">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -5116,7 +5281,12 @@
       <c r="L55">
         <v>8.5</v>
       </c>
-      <c r="N55" s="3"/>
+      <c r="M55">
+        <v>9.4</v>
+      </c>
+      <c r="N55">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -5149,7 +5319,12 @@
       <c r="L56">
         <v>5.2</v>
       </c>
-      <c r="N56" s="3"/>
+      <c r="M56">
+        <v>5.6</v>
+      </c>
+      <c r="N56">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -5182,7 +5357,12 @@
       <c r="L57">
         <v>5.4</v>
       </c>
-      <c r="N57" s="3"/>
+      <c r="M57">
+        <v>5.7</v>
+      </c>
+      <c r="N57">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -5215,7 +5395,12 @@
       <c r="L58">
         <v>6.9</v>
       </c>
-      <c r="N58" s="3"/>
+      <c r="M58">
+        <v>7.2</v>
+      </c>
+      <c r="N58">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -5248,7 +5433,12 @@
       <c r="L59">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N59" s="3"/>
+      <c r="M59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N59">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -5281,7 +5471,12 @@
       <c r="L60">
         <v>6.3</v>
       </c>
-      <c r="N60" s="3"/>
+      <c r="M60">
+        <v>6.8</v>
+      </c>
+      <c r="N60">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -5314,7 +5509,12 @@
       <c r="L61">
         <v>6.1</v>
       </c>
-      <c r="N61" s="3"/>
+      <c r="M61">
+        <v>6.4</v>
+      </c>
+      <c r="N61">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -5350,7 +5550,7 @@
       <c r="M62">
         <v>4.2</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62">
         <v>4.2</v>
       </c>
     </row>
@@ -5388,7 +5588,7 @@
       <c r="M63">
         <v>5.5</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63">
         <v>6</v>
       </c>
     </row>
@@ -5426,7 +5626,7 @@
       <c r="M64">
         <v>11.5</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64">
         <v>12.8</v>
       </c>
     </row>
@@ -5464,7 +5664,7 @@
       <c r="M65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5502,7 +5702,7 @@
       <c r="M66">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -5537,7 +5737,12 @@
       <c r="L67">
         <v>5.2</v>
       </c>
-      <c r="N67" s="3"/>
+      <c r="M67">
+        <v>5.8</v>
+      </c>
+      <c r="N67">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -5570,7 +5775,12 @@
       <c r="L68">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N68" s="3"/>
+      <c r="M68">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N68">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -5603,7 +5813,12 @@
       <c r="L69">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N69" s="3"/>
+      <c r="M69">
+        <v>4.5</v>
+      </c>
+      <c r="N69">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -5636,7 +5851,12 @@
       <c r="L70">
         <v>8.6</v>
       </c>
-      <c r="N70" s="3"/>
+      <c r="M70">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N70">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -5669,7 +5889,12 @@
       <c r="L71">
         <v>8.1</v>
       </c>
-      <c r="N71" s="3"/>
+      <c r="M71">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N71">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -5702,7 +5927,12 @@
       <c r="L72">
         <v>10.4</v>
       </c>
-      <c r="N72" s="3"/>
+      <c r="M72">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -5735,7 +5965,12 @@
       <c r="L73">
         <v>6.7</v>
       </c>
-      <c r="N73" s="3"/>
+      <c r="M73">
+        <v>6.9</v>
+      </c>
+      <c r="N73">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -5768,7 +6003,12 @@
       <c r="L74">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N74" s="3"/>
+      <c r="M74">
+        <v>4.8</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -5801,7 +6041,12 @@
       <c r="L75">
         <v>5.5</v>
       </c>
-      <c r="N75" s="3"/>
+      <c r="M75">
+        <v>6.3</v>
+      </c>
+      <c r="N75">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -5834,7 +6079,12 @@
       <c r="L76">
         <v>3.7</v>
       </c>
-      <c r="N76" s="3"/>
+      <c r="M76">
+        <v>3.7</v>
+      </c>
+      <c r="N76">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -5870,7 +6120,7 @@
       <c r="M77">
         <v>7.3</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77">
         <v>7.4</v>
       </c>
     </row>
@@ -5911,7 +6161,7 @@
       <c r="M78">
         <v>3.7</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78">
         <v>3.8</v>
       </c>
     </row>
@@ -5949,7 +6199,7 @@
       <c r="M79">
         <v>5.6</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79">
         <v>5.6</v>
       </c>
     </row>
@@ -5987,7 +6237,7 @@
       <c r="M80">
         <v>7.3</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80">
         <v>7.4</v>
       </c>
     </row>
@@ -6025,7 +6275,7 @@
       <c r="M81">
         <v>9.5</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81">
         <v>10.1</v>
       </c>
     </row>
@@ -6060,7 +6310,12 @@
       <c r="L82">
         <v>4.8</v>
       </c>
-      <c r="N82" s="3"/>
+      <c r="M82">
+        <v>5.2</v>
+      </c>
+      <c r="N82">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -6093,7 +6348,12 @@
       <c r="L83">
         <v>11.4</v>
       </c>
-      <c r="N83" s="3"/>
+      <c r="M83">
+        <v>14.5</v>
+      </c>
+      <c r="N83">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -6126,7 +6386,12 @@
       <c r="L84">
         <v>8.9</v>
       </c>
-      <c r="N84" s="3"/>
+      <c r="M84">
+        <v>9.9</v>
+      </c>
+      <c r="N84">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -6159,7 +6424,12 @@
       <c r="L85">
         <v>7.4</v>
       </c>
-      <c r="N85" s="3"/>
+      <c r="M85">
+        <v>9.6</v>
+      </c>
+      <c r="N85">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -6192,7 +6462,12 @@
       <c r="L86">
         <v>8</v>
       </c>
-      <c r="N86" s="3"/>
+      <c r="M86">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N86">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -6225,7 +6500,12 @@
       <c r="L87">
         <v>6.8</v>
       </c>
-      <c r="N87" s="3"/>
+      <c r="M87">
+        <v>7.3</v>
+      </c>
+      <c r="N87">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -6258,7 +6538,12 @@
       <c r="L88">
         <v>10.8</v>
       </c>
-      <c r="N88" s="3"/>
+      <c r="M88">
+        <v>11.6</v>
+      </c>
+      <c r="N88">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -6291,7 +6576,12 @@
       <c r="L89">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N89" s="3"/>
+      <c r="M89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N89">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -6324,7 +6614,12 @@
       <c r="L90">
         <v>10</v>
       </c>
-      <c r="N90" s="3"/>
+      <c r="M90">
+        <v>10.5</v>
+      </c>
+      <c r="N90">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -6357,7 +6652,12 @@
       <c r="L91">
         <v>9.1</v>
       </c>
-      <c r="N91" s="3"/>
+      <c r="M91">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N91">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -6390,7 +6690,7 @@
       <c r="M92">
         <v>7.8</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N92">
         <v>8.9</v>
       </c>
     </row>
@@ -6425,7 +6725,7 @@
       <c r="M93">
         <v>5.7</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N93">
         <v>7.1</v>
       </c>
     </row>
@@ -6460,7 +6760,7 @@
       <c r="M94">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94">
         <v>6.3</v>
       </c>
     </row>
@@ -6495,7 +6795,7 @@
       <c r="M95">
         <v>8.4</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95">
         <v>9.9</v>
       </c>
     </row>
@@ -6530,7 +6830,7 @@
       <c r="M96">
         <v>2.9</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N96">
         <v>3.8</v>
       </c>
     </row>
@@ -6562,7 +6862,12 @@
       <c r="L97">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N97" s="3"/>
+      <c r="M97">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N97">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -6592,7 +6897,12 @@
       <c r="L98">
         <v>0.5</v>
       </c>
-      <c r="N98" s="3"/>
+      <c r="M98">
+        <v>0.5</v>
+      </c>
+      <c r="N98">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -6622,7 +6932,12 @@
       <c r="L99">
         <v>0.5</v>
       </c>
-      <c r="N99" s="3"/>
+      <c r="M99">
+        <v>0.4</v>
+      </c>
+      <c r="N99">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -6652,7 +6967,12 @@
       <c r="L100">
         <v>0.4</v>
       </c>
-      <c r="N100" s="3"/>
+      <c r="M100">
+        <v>0.4</v>
+      </c>
+      <c r="N100">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -6682,9 +7002,14 @@
       <c r="L101">
         <v>3.9</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N101">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -6712,9 +7037,8 @@
       <c r="L102">
         <v>0.4</v>
       </c>
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -6742,9 +7066,8 @@
       <c r="L103">
         <v>2.6</v>
       </c>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -6772,9 +7095,8 @@
       <c r="L104">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -6802,9 +7124,8 @@
       <c r="L105">
         <v>2.8</v>
       </c>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -6832,7 +7153,6 @@
       <c r="L106">
         <v>6.9</v>
       </c>
-      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -6862,10 +7182,10 @@
       <c r="L107">
         <v>2.1</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107">
         <v>2.7</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107">
         <v>3.3</v>
       </c>
     </row>
@@ -6900,7 +7220,7 @@
       <c r="M108">
         <v>9.6</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N108">
         <v>11.1</v>
       </c>
     </row>
@@ -6935,7 +7255,7 @@
       <c r="M109">
         <v>6.8</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N109">
         <v>7.5</v>
       </c>
     </row>
@@ -6970,7 +7290,7 @@
       <c r="M110">
         <v>1.5</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N110">
         <v>1.8</v>
       </c>
     </row>
@@ -7005,7 +7325,7 @@
       <c r="M111">
         <v>4.2</v>
       </c>
-      <c r="N111" s="3">
+      <c r="N111">
         <v>5.7</v>
       </c>
     </row>
@@ -7037,7 +7357,12 @@
       <c r="L112">
         <v>0.4</v>
       </c>
-      <c r="N112" s="3"/>
+      <c r="M112">
+        <v>0.4</v>
+      </c>
+      <c r="N112">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -7067,7 +7392,12 @@
       <c r="L113">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N113" s="3"/>
+      <c r="M113">
+        <v>5.8</v>
+      </c>
+      <c r="N113">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -7097,7 +7427,12 @@
       <c r="L114">
         <v>3.4</v>
       </c>
-      <c r="N114" s="3"/>
+      <c r="M114">
+        <v>4.2</v>
+      </c>
+      <c r="N114">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -7127,7 +7462,12 @@
       <c r="L115">
         <v>2.4</v>
       </c>
-      <c r="N115" s="3"/>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -7157,9 +7497,14 @@
       <c r="L116">
         <v>0.5</v>
       </c>
-      <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>0.4</v>
+      </c>
+      <c r="N116">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -7187,9 +7532,8 @@
       <c r="L117">
         <v>1.9</v>
       </c>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -7217,9 +7561,8 @@
       <c r="L118">
         <v>2.5</v>
       </c>
-      <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -7247,9 +7590,8 @@
       <c r="L119">
         <v>0.6</v>
       </c>
-      <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -7277,9 +7619,8 @@
       <c r="L120">
         <v>3.5</v>
       </c>
-      <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -7307,7 +7648,6 @@
       <c r="L121">
         <v>0.6</v>
       </c>
-      <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -7340,7 +7680,7 @@
       <c r="M122">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N122" s="3">
+      <c r="N122">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -7375,7 +7715,7 @@
       <c r="M123">
         <v>2</v>
       </c>
-      <c r="N123" s="3">
+      <c r="N123">
         <v>2.4</v>
       </c>
     </row>
@@ -7410,7 +7750,7 @@
       <c r="M124">
         <v>0.8</v>
       </c>
-      <c r="N124" s="3">
+      <c r="N124">
         <v>0.8</v>
       </c>
     </row>
@@ -7445,7 +7785,7 @@
       <c r="M125">
         <v>4.5</v>
       </c>
-      <c r="N125" s="3">
+      <c r="N125">
         <v>5.8</v>
       </c>
     </row>
@@ -7480,7 +7820,7 @@
       <c r="M126">
         <v>0.6</v>
       </c>
-      <c r="N126" s="3">
+      <c r="N126">
         <v>0.8</v>
       </c>
     </row>
@@ -7512,7 +7852,12 @@
       <c r="L127">
         <v>3.3</v>
       </c>
-      <c r="N127" s="3"/>
+      <c r="M127">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N127">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -7542,7 +7887,12 @@
       <c r="L128">
         <v>5.2</v>
       </c>
-      <c r="N128" s="3"/>
+      <c r="M128">
+        <v>5.2</v>
+      </c>
+      <c r="N128">
+        <v>9</v>
+      </c>
     </row>
     <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -7572,7 +7922,12 @@
       <c r="L129">
         <v>0.4</v>
       </c>
-      <c r="N129" s="3"/>
+      <c r="M129">
+        <v>0.4</v>
+      </c>
+      <c r="N129">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -7602,7 +7957,12 @@
       <c r="L130">
         <v>2</v>
       </c>
-      <c r="N130" s="3"/>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -7632,9 +7992,14 @@
       <c r="L131">
         <v>0.5</v>
       </c>
-      <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <v>0.5</v>
+      </c>
+      <c r="N131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -7662,9 +8027,8 @@
       <c r="L132">
         <v>1.9</v>
       </c>
-      <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -7692,9 +8056,8 @@
       <c r="L133">
         <v>1.6</v>
       </c>
-      <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -7722,9 +8085,8 @@
       <c r="L134">
         <v>3.8</v>
       </c>
-      <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -7752,9 +8114,8 @@
       <c r="L135">
         <v>1.4</v>
       </c>
-      <c r="N135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -7782,7 +8143,6 @@
       <c r="L136">
         <v>3.6</v>
       </c>
-      <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -7815,7 +8175,7 @@
       <c r="M137">
         <v>14</v>
       </c>
-      <c r="N137" s="3">
+      <c r="N137">
         <v>16</v>
       </c>
     </row>
@@ -7850,7 +8210,7 @@
       <c r="M138">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N138" s="3">
+      <c r="N138">
         <v>11.2</v>
       </c>
     </row>
@@ -7885,7 +8245,7 @@
       <c r="M139">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N139" s="3">
+      <c r="N139">
         <v>10</v>
       </c>
     </row>
@@ -7920,7 +8280,7 @@
       <c r="M140">
         <v>0.6</v>
       </c>
-      <c r="N140" s="3">
+      <c r="N140">
         <v>0.6</v>
       </c>
     </row>
@@ -7955,7 +8315,7 @@
       <c r="M141">
         <v>4.7</v>
       </c>
-      <c r="N141" s="3">
+      <c r="N141">
         <v>5.6</v>
       </c>
     </row>
@@ -7987,7 +8347,12 @@
       <c r="L142">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N142" s="3"/>
+      <c r="M142">
+        <v>5.3</v>
+      </c>
+      <c r="N142">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -8017,7 +8382,12 @@
       <c r="L143">
         <v>0.2</v>
       </c>
-      <c r="N143" s="3"/>
+      <c r="M143">
+        <v>0.3</v>
+      </c>
+      <c r="N143">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -8047,7 +8417,12 @@
       <c r="L144">
         <v>3.9</v>
       </c>
-      <c r="N144" s="3"/>
+      <c r="M144">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N144">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -8077,7 +8452,12 @@
       <c r="L145">
         <v>0.6</v>
       </c>
-      <c r="N145" s="3"/>
+      <c r="M145">
+        <v>0.6</v>
+      </c>
+      <c r="N145">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -8107,9 +8487,14 @@
       <c r="L146">
         <v>11.8</v>
       </c>
-      <c r="N146" s="3"/>
-    </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>15.1</v>
+      </c>
+      <c r="N146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -8137,9 +8522,8 @@
       <c r="L147">
         <v>3.5</v>
       </c>
-      <c r="N147" s="3"/>
-    </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -8167,9 +8551,8 @@
       <c r="L148">
         <v>5.6</v>
       </c>
-      <c r="N148" s="3"/>
-    </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -8197,9 +8580,8 @@
       <c r="L149">
         <v>4.3</v>
       </c>
-      <c r="N149" s="3"/>
-    </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -8227,9 +8609,8 @@
       <c r="L150">
         <v>3.4</v>
       </c>
-      <c r="N150" s="3"/>
-    </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -8257,7 +8638,6 @@
       <c r="L151">
         <v>0.5</v>
       </c>
-      <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -8290,7 +8670,7 @@
       <c r="M152">
         <v>1.4</v>
       </c>
-      <c r="N152" s="3">
+      <c r="N152">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -8325,7 +8705,7 @@
       <c r="M153">
         <v>1.3</v>
       </c>
-      <c r="N153" s="3">
+      <c r="N153">
         <v>1.6</v>
       </c>
     </row>
@@ -8360,7 +8740,7 @@
       <c r="M154">
         <v>7.9</v>
       </c>
-      <c r="N154" s="3">
+      <c r="N154">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -8395,7 +8775,7 @@
       <c r="M155">
         <v>7.1</v>
       </c>
-      <c r="N155" s="3">
+      <c r="N155">
         <v>7.6</v>
       </c>
     </row>
@@ -8433,7 +8813,7 @@
       <c r="M156">
         <v>0.4</v>
       </c>
-      <c r="N156" s="3">
+      <c r="N156">
         <v>0.4</v>
       </c>
     </row>
@@ -8465,7 +8845,12 @@
       <c r="L157">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N157" s="3"/>
+      <c r="M157">
+        <v>6.3</v>
+      </c>
+      <c r="N157">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -8495,7 +8880,12 @@
       <c r="L158">
         <v>3.8</v>
       </c>
-      <c r="N158" s="3"/>
+      <c r="M158">
+        <v>4.5</v>
+      </c>
+      <c r="N158">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -8525,7 +8915,12 @@
       <c r="L159">
         <v>9.5</v>
       </c>
-      <c r="N159" s="3"/>
+      <c r="M159">
+        <v>12.2</v>
+      </c>
+      <c r="N159">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -8555,7 +8950,12 @@
       <c r="L160">
         <v>6.9</v>
       </c>
-      <c r="N160" s="3"/>
+      <c r="M160">
+        <v>11.2</v>
+      </c>
+      <c r="N160">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -8585,9 +8985,14 @@
       <c r="L161">
         <v>0.5</v>
       </c>
-      <c r="N161" s="3"/>
-    </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>0.5</v>
+      </c>
+      <c r="N161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -8615,9 +9020,8 @@
       <c r="L162">
         <v>2.4</v>
       </c>
-      <c r="N162" s="3"/>
-    </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -8645,9 +9049,8 @@
       <c r="L163">
         <v>0.5</v>
       </c>
-      <c r="N163" s="3"/>
-    </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -8675,9 +9078,8 @@
       <c r="L164">
         <v>1.7</v>
       </c>
-      <c r="N164" s="3"/>
-    </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -8705,9 +9107,8 @@
       <c r="L165">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N165" s="3"/>
-    </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -8735,7 +9136,6 @@
       <c r="L166">
         <v>2.1</v>
       </c>
-      <c r="N166" s="3"/>
     </row>
     <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -8768,7 +9168,7 @@
       <c r="M167">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N167" s="3">
+      <c r="N167">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -8803,7 +9203,7 @@
       <c r="M168">
         <v>0.5</v>
       </c>
-      <c r="N168" s="3">
+      <c r="N168">
         <v>0.5</v>
       </c>
     </row>
@@ -8838,7 +9238,7 @@
       <c r="M169">
         <v>5.2</v>
       </c>
-      <c r="N169" s="3">
+      <c r="N169">
         <v>6.1</v>
       </c>
     </row>
@@ -8873,7 +9273,7 @@
       <c r="M170">
         <v>0.5</v>
       </c>
-      <c r="N170" s="3">
+      <c r="N170">
         <v>0.5</v>
       </c>
     </row>
@@ -8908,7 +9308,7 @@
       <c r="M171">
         <v>0.7</v>
       </c>
-      <c r="N171" s="3">
+      <c r="N171">
         <v>0.7</v>
       </c>
     </row>
@@ -8940,7 +9340,12 @@
       <c r="L172">
         <v>0.6</v>
       </c>
-      <c r="N172" s="3"/>
+      <c r="M172">
+        <v>0.5</v>
+      </c>
+      <c r="N172">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -8970,7 +9375,12 @@
       <c r="L173">
         <v>1.7</v>
       </c>
-      <c r="N173" s="3"/>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -9000,7 +9410,12 @@
       <c r="L174">
         <v>0.8</v>
       </c>
-      <c r="N174" s="3"/>
+      <c r="M174">
+        <v>0.8</v>
+      </c>
+      <c r="N174">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -9030,7 +9445,12 @@
       <c r="L175">
         <v>3.7</v>
       </c>
-      <c r="N175" s="3"/>
+      <c r="M175">
+        <v>4.3</v>
+      </c>
+      <c r="N175">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -9060,9 +9480,14 @@
       <c r="L176">
         <v>3</v>
       </c>
-      <c r="N176" s="3"/>
-    </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9090,9 +9515,8 @@
       <c r="L177">
         <v>3.7</v>
       </c>
-      <c r="N177" s="3"/>
-    </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -9120,9 +9544,8 @@
       <c r="L178">
         <v>2.6</v>
       </c>
-      <c r="N178" s="3"/>
-    </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -9150,9 +9573,8 @@
       <c r="L179">
         <v>2.8</v>
       </c>
-      <c r="N179" s="3"/>
-    </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -9180,9 +9602,8 @@
       <c r="L180">
         <v>4.5</v>
       </c>
-      <c r="N180" s="3"/>
-    </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -9210,7 +9631,6 @@
       <c r="L181">
         <v>3.4</v>
       </c>
-      <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -9243,7 +9663,7 @@
       <c r="M182">
         <v>11.5</v>
       </c>
-      <c r="N182" s="3">
+      <c r="N182">
         <v>13.7</v>
       </c>
     </row>
@@ -9278,7 +9698,7 @@
       <c r="M183">
         <v>15.4</v>
       </c>
-      <c r="N183" s="3">
+      <c r="N183">
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -9313,7 +9733,7 @@
       <c r="M184">
         <v>14.4</v>
       </c>
-      <c r="N184" s="3">
+      <c r="N184">
         <v>16.7</v>
       </c>
     </row>
@@ -9348,7 +9768,7 @@
       <c r="M185">
         <v>6.6</v>
       </c>
-      <c r="N185" s="3">
+      <c r="N185">
         <v>7.2</v>
       </c>
     </row>
@@ -9383,7 +9803,7 @@
       <c r="M186">
         <v>15.8</v>
       </c>
-      <c r="N186" s="3">
+      <c r="N186">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -9418,7 +9838,7 @@
       <c r="M187">
         <v>16.899999999999999</v>
       </c>
-      <c r="N187" s="3">
+      <c r="N187">
         <v>19.3</v>
       </c>
     </row>
@@ -9453,7 +9873,7 @@
       <c r="M188">
         <v>4.3</v>
       </c>
-      <c r="N188" s="3">
+      <c r="N188">
         <v>5.4</v>
       </c>
     </row>
@@ -9488,7 +9908,7 @@
       <c r="M189">
         <v>10.8</v>
       </c>
-      <c r="N189" s="3">
+      <c r="N189">
         <v>11.9</v>
       </c>
     </row>
@@ -9523,7 +9943,7 @@
       <c r="M190">
         <v>7.2</v>
       </c>
-      <c r="N190" s="3">
+      <c r="N190">
         <v>10.1</v>
       </c>
     </row>
@@ -9561,7 +9981,7 @@
       <c r="M191">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N191" s="3">
+      <c r="N191">
         <v>11.5</v>
       </c>
     </row>
@@ -9596,7 +10016,7 @@
       <c r="M192">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N192" s="3">
+      <c r="N192">
         <v>11.1</v>
       </c>
     </row>
@@ -9631,7 +10051,7 @@
       <c r="M193">
         <v>11.9</v>
       </c>
-      <c r="N193" s="3">
+      <c r="N193">
         <v>14</v>
       </c>
     </row>
@@ -9666,7 +10086,7 @@
       <c r="M194">
         <v>10.8</v>
       </c>
-      <c r="N194" s="3">
+      <c r="N194">
         <v>12.4</v>
       </c>
     </row>
@@ -9701,7 +10121,7 @@
       <c r="M195">
         <v>3.2</v>
       </c>
-      <c r="N195" s="3">
+      <c r="N195">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -9736,7 +10156,7 @@
       <c r="M196">
         <v>10</v>
       </c>
-      <c r="N196" s="3">
+      <c r="N196">
         <v>11.6</v>
       </c>
     </row>
@@ -9771,7 +10191,7 @@
       <c r="M197">
         <v>12.5</v>
       </c>
-      <c r="N197" s="3">
+      <c r="N197">
         <v>13.5</v>
       </c>
     </row>
@@ -9806,7 +10226,7 @@
       <c r="M198">
         <v>13.9</v>
       </c>
-      <c r="N198" s="3">
+      <c r="N198">
         <v>16.8</v>
       </c>
     </row>
@@ -9841,7 +10261,7 @@
       <c r="M199">
         <v>20.8</v>
       </c>
-      <c r="N199" s="3">
+      <c r="N199">
         <v>24.5</v>
       </c>
     </row>
@@ -9876,7 +10296,7 @@
       <c r="M200">
         <v>12.4</v>
       </c>
-      <c r="N200" s="3">
+      <c r="N200">
         <v>15.2</v>
       </c>
     </row>
@@ -9911,7 +10331,7 @@
       <c r="M201">
         <v>9.4</v>
       </c>
-      <c r="N201" s="3">
+      <c r="N201">
         <v>11.5</v>
       </c>
     </row>
@@ -9946,7 +10366,7 @@
       <c r="M202">
         <v>4</v>
       </c>
-      <c r="N202" s="3">
+      <c r="N202">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -9981,7 +10401,7 @@
       <c r="M203">
         <v>9.5</v>
       </c>
-      <c r="N203" s="3">
+      <c r="N203">
         <v>12.2</v>
       </c>
     </row>
@@ -10016,7 +10436,7 @@
       <c r="M204">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N204" s="3">
+      <c r="N204">
         <v>11.1</v>
       </c>
     </row>
@@ -10051,7 +10471,7 @@
       <c r="M205">
         <v>15.8</v>
       </c>
-      <c r="N205" s="3">
+      <c r="N205">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -10086,7 +10506,7 @@
       <c r="M206">
         <v>5.8</v>
       </c>
-      <c r="N206" s="3">
+      <c r="N206">
         <v>6.1</v>
       </c>
     </row>
@@ -10121,7 +10541,7 @@
       <c r="M207">
         <v>10</v>
       </c>
-      <c r="N207" s="3">
+      <c r="N207">
         <v>11</v>
       </c>
     </row>
@@ -10156,7 +10576,7 @@
       <c r="M208">
         <v>17.3</v>
       </c>
-      <c r="N208" s="3">
+      <c r="N208">
         <v>21.2</v>
       </c>
     </row>
@@ -10191,7 +10611,7 @@
       <c r="M209">
         <v>7.1</v>
       </c>
-      <c r="N209" s="3">
+      <c r="N209">
         <v>8.5</v>
       </c>
     </row>
@@ -10226,7 +10646,7 @@
       <c r="M210">
         <v>4.2</v>
       </c>
-      <c r="N210" s="3">
+      <c r="N210">
         <v>5.5</v>
       </c>
     </row>
@@ -10261,7 +10681,7 @@
       <c r="M211">
         <v>7.8</v>
       </c>
-      <c r="N211" s="3">
+      <c r="N211">
         <v>8.5</v>
       </c>
     </row>
@@ -10296,7 +10716,7 @@
       <c r="M212">
         <v>14.7</v>
       </c>
-      <c r="N212" s="3">
+      <c r="N212">
         <v>17.3</v>
       </c>
     </row>
@@ -10331,7 +10751,7 @@
       <c r="M213">
         <v>3.4</v>
       </c>
-      <c r="N213" s="3">
+      <c r="N213">
         <v>4.2</v>
       </c>
     </row>
@@ -10366,7 +10786,7 @@
       <c r="M214">
         <v>3.9</v>
       </c>
-      <c r="N214" s="3">
+      <c r="N214">
         <v>5.4</v>
       </c>
     </row>
@@ -10404,7 +10824,7 @@
       <c r="M215">
         <v>5.2</v>
       </c>
-      <c r="N215" s="3">
+      <c r="N215">
         <v>7.5</v>
       </c>
     </row>
@@ -10439,7 +10859,7 @@
       <c r="M216">
         <v>6.1</v>
       </c>
-      <c r="N216" s="3">
+      <c r="N216">
         <v>8.5</v>
       </c>
     </row>
@@ -10474,7 +10894,7 @@
       <c r="M217">
         <v>1.7</v>
       </c>
-      <c r="N217" s="3">
+      <c r="N217">
         <v>1.8</v>
       </c>
     </row>
@@ -10509,7 +10929,7 @@
       <c r="M218">
         <v>14.4</v>
       </c>
-      <c r="N218" s="3">
+      <c r="N218">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -10544,7 +10964,7 @@
       <c r="M219">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N219" s="3">
+      <c r="N219">
         <v>11.8</v>
       </c>
     </row>
@@ -10579,7 +10999,7 @@
       <c r="M220">
         <v>16.8</v>
       </c>
-      <c r="N220" s="3">
+      <c r="N220">
         <v>20.8</v>
       </c>
     </row>
@@ -10614,7 +11034,7 @@
       <c r="M221">
         <v>21.4</v>
       </c>
-      <c r="N221" s="3">
+      <c r="N221">
         <v>25.3</v>
       </c>
     </row>
@@ -10652,7 +11072,7 @@
       <c r="M222">
         <v>7.6</v>
       </c>
-      <c r="N222" s="3">
+      <c r="N222">
         <v>3.7</v>
       </c>
     </row>
@@ -10687,7 +11107,7 @@
       <c r="M223">
         <v>9.4</v>
       </c>
-      <c r="N223" s="3">
+      <c r="N223">
         <v>11.9</v>
       </c>
     </row>
@@ -10722,7 +11142,7 @@
       <c r="M224">
         <v>6.8</v>
       </c>
-      <c r="N224" s="3">
+      <c r="N224">
         <v>9.4</v>
       </c>
     </row>
@@ -10757,7 +11177,7 @@
       <c r="M225">
         <v>17.2</v>
       </c>
-      <c r="N225" s="3">
+      <c r="N225">
         <v>21.4</v>
       </c>
     </row>
@@ -10795,7 +11215,7 @@
       <c r="M226">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N226" s="3">
+      <c r="N226">
         <v>3</v>
       </c>
     </row>
@@ -10830,7 +11250,7 @@
       <c r="M227">
         <v>5.7</v>
       </c>
-      <c r="N227" s="3">
+      <c r="N227">
         <v>6.5</v>
       </c>
     </row>
@@ -10865,7 +11285,7 @@
       <c r="M228">
         <v>2.8</v>
       </c>
-      <c r="N228" s="3">
+      <c r="N228">
         <v>3.3</v>
       </c>
     </row>
@@ -10900,7 +11320,7 @@
       <c r="M229">
         <v>13.6</v>
       </c>
-      <c r="N229" s="3">
+      <c r="N229">
         <v>17.3</v>
       </c>
     </row>
@@ -10935,7 +11355,7 @@
       <c r="M230">
         <v>4</v>
       </c>
-      <c r="N230" s="3">
+      <c r="N230">
         <v>5.3</v>
       </c>
     </row>
@@ -10970,7 +11390,7 @@
       <c r="M231">
         <v>4.3</v>
       </c>
-      <c r="N231" s="3">
+      <c r="N231">
         <v>4.3</v>
       </c>
     </row>
@@ -11005,7 +11425,7 @@
       <c r="M232">
         <v>19.8</v>
       </c>
-      <c r="N232" s="3">
+      <c r="N232">
         <v>22.7</v>
       </c>
     </row>
@@ -11040,7 +11460,7 @@
       <c r="M233">
         <v>6.7</v>
       </c>
-      <c r="N233" s="3">
+      <c r="N233">
         <v>7.4</v>
       </c>
     </row>
@@ -11075,7 +11495,7 @@
       <c r="M234">
         <v>10.5</v>
       </c>
-      <c r="N234" s="3">
+      <c r="N234">
         <v>13.4</v>
       </c>
     </row>
@@ -11110,7 +11530,7 @@
       <c r="M235">
         <v>6.9</v>
       </c>
-      <c r="N235" s="3">
+      <c r="N235">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -11145,7 +11565,7 @@
       <c r="M236">
         <v>5.8</v>
       </c>
-      <c r="N236" s="3">
+      <c r="N236">
         <v>7.2</v>
       </c>
     </row>
@@ -11180,7 +11600,7 @@
       <c r="M237">
         <v>1.8</v>
       </c>
-      <c r="N237" s="3">
+      <c r="N237">
         <v>1.8</v>
       </c>
     </row>
@@ -11218,7 +11638,7 @@
       <c r="M238">
         <v>5.8</v>
       </c>
-      <c r="N238" s="3">
+      <c r="N238">
         <v>6.9</v>
       </c>
     </row>
@@ -11253,7 +11673,7 @@
       <c r="M239">
         <v>4.7</v>
       </c>
-      <c r="N239" s="3">
+      <c r="N239">
         <v>5.5</v>
       </c>
     </row>
@@ -11288,7 +11708,7 @@
       <c r="M240">
         <v>10.5</v>
       </c>
-      <c r="N240" s="3">
+      <c r="N240">
         <v>12.6</v>
       </c>
     </row>
@@ -11323,7 +11743,7 @@
       <c r="M241">
         <v>6.3</v>
       </c>
-      <c r="N241" s="3">
+      <c r="N241">
         <v>7.5</v>
       </c>
     </row>
@@ -11358,7 +11778,7 @@
       <c r="M242">
         <v>9.9</v>
       </c>
-      <c r="N242" s="3">
+      <c r="N242">
         <v>12.7</v>
       </c>
     </row>
@@ -11393,7 +11813,7 @@
       <c r="M243">
         <v>18.100000000000001</v>
       </c>
-      <c r="N243" s="3">
+      <c r="N243">
         <v>20.6</v>
       </c>
     </row>
@@ -11428,7 +11848,7 @@
       <c r="M244">
         <v>9.4</v>
       </c>
-      <c r="N244" s="3">
+      <c r="N244">
         <v>11.4</v>
       </c>
     </row>
@@ -11463,7 +11883,7 @@
       <c r="M245">
         <v>4.2</v>
       </c>
-      <c r="N245" s="3">
+      <c r="N245">
         <v>5.3</v>
       </c>
     </row>
@@ -11498,7 +11918,7 @@
       <c r="M246">
         <v>5.8</v>
       </c>
-      <c r="N246" s="3">
+      <c r="N246">
         <v>8.1</v>
       </c>
     </row>
@@ -11533,7 +11953,7 @@
       <c r="M247">
         <v>6.9</v>
       </c>
-      <c r="N247" s="3">
+      <c r="N247">
         <v>9.6</v>
       </c>
     </row>
@@ -11568,7 +11988,7 @@
       <c r="M248">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N248" s="3">
+      <c r="N248">
         <v>5.9</v>
       </c>
     </row>
@@ -11603,7 +12023,7 @@
       <c r="M249">
         <v>14.8</v>
       </c>
-      <c r="N249" s="3">
+      <c r="N249">
         <v>17.8</v>
       </c>
     </row>
@@ -11638,7 +12058,7 @@
       <c r="M250">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N250" s="3">
+      <c r="N250">
         <v>6.1</v>
       </c>
     </row>
@@ -11673,7 +12093,7 @@
       <c r="M251">
         <v>10.1</v>
       </c>
-      <c r="N251" s="3">
+      <c r="N251">
         <v>13.6</v>
       </c>
     </row>
@@ -11708,7 +12128,7 @@
       <c r="M252">
         <v>3.8</v>
       </c>
-      <c r="N252" s="3">
+      <c r="N252">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -11743,7 +12163,7 @@
       <c r="M253">
         <v>4.2</v>
       </c>
-      <c r="N253" s="3">
+      <c r="N253">
         <v>6.4</v>
       </c>
     </row>
@@ -11778,7 +12198,7 @@
       <c r="M254">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N254" s="3">
+      <c r="N254">
         <v>10.5</v>
       </c>
     </row>
@@ -11813,7 +12233,7 @@
       <c r="M255">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N255" s="3">
+      <c r="N255">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -11848,7 +12268,7 @@
       <c r="M256">
         <v>5.4</v>
       </c>
-      <c r="N256" s="3">
+      <c r="N256">
         <v>6.5</v>
       </c>
     </row>
@@ -11883,7 +12303,7 @@
       <c r="M257">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N257" s="3">
+      <c r="N257">
         <v>5.4</v>
       </c>
     </row>
@@ -11918,7 +12338,7 @@
       <c r="M258">
         <v>11</v>
       </c>
-      <c r="N258" s="3">
+      <c r="N258">
         <v>13.8</v>
       </c>
     </row>
@@ -11953,7 +12373,7 @@
       <c r="M259">
         <v>3.6</v>
       </c>
-      <c r="N259" s="3">
+      <c r="N259">
         <v>4.3</v>
       </c>
     </row>
@@ -11988,7 +12408,7 @@
       <c r="M260">
         <v>3.6</v>
       </c>
-      <c r="N260" s="3">
+      <c r="N260">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -12023,7 +12443,7 @@
       <c r="M261">
         <v>3.7</v>
       </c>
-      <c r="N261" s="3">
+      <c r="N261">
         <v>4.8</v>
       </c>
     </row>
@@ -12058,7 +12478,7 @@
       <c r="M262">
         <v>6.9</v>
       </c>
-      <c r="N262" s="3">
+      <c r="N262">
         <v>9.1</v>
       </c>
     </row>
@@ -12093,7 +12513,7 @@
       <c r="M263">
         <v>4.3</v>
       </c>
-      <c r="N263" s="3">
+      <c r="N263">
         <v>5.4</v>
       </c>
     </row>
@@ -12134,7 +12554,7 @@
       <c r="M264" t="s">
         <v>649</v>
       </c>
-      <c r="N264" s="3" t="s">
+      <c r="N264" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12169,7 +12589,7 @@
       <c r="M265">
         <v>10</v>
       </c>
-      <c r="N265" s="3">
+      <c r="N265">
         <v>13.4</v>
       </c>
     </row>
@@ -12204,7 +12624,7 @@
       <c r="M266">
         <v>6.4</v>
       </c>
-      <c r="N266" s="3">
+      <c r="N266">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -12239,7 +12659,7 @@
       <c r="M267">
         <v>5.2</v>
       </c>
-      <c r="N267" s="3">
+      <c r="N267">
         <v>6.1</v>
       </c>
     </row>
@@ -12274,7 +12694,7 @@
       <c r="M268">
         <v>1</v>
       </c>
-      <c r="N268" s="3">
+      <c r="N268">
         <v>1.3</v>
       </c>
     </row>
@@ -12309,7 +12729,7 @@
       <c r="M269">
         <v>3.9</v>
       </c>
-      <c r="N269" s="3">
+      <c r="N269">
         <v>5</v>
       </c>
     </row>
@@ -12344,7 +12764,7 @@
       <c r="M270">
         <v>15.5</v>
       </c>
-      <c r="N270" s="3">
+      <c r="N270">
         <v>20.3</v>
       </c>
     </row>
@@ -12379,7 +12799,7 @@
       <c r="M271">
         <v>9</v>
       </c>
-      <c r="N271" s="3">
+      <c r="N271">
         <v>11.1</v>
       </c>
     </row>
@@ -12411,7 +12831,12 @@
       <c r="L272">
         <v>6.5</v>
       </c>
-      <c r="N272" s="3"/>
+      <c r="M272">
+        <v>9.4</v>
+      </c>
+      <c r="N272">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -12441,7 +12866,12 @@
       <c r="L273">
         <v>6.9</v>
       </c>
-      <c r="N273" s="3"/>
+      <c r="M273">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N273">
+        <v>10</v>
+      </c>
     </row>
     <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -12471,7 +12901,12 @@
       <c r="L274">
         <v>10.7</v>
       </c>
-      <c r="N274" s="3"/>
+      <c r="M274">
+        <v>13.7</v>
+      </c>
+      <c r="N274">
+        <v>17</v>
+      </c>
     </row>
     <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -12501,7 +12936,12 @@
       <c r="L275">
         <v>9.1</v>
       </c>
-      <c r="N275" s="3"/>
+      <c r="M275">
+        <v>12.2</v>
+      </c>
+      <c r="N275">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -12531,7 +12971,12 @@
       <c r="L276">
         <v>13.7</v>
       </c>
-      <c r="N276" s="3"/>
+      <c r="M276">
+        <v>17.5</v>
+      </c>
+      <c r="N276">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -12561,7 +13006,12 @@
       <c r="L277">
         <v>6.7</v>
       </c>
-      <c r="N277" s="3"/>
+      <c r="M277">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N277">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -12591,7 +13041,12 @@
       <c r="L278">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N278" s="3"/>
+      <c r="M278">
+        <v>11</v>
+      </c>
+      <c r="N278">
+        <v>13</v>
+      </c>
     </row>
     <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -12621,7 +13076,12 @@
       <c r="L279">
         <v>8.1</v>
       </c>
-      <c r="N279" s="3"/>
+      <c r="M279">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N279">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -12651,7 +13111,12 @@
       <c r="L280" t="s">
         <v>644</v>
       </c>
-      <c r="N280" s="3"/>
+      <c r="M280">
+        <v>6.8</v>
+      </c>
+      <c r="N280">
+        <v>7</v>
+      </c>
     </row>
     <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -12681,7 +13146,12 @@
       <c r="L281">
         <v>6.6</v>
       </c>
-      <c r="N281" s="3"/>
+      <c r="M281">
+        <v>9</v>
+      </c>
+      <c r="N281">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -12711,7 +13181,6 @@
       <c r="L282">
         <v>2.9</v>
       </c>
-      <c r="N282" s="3"/>
     </row>
     <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -12741,7 +13210,6 @@
       <c r="L283">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N283" s="3"/>
     </row>
     <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -12771,7 +13239,6 @@
       <c r="L284">
         <v>4.3</v>
       </c>
-      <c r="N284" s="3"/>
     </row>
     <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -12801,7 +13268,6 @@
       <c r="L285">
         <v>3.7</v>
       </c>
-      <c r="N285" s="3"/>
     </row>
     <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -12831,7 +13297,12 @@
       <c r="L286">
         <v>6.4</v>
       </c>
-      <c r="N286" s="3"/>
+      <c r="M286">
+        <v>8.5</v>
+      </c>
+      <c r="N286">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -12861,7 +13332,12 @@
       <c r="L287">
         <v>4.2</v>
       </c>
-      <c r="N287" s="3"/>
+      <c r="M287">
+        <v>4.8</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -12891,7 +13367,12 @@
       <c r="L288">
         <v>13.4</v>
       </c>
-      <c r="N288" s="3"/>
+      <c r="M288">
+        <v>18</v>
+      </c>
+      <c r="N288">
+        <v>22</v>
+      </c>
     </row>
     <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -12921,7 +13402,12 @@
       <c r="L289">
         <v>12.8</v>
       </c>
-      <c r="N289" s="3"/>
+      <c r="M289">
+        <v>16.5</v>
+      </c>
+      <c r="N289">
+        <v>19.399999999999999</v>
+      </c>
     </row>
     <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -12951,7 +13437,12 @@
       <c r="L290">
         <v>11.6</v>
       </c>
-      <c r="N290" s="3"/>
+      <c r="M290">
+        <v>15.5</v>
+      </c>
+      <c r="N290">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -12981,7 +13472,12 @@
       <c r="L291">
         <v>11.4</v>
       </c>
-      <c r="N291" s="3"/>
+      <c r="M291">
+        <v>14.9</v>
+      </c>
+      <c r="N291">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -13011,7 +13507,12 @@
       <c r="L292">
         <v>11.4</v>
       </c>
-      <c r="N292" s="3"/>
+      <c r="M292">
+        <v>13.7</v>
+      </c>
+      <c r="N292">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -13041,7 +13542,12 @@
       <c r="L293">
         <v>10.3</v>
       </c>
-      <c r="N293" s="3"/>
+      <c r="M293">
+        <v>11.5</v>
+      </c>
+      <c r="N293">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -13071,7 +13577,12 @@
       <c r="L294">
         <v>10.8</v>
       </c>
-      <c r="N294" s="3"/>
+      <c r="M294">
+        <v>19.8</v>
+      </c>
+      <c r="N294">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -13101,7 +13612,12 @@
       <c r="L295">
         <v>10.6</v>
       </c>
-      <c r="N295" s="3"/>
+      <c r="M295">
+        <v>11.6</v>
+      </c>
+      <c r="N295">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -13131,7 +13647,6 @@
       <c r="L296">
         <v>7.5</v>
       </c>
-      <c r="N296" s="3"/>
     </row>
     <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -13161,7 +13676,6 @@
       <c r="L297">
         <v>10.4</v>
       </c>
-      <c r="N297" s="3"/>
     </row>
     <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -13191,7 +13705,6 @@
       <c r="L298">
         <v>7.3</v>
       </c>
-      <c r="N298" s="3"/>
     </row>
     <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -13221,7 +13734,6 @@
       <c r="L299">
         <v>11.7</v>
       </c>
-      <c r="N299" s="3"/>
     </row>
     <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -13251,7 +13763,6 @@
       <c r="L300">
         <v>10.6</v>
       </c>
-      <c r="N300" s="3"/>
     </row>
     <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -13281,7 +13792,12 @@
       <c r="L301">
         <v>7.2</v>
       </c>
-      <c r="N301" s="3"/>
+      <c r="M301">
+        <v>10.1</v>
+      </c>
+      <c r="N301">
+        <v>13</v>
+      </c>
     </row>
     <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -13311,7 +13827,12 @@
       <c r="L302">
         <v>6.3</v>
       </c>
-      <c r="N302" s="3"/>
+      <c r="M302">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N302">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -13341,7 +13862,12 @@
       <c r="L303">
         <v>8.1</v>
       </c>
-      <c r="N303" s="3"/>
+      <c r="M303">
+        <v>11.5</v>
+      </c>
+      <c r="N303">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -13371,7 +13897,12 @@
       <c r="L304">
         <v>10.199999999999999</v>
       </c>
-      <c r="N304" s="3"/>
+      <c r="M304">
+        <v>12.4</v>
+      </c>
+      <c r="N304">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -13401,7 +13932,12 @@
       <c r="L305">
         <v>8.1</v>
       </c>
-      <c r="N305" s="3"/>
+      <c r="M305">
+        <v>11.4</v>
+      </c>
+      <c r="N305">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -13431,7 +13967,12 @@
       <c r="L306">
         <v>4.8</v>
       </c>
-      <c r="N306" s="3"/>
+      <c r="M306">
+        <v>5.8</v>
+      </c>
+      <c r="N306">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -13461,7 +14002,12 @@
       <c r="L307">
         <v>9.9</v>
       </c>
-      <c r="N307" s="3"/>
+      <c r="M307">
+        <v>12.6</v>
+      </c>
+      <c r="N307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -13491,7 +14037,12 @@
       <c r="L308">
         <v>6.4</v>
       </c>
-      <c r="N308" s="3"/>
+      <c r="M308">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N308">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -13521,7 +14072,12 @@
       <c r="L309">
         <v>5.4</v>
       </c>
-      <c r="N309" s="3"/>
+      <c r="M309">
+        <v>7.2</v>
+      </c>
+      <c r="N309">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -13551,7 +14107,12 @@
       <c r="L310">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N310" s="3"/>
+      <c r="M310">
+        <v>6.5</v>
+      </c>
+      <c r="N310">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -13581,7 +14142,6 @@
       <c r="L311">
         <v>4.8</v>
       </c>
-      <c r="N311" s="3"/>
     </row>
     <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -13611,7 +14171,6 @@
       <c r="L312">
         <v>2</v>
       </c>
-      <c r="N312" s="3"/>
     </row>
     <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -13641,7 +14200,6 @@
       <c r="L313">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N313" s="3"/>
     </row>
     <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -13671,7 +14229,6 @@
       <c r="L314">
         <v>5.3</v>
       </c>
-      <c r="N314" s="3"/>
     </row>
     <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -13701,7 +14258,6 @@
       <c r="L315">
         <v>5.6</v>
       </c>
-      <c r="N315" s="3"/>
     </row>
     <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -13731,7 +14287,12 @@
       <c r="L316">
         <v>7.8</v>
       </c>
-      <c r="N316" s="3"/>
+      <c r="M316">
+        <v>10.1</v>
+      </c>
+      <c r="N316">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -13761,7 +14322,12 @@
       <c r="L317">
         <v>9.5</v>
       </c>
-      <c r="N317" s="3"/>
+      <c r="M317">
+        <v>12.5</v>
+      </c>
+      <c r="N317">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -13791,7 +14357,12 @@
       <c r="L318">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N318" s="3"/>
+      <c r="M318">
+        <v>5.9</v>
+      </c>
+      <c r="N318">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -13821,7 +14392,12 @@
       <c r="L319">
         <v>6.2</v>
       </c>
-      <c r="N319" s="3"/>
+      <c r="M319">
+        <v>7.3</v>
+      </c>
+      <c r="N319">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -13851,7 +14427,12 @@
       <c r="L320">
         <v>6.7</v>
       </c>
-      <c r="N320" s="3"/>
+      <c r="M320">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N320">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -13881,7 +14462,12 @@
       <c r="L321">
         <v>6.2</v>
       </c>
-      <c r="N321" s="3"/>
+      <c r="M321">
+        <v>7</v>
+      </c>
+      <c r="N321">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -13911,7 +14497,12 @@
       <c r="L322">
         <v>6.5</v>
       </c>
-      <c r="N322" s="3"/>
+      <c r="M322">
+        <v>6.8</v>
+      </c>
+      <c r="N322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -13941,7 +14532,12 @@
       <c r="L323">
         <v>10.3</v>
       </c>
-      <c r="N323" s="3"/>
+      <c r="M323">
+        <v>13.1</v>
+      </c>
+      <c r="N323">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -13971,7 +14567,6 @@
       <c r="L324">
         <v>3.8</v>
       </c>
-      <c r="N324" s="3"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -14001,7 +14596,6 @@
       <c r="L325">
         <v>3.5</v>
       </c>
-      <c r="N325" s="3"/>
     </row>
     <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -14034,7 +14628,6 @@
       <c r="L326" t="s">
         <v>644</v>
       </c>
-      <c r="N326" s="3"/>
     </row>
     <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -14067,7 +14660,6 @@
       <c r="L327" t="s">
         <v>644</v>
       </c>
-      <c r="N327" s="3"/>
     </row>
     <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -14097,7 +14689,6 @@
       <c r="L328">
         <v>2.6</v>
       </c>
-      <c r="N328" s="3"/>
     </row>
     <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -14127,7 +14718,12 @@
       <c r="L329">
         <v>7.8</v>
       </c>
-      <c r="N329" s="3"/>
+      <c r="M329">
+        <v>9.9</v>
+      </c>
+      <c r="N329">
+        <v>12</v>
+      </c>
     </row>
     <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -14157,7 +14753,12 @@
       <c r="L330">
         <v>18.899999999999999</v>
       </c>
-      <c r="N330" s="3"/>
+      <c r="M330">
+        <v>23.3</v>
+      </c>
+      <c r="N330">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -14187,7 +14788,12 @@
       <c r="L331">
         <v>6.9</v>
       </c>
-      <c r="N331" s="3"/>
+      <c r="M331">
+        <v>9</v>
+      </c>
+      <c r="N331">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -14217,7 +14823,12 @@
       <c r="L332">
         <v>10.6</v>
       </c>
-      <c r="N332" s="3"/>
+      <c r="M332">
+        <v>14.5</v>
+      </c>
+      <c r="N332">
+        <v>17.600000000000001</v>
+      </c>
     </row>
     <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -14247,7 +14858,12 @@
       <c r="L333">
         <v>5.2</v>
       </c>
-      <c r="N333" s="3"/>
+      <c r="M333">
+        <v>6.4</v>
+      </c>
+      <c r="N333">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -14277,7 +14893,12 @@
       <c r="L334">
         <v>11.5</v>
       </c>
-      <c r="N334" s="3"/>
+      <c r="M334">
+        <v>14.5</v>
+      </c>
+      <c r="N334">
+        <v>17.600000000000001</v>
+      </c>
     </row>
     <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -14307,7 +14928,12 @@
       <c r="L335">
         <v>11.5</v>
       </c>
-      <c r="N335" s="3"/>
+      <c r="M335">
+        <v>13.7</v>
+      </c>
+      <c r="N335">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -14337,7 +14963,12 @@
       <c r="L336">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N336" s="3"/>
+      <c r="M336">
+        <v>10.6</v>
+      </c>
+      <c r="N336">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -14367,7 +14998,12 @@
       <c r="L337">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N337" s="3"/>
+      <c r="M337" t="s">
+        <v>649</v>
+      </c>
+      <c r="N337">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -14397,7 +15033,12 @@
       <c r="L338">
         <v>9.1</v>
       </c>
-      <c r="N338" s="3"/>
+      <c r="M338">
+        <v>16.2</v>
+      </c>
+      <c r="N338">
+        <v>20.399999999999999</v>
+      </c>
     </row>
     <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -14427,7 +15068,6 @@
       <c r="L339">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N339" s="3"/>
     </row>
     <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -14457,7 +15097,6 @@
       <c r="L340">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N340" s="3"/>
     </row>
     <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -14487,7 +15126,6 @@
       <c r="L341">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N341" s="3"/>
     </row>
     <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -14520,7 +15158,6 @@
       <c r="L342" t="s">
         <v>644</v>
       </c>
-      <c r="N342" s="3"/>
     </row>
     <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -14550,7 +15187,6 @@
       <c r="L343">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N343" s="3"/>
     </row>
     <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -14580,7 +15216,12 @@
       <c r="L344">
         <v>6.6</v>
       </c>
-      <c r="N344" s="3"/>
+      <c r="M344">
+        <v>7.8</v>
+      </c>
+      <c r="N344">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -14610,7 +15251,12 @@
       <c r="L345">
         <v>13.7</v>
       </c>
-      <c r="N345" s="3"/>
+      <c r="M345">
+        <v>17.8</v>
+      </c>
+      <c r="N345">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -14640,7 +15286,12 @@
       <c r="L346">
         <v>3.5</v>
       </c>
-      <c r="N346" s="3"/>
+      <c r="M346">
+        <v>3.7</v>
+      </c>
+      <c r="N346">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -14670,7 +15321,12 @@
       <c r="L347">
         <v>9.4</v>
       </c>
-      <c r="N347" s="3"/>
+      <c r="M347">
+        <v>11.7</v>
+      </c>
+      <c r="N347">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -14700,7 +15356,12 @@
       <c r="L348">
         <v>15.4</v>
       </c>
-      <c r="N348" s="3"/>
+      <c r="M348" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N348" s="3">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -14730,7 +15391,12 @@
       <c r="L349">
         <v>5.7</v>
       </c>
-      <c r="N349" s="3"/>
+      <c r="M349">
+        <v>7.2</v>
+      </c>
+      <c r="N349">
+        <v>9</v>
+      </c>
     </row>
     <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -14760,7 +15426,12 @@
       <c r="L350">
         <v>8.1</v>
       </c>
-      <c r="N350" s="3"/>
+      <c r="M350">
+        <v>9.4</v>
+      </c>
+      <c r="N350">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -14790,7 +15461,12 @@
       <c r="L351">
         <v>11.9</v>
       </c>
-      <c r="N351" s="3"/>
+      <c r="M351">
+        <v>14.7</v>
+      </c>
+      <c r="N351">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -14820,9 +15496,14 @@
       <c r="L352">
         <v>7.1</v>
       </c>
-      <c r="N352" s="3"/>
-    </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M352">
+        <v>11.6</v>
+      </c>
+      <c r="N352">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -14850,9 +15531,8 @@
       <c r="L353">
         <v>12.1</v>
       </c>
-      <c r="N353" s="3"/>
-    </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -14880,9 +15560,8 @@
       <c r="L354" t="s">
         <v>644</v>
       </c>
-      <c r="N354" s="3"/>
-    </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -14910,9 +15589,8 @@
       <c r="L355">
         <v>10.8</v>
       </c>
-      <c r="N355" s="3"/>
-    </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -14940,9 +15618,8 @@
       <c r="L356">
         <v>10.6</v>
       </c>
-      <c r="N356" s="3"/>
-    </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -14970,9 +15647,8 @@
       <c r="L357">
         <v>4.7</v>
       </c>
-      <c r="N357" s="3"/>
-    </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -15009,9 +15685,8 @@
       <c r="M358">
         <v>7.2</v>
       </c>
-      <c r="N358" s="3"/>
-    </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -15048,9 +15723,8 @@
       <c r="M359">
         <v>6.9</v>
       </c>
-      <c r="N359" s="3"/>
-    </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -15087,9 +15761,8 @@
       <c r="M360">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N360" s="3"/>
-    </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -15126,9 +15799,8 @@
       <c r="M361">
         <v>5.2</v>
       </c>
-      <c r="N361" s="3"/>
-    </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -15165,9 +15837,8 @@
       <c r="M362">
         <v>2.8</v>
       </c>
-      <c r="N362" s="3"/>
-    </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -15204,9 +15875,8 @@
       <c r="M363">
         <v>11.8</v>
       </c>
-      <c r="N363" s="3"/>
-    </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -15243,9 +15913,8 @@
       <c r="M364">
         <v>2.6</v>
       </c>
-      <c r="N364" s="3"/>
-    </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -15282,9 +15951,8 @@
       <c r="M365">
         <v>2.7</v>
       </c>
-      <c r="N365" s="3"/>
-    </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -15321,9 +15989,8 @@
       <c r="M366">
         <v>6.8</v>
       </c>
-      <c r="N366" s="3"/>
-    </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -15360,9 +16027,8 @@
       <c r="M367">
         <v>3.3</v>
       </c>
-      <c r="N367" s="3"/>
-    </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -15399,9 +16065,8 @@
       <c r="M368">
         <v>2</v>
       </c>
-      <c r="N368" s="3"/>
-    </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -15438,9 +16103,8 @@
       <c r="M369">
         <v>1.8</v>
       </c>
-      <c r="N369" s="3"/>
-    </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -15477,9 +16141,8 @@
       <c r="M370">
         <v>4.2</v>
       </c>
-      <c r="N370" s="3"/>
-    </row>
-    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -15516,9 +16179,8 @@
       <c r="M371">
         <v>1</v>
       </c>
-      <c r="N371" s="3"/>
-    </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -15555,9 +16217,8 @@
       <c r="M372">
         <v>8.9</v>
       </c>
-      <c r="N372" s="3"/>
-    </row>
-    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -15594,9 +16255,8 @@
       <c r="M373">
         <v>3.8</v>
       </c>
-      <c r="N373" s="3"/>
-    </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -15633,9 +16293,8 @@
       <c r="M374">
         <v>8.4</v>
       </c>
-      <c r="N374" s="3"/>
-    </row>
-    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -15672,9 +16331,8 @@
       <c r="M375">
         <v>4.3</v>
       </c>
-      <c r="N375" s="3"/>
-    </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -15711,9 +16369,8 @@
       <c r="M376">
         <v>13.9</v>
       </c>
-      <c r="N376" s="3"/>
-    </row>
-    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -15750,9 +16407,8 @@
       <c r="M377">
         <v>0.8</v>
       </c>
-      <c r="N377" s="3"/>
-    </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -15789,9 +16445,8 @@
       <c r="M378">
         <v>3.4</v>
       </c>
-      <c r="N378" s="3"/>
-    </row>
-    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -15828,9 +16483,8 @@
       <c r="M379">
         <v>2</v>
       </c>
-      <c r="N379" s="3"/>
-    </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -15867,9 +16521,8 @@
       <c r="M380">
         <v>5.3</v>
       </c>
-      <c r="N380" s="3"/>
-    </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -15906,9 +16559,8 @@
       <c r="M381">
         <v>1.9</v>
       </c>
-      <c r="N381" s="3"/>
-    </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -15945,9 +16597,8 @@
       <c r="M382">
         <v>3.1</v>
       </c>
-      <c r="N382" s="3"/>
-    </row>
-    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -15984,9 +16635,8 @@
       <c r="M383">
         <v>4.3</v>
       </c>
-      <c r="N383" s="3"/>
-    </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -16023,9 +16673,8 @@
       <c r="M384">
         <v>7.8</v>
       </c>
-      <c r="N384" s="3"/>
-    </row>
-    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -16062,9 +16711,8 @@
       <c r="M385">
         <v>7.9</v>
       </c>
-      <c r="N385" s="3"/>
-    </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -16101,9 +16749,8 @@
       <c r="M386">
         <v>13.1</v>
       </c>
-      <c r="N386" s="3"/>
-    </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -16140,9 +16787,8 @@
       <c r="M387">
         <v>3.4</v>
       </c>
-      <c r="N387" s="3"/>
-    </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -16182,9 +16828,8 @@
       <c r="M388">
         <v>2.9</v>
       </c>
-      <c r="N388" s="3"/>
-    </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -16221,9 +16866,8 @@
       <c r="M389">
         <v>4.8</v>
       </c>
-      <c r="N389" s="3"/>
-    </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -16260,9 +16904,8 @@
       <c r="M390">
         <v>4.3</v>
       </c>
-      <c r="N390" s="3"/>
-    </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -16299,9 +16942,8 @@
       <c r="M391">
         <v>3.2</v>
       </c>
-      <c r="N391" s="3"/>
-    </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -16338,9 +16980,8 @@
       <c r="M392">
         <v>0.9</v>
       </c>
-      <c r="N392" s="3"/>
-    </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -16377,9 +17018,8 @@
       <c r="M393">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N393" s="3"/>
-    </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -16416,9 +17056,8 @@
       <c r="M394">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N394" s="3"/>
-    </row>
-    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -16458,9 +17097,8 @@
       <c r="M395">
         <v>1.3</v>
       </c>
-      <c r="N395" s="3"/>
-    </row>
-    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -16497,9 +17135,8 @@
       <c r="M396">
         <v>1.9</v>
       </c>
-      <c r="N396" s="3"/>
-    </row>
-    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -16536,9 +17173,8 @@
       <c r="M397">
         <v>11</v>
       </c>
-      <c r="N397" s="3"/>
-    </row>
-    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -16575,9 +17211,8 @@
       <c r="M398">
         <v>3.4</v>
       </c>
-      <c r="N398" s="3"/>
-    </row>
-    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -16614,9 +17249,8 @@
       <c r="M399">
         <v>3.5</v>
       </c>
-      <c r="N399" s="3"/>
-    </row>
-    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -16653,9 +17287,8 @@
       <c r="M400">
         <v>1.3</v>
       </c>
-      <c r="N400" s="3"/>
-    </row>
-    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -16692,9 +17325,8 @@
       <c r="M401">
         <v>3.9</v>
       </c>
-      <c r="N401" s="3"/>
-    </row>
-    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -16731,9 +17363,8 @@
       <c r="M402">
         <v>5</v>
       </c>
-      <c r="N402" s="3"/>
-    </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -16770,9 +17401,8 @@
       <c r="M403">
         <v>6.6</v>
       </c>
-      <c r="N403" s="3"/>
-    </row>
-    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -16809,9 +17439,8 @@
       <c r="M404">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N404" s="3"/>
-    </row>
-    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -16851,9 +17480,8 @@
       <c r="M405">
         <v>7.7</v>
       </c>
-      <c r="N405" s="3"/>
-    </row>
-    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -16890,9 +17518,8 @@
       <c r="M406">
         <v>3.7</v>
       </c>
-      <c r="N406" s="3"/>
-    </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -16929,9 +17556,8 @@
       <c r="M407">
         <v>7.2</v>
       </c>
-      <c r="N407" s="3"/>
-    </row>
-    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -16968,9 +17594,8 @@
       <c r="M408">
         <v>1.6</v>
       </c>
-      <c r="N408" s="3"/>
-    </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -17007,9 +17632,8 @@
       <c r="M409">
         <v>3.9</v>
       </c>
-      <c r="N409" s="3"/>
-    </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -17046,9 +17670,8 @@
       <c r="M410">
         <v>3.1</v>
       </c>
-      <c r="N410" s="3"/>
-    </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -17085,9 +17708,8 @@
       <c r="M411">
         <v>4.8</v>
       </c>
-      <c r="N411" s="3"/>
-    </row>
-    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -17124,9 +17746,8 @@
       <c r="M412">
         <v>4.5</v>
       </c>
-      <c r="N412" s="3"/>
-    </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -17163,9 +17784,8 @@
       <c r="M413">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N413" s="3"/>
-    </row>
-    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -17202,9 +17822,8 @@
       <c r="M414">
         <v>1.4</v>
       </c>
-      <c r="N414" s="3"/>
-    </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -17241,9 +17860,8 @@
       <c r="M415">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N415" s="3"/>
-    </row>
-    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -17280,9 +17898,8 @@
       <c r="M416">
         <v>5.2</v>
       </c>
-      <c r="N416" s="3"/>
-    </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -17319,9 +17936,8 @@
       <c r="M417">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N417" s="3"/>
-    </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -17358,9 +17974,8 @@
       <c r="M418">
         <v>7.1</v>
       </c>
-      <c r="N418" s="3"/>
-    </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -17397,9 +18012,8 @@
       <c r="M419">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N419" s="3"/>
-    </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -17436,9 +18050,8 @@
       <c r="M420">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N420" s="3"/>
-    </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -17475,9 +18088,8 @@
       <c r="M421">
         <v>0.8</v>
       </c>
-      <c r="N421" s="3"/>
-    </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -17514,9 +18126,8 @@
       <c r="M422" s="2">
         <v>0.9</v>
       </c>
-      <c r="N422" s="3"/>
-    </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -17553,9 +18164,8 @@
       <c r="M423">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N423" s="3"/>
-    </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -17592,9 +18202,8 @@
       <c r="M424">
         <v>0.9</v>
       </c>
-      <c r="N424" s="3"/>
-    </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -17631,9 +18240,8 @@
       <c r="M425">
         <v>3.9</v>
       </c>
-      <c r="N425" s="3"/>
-    </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -17670,9 +18278,8 @@
       <c r="M426">
         <v>2.4</v>
       </c>
-      <c r="N426" s="3"/>
-    </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -17709,9 +18316,8 @@
       <c r="M427">
         <v>5.6</v>
       </c>
-      <c r="N427" s="3"/>
-    </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -17748,9 +18354,8 @@
       <c r="M428">
         <v>3.4</v>
       </c>
-      <c r="N428" s="3"/>
-    </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -17790,9 +18395,8 @@
       <c r="M429">
         <v>5.4</v>
       </c>
-      <c r="N429" s="3"/>
-    </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -17829,9 +18433,8 @@
       <c r="M430">
         <v>2.5</v>
       </c>
-      <c r="N430" s="3"/>
-    </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -17868,9 +18471,8 @@
       <c r="M431">
         <v>1.4</v>
       </c>
-      <c r="N431" s="3"/>
-    </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -17907,7 +18509,6 @@
       <c r="M432">
         <v>3.4</v>
       </c>
-      <c r="N432" s="3"/>
     </row>
     <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
@@ -17946,7 +18547,6 @@
       <c r="M433">
         <v>1.5</v>
       </c>
-      <c r="N433" s="3"/>
     </row>
     <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
@@ -17985,7 +18585,6 @@
       <c r="M434">
         <v>5.4</v>
       </c>
-      <c r="N434" s="3"/>
     </row>
     <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
@@ -18024,7 +18623,6 @@
       <c r="M435">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N435" s="3"/>
     </row>
     <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
@@ -18063,7 +18661,6 @@
       <c r="M436">
         <v>3</v>
       </c>
-      <c r="N436" s="3"/>
     </row>
     <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
@@ -18102,9 +18699,8 @@
       <c r="M437">
         <v>1.3</v>
       </c>
-      <c r="N437" s="3"/>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -18129,11 +18725,11 @@
       <c r="M438" t="s">
         <v>649</v>
       </c>
-      <c r="N438" s="3">
+      <c r="N438">
         <v>4.2</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -18158,11 +18754,11 @@
       <c r="M439">
         <v>1.8</v>
       </c>
-      <c r="N439" s="3">
+      <c r="N439">
         <v>1.8</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -18187,11 +18783,11 @@
       <c r="M440">
         <v>3.4</v>
       </c>
-      <c r="N440" s="3">
+      <c r="N440">
         <v>3.5</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -18216,11 +18812,11 @@
       <c r="M441">
         <v>3.9</v>
       </c>
-      <c r="N441" s="3">
+      <c r="N441">
         <v>3.9</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -18245,7 +18841,7 @@
       <c r="M442">
         <v>3.1</v>
       </c>
-      <c r="N442" s="3">
+      <c r="N442">
         <v>3.1</v>
       </c>
     </row>
@@ -18271,7 +18867,12 @@
       <c r="L443">
         <v>6.3</v>
       </c>
-      <c r="N443" s="3"/>
+      <c r="M443">
+        <v>6.3</v>
+      </c>
+      <c r="N443">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
@@ -18295,7 +18896,12 @@
       <c r="L444">
         <v>6.9</v>
       </c>
-      <c r="N444" s="3"/>
+      <c r="M444">
+        <v>7.2</v>
+      </c>
+      <c r="N444">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
@@ -18319,7 +18925,12 @@
       <c r="L445">
         <v>3.4</v>
       </c>
-      <c r="N445" s="3"/>
+      <c r="M445">
+        <v>3.3</v>
+      </c>
+      <c r="N445">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
@@ -18343,7 +18954,12 @@
       <c r="L446">
         <v>2</v>
       </c>
-      <c r="N446" s="3"/>
+      <c r="M446">
+        <v>1.9</v>
+      </c>
+      <c r="N446">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
@@ -18367,7 +18983,12 @@
       <c r="L447">
         <v>7.8</v>
       </c>
-      <c r="N447" s="3"/>
+      <c r="M447">
+        <v>7.9</v>
+      </c>
+      <c r="N447">
+        <v>8</v>
+      </c>
     </row>
     <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
@@ -18391,7 +19012,6 @@
       <c r="L448">
         <v>6</v>
       </c>
-      <c r="N448" s="3"/>
     </row>
     <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -18415,7 +19035,6 @@
       <c r="L449">
         <v>12.1</v>
       </c>
-      <c r="N449" s="3"/>
     </row>
     <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -18439,7 +19058,6 @@
       <c r="L450">
         <v>5.4</v>
       </c>
-      <c r="N450" s="3"/>
     </row>
     <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -18463,7 +19081,6 @@
       <c r="L451">
         <v>2</v>
       </c>
-      <c r="N451" s="3"/>
     </row>
     <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -18487,9 +19104,8 @@
       <c r="L452">
         <v>8</v>
       </c>
-      <c r="N452" s="3"/>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -18514,11 +19130,11 @@
       <c r="M453">
         <v>21.9</v>
       </c>
-      <c r="N453" s="3">
+      <c r="N453">
         <v>22.1</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -18543,11 +19159,11 @@
       <c r="M454">
         <v>9.5</v>
       </c>
-      <c r="N454" s="3">
+      <c r="N454">
         <v>9.5</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -18572,11 +19188,11 @@
       <c r="M455">
         <v>3.6</v>
       </c>
-      <c r="N455" s="3">
+      <c r="N455">
         <v>3.6</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -18601,11 +19217,11 @@
       <c r="M456">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N456" s="3">
+      <c r="N456">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -18630,7 +19246,7 @@
       <c r="M457">
         <v>8.5</v>
       </c>
-      <c r="N457" s="3">
+      <c r="N457">
         <v>8.5</v>
       </c>
     </row>
@@ -18656,7 +19272,12 @@
       <c r="L458">
         <v>2.9</v>
       </c>
-      <c r="N458" s="3"/>
+      <c r="M458">
+        <v>2.7</v>
+      </c>
+      <c r="N458">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -18680,7 +19301,12 @@
       <c r="L459">
         <v>1.4</v>
       </c>
-      <c r="N459" s="3"/>
+      <c r="M459">
+        <v>1.4</v>
+      </c>
+      <c r="N459">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -18704,7 +19330,12 @@
       <c r="L460">
         <v>2.8</v>
       </c>
-      <c r="N460" s="3"/>
+      <c r="M460">
+        <v>2.9</v>
+      </c>
+      <c r="N460">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -18728,7 +19359,12 @@
       <c r="L461">
         <v>3.7</v>
       </c>
-      <c r="N461" s="3"/>
+      <c r="M461">
+        <v>3.7</v>
+      </c>
+      <c r="N461">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -18752,7 +19388,12 @@
       <c r="L462">
         <v>8</v>
       </c>
-      <c r="N462" s="3"/>
+      <c r="M462">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N462">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -18779,7 +19420,6 @@
       <c r="L463" t="s">
         <v>649</v>
       </c>
-      <c r="N463" s="3"/>
     </row>
     <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -18803,7 +19443,6 @@
       <c r="L464">
         <v>2.7</v>
       </c>
-      <c r="N464" s="3"/>
     </row>
     <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -18827,7 +19466,6 @@
       <c r="L465">
         <v>1.7</v>
       </c>
-      <c r="N465" s="3"/>
     </row>
     <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -18851,7 +19489,6 @@
       <c r="L466">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N466" s="3"/>
     </row>
     <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -18875,9 +19512,8 @@
       <c r="L467">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N467" s="3"/>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -18902,11 +19538,11 @@
       <c r="M468">
         <v>8</v>
       </c>
-      <c r="N468" s="3">
+      <c r="N468">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -18934,11 +19570,11 @@
       <c r="M469">
         <v>1.7</v>
       </c>
-      <c r="N469" s="3">
+      <c r="N469">
         <v>3.8</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -18963,11 +19599,11 @@
       <c r="M470">
         <v>7.3</v>
       </c>
-      <c r="N470" s="3">
+      <c r="N470">
         <v>7.3</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -18992,11 +19628,11 @@
       <c r="M471">
         <v>3.5</v>
       </c>
-      <c r="N471" s="3">
+      <c r="N471">
         <v>4.5</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -19021,7 +19657,7 @@
       <c r="M472">
         <v>2.1</v>
       </c>
-      <c r="N472" s="3">
+      <c r="N472">
         <v>2.1</v>
       </c>
     </row>
@@ -19047,7 +19683,12 @@
       <c r="L473">
         <v>4.8</v>
       </c>
-      <c r="N473" s="3"/>
+      <c r="M473">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N473">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
@@ -19071,7 +19712,12 @@
       <c r="L474">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N474" s="3"/>
+      <c r="M474">
+        <v>2.4</v>
+      </c>
+      <c r="N474">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
@@ -19095,7 +19741,12 @@
       <c r="L475">
         <v>2</v>
       </c>
-      <c r="N475" s="3"/>
+      <c r="M475">
+        <v>1.9</v>
+      </c>
+      <c r="N475">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
@@ -19122,10 +19773,12 @@
       <c r="L476">
         <v>2.8</v>
       </c>
-      <c r="M476" t="s">
-        <v>649</v>
-      </c>
-      <c r="N476" s="3"/>
+      <c r="M476">
+        <v>9.4</v>
+      </c>
+      <c r="N476">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -19149,7 +19802,12 @@
       <c r="L477">
         <v>13.5</v>
       </c>
-      <c r="N477" s="3"/>
+      <c r="M477">
+        <v>14.2</v>
+      </c>
+      <c r="N477">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -19173,7 +19831,6 @@
       <c r="L478">
         <v>2</v>
       </c>
-      <c r="N478" s="3"/>
     </row>
     <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -19197,7 +19854,6 @@
       <c r="L479">
         <v>3.3</v>
       </c>
-      <c r="N479" s="3"/>
     </row>
     <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -19221,7 +19877,6 @@
       <c r="L480">
         <v>1.9</v>
       </c>
-      <c r="N480" s="3"/>
     </row>
     <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -19248,7 +19903,6 @@
       <c r="L481" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="N481" s="3"/>
     </row>
     <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -19272,9 +19926,8 @@
       <c r="L482">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N482" s="3"/>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -19299,11 +19952,11 @@
       <c r="M483">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N483" s="3">
+      <c r="N483">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -19328,11 +19981,11 @@
       <c r="M484">
         <v>4.5</v>
       </c>
-      <c r="N484" s="3">
+      <c r="N484">
         <v>4.5</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -19357,11 +20010,11 @@
       <c r="M485">
         <v>4.3</v>
       </c>
-      <c r="N485" s="3">
+      <c r="N485">
         <v>4.3</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -19386,11 +20039,11 @@
       <c r="M486">
         <v>2.1</v>
       </c>
-      <c r="N486" s="3">
+      <c r="N486">
         <v>2.1</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -19415,7 +20068,7 @@
       <c r="M487">
         <v>2.5</v>
       </c>
-      <c r="N487" s="3">
+      <c r="N487">
         <v>2.5</v>
       </c>
     </row>
@@ -19441,7 +20094,12 @@
       <c r="L488">
         <v>2.1</v>
       </c>
-      <c r="N488" s="3"/>
+      <c r="M488">
+        <v>2.1</v>
+      </c>
+      <c r="N488">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
@@ -19465,7 +20123,12 @@
       <c r="L489">
         <v>6.9</v>
       </c>
-      <c r="N489" s="3"/>
+      <c r="M489">
+        <v>6.8</v>
+      </c>
+      <c r="N489">
+        <v>7</v>
+      </c>
     </row>
     <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
@@ -19489,7 +20152,12 @@
       <c r="L490">
         <v>6.2</v>
       </c>
-      <c r="N490" s="3"/>
+      <c r="M490">
+        <v>6.1</v>
+      </c>
+      <c r="N490">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -19513,7 +20181,12 @@
       <c r="L491">
         <v>12</v>
       </c>
-      <c r="N491" s="3"/>
+      <c r="M491">
+        <v>11.9</v>
+      </c>
+      <c r="N491">
+        <v>12</v>
+      </c>
     </row>
     <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -19537,7 +20210,12 @@
       <c r="L492">
         <v>3.6</v>
       </c>
-      <c r="N492" s="3"/>
+      <c r="M492">
+        <v>3.4</v>
+      </c>
+      <c r="N492">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -19561,7 +20239,6 @@
       <c r="L493">
         <v>1.9</v>
       </c>
-      <c r="N493" s="3"/>
     </row>
     <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -19585,7 +20262,6 @@
       <c r="L494">
         <v>1.5</v>
       </c>
-      <c r="N494" s="3"/>
     </row>
     <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -19609,7 +20285,6 @@
       <c r="L495">
         <v>1.8</v>
       </c>
-      <c r="N495" s="3"/>
     </row>
     <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -19633,7 +20308,6 @@
       <c r="L496">
         <v>5.9</v>
       </c>
-      <c r="N496" s="3"/>
     </row>
     <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -19657,9 +20331,8 @@
       <c r="L497">
         <v>2.4</v>
       </c>
-      <c r="N497" s="3"/>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -19684,11 +20357,11 @@
       <c r="M498">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N498" s="3">
+      <c r="N498">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -19713,11 +20386,11 @@
       <c r="M499">
         <v>4.7</v>
       </c>
-      <c r="N499" s="3">
+      <c r="N499">
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -19742,11 +20415,11 @@
       <c r="M500">
         <v>2.4</v>
       </c>
-      <c r="N500" s="3">
+      <c r="N500">
         <v>2.9</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -19771,11 +20444,11 @@
       <c r="M501">
         <v>1.5</v>
       </c>
-      <c r="N501" s="3">
+      <c r="N501">
         <v>1.5</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -19800,7 +20473,7 @@
       <c r="M502">
         <v>10.5</v>
       </c>
-      <c r="N502" s="3">
+      <c r="N502">
         <v>10.5</v>
       </c>
     </row>
@@ -19826,7 +20499,12 @@
       <c r="L503" t="s">
         <v>644</v>
       </c>
-      <c r="N503" s="3"/>
+      <c r="M503" t="s">
+        <v>649</v>
+      </c>
+      <c r="N503" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -19853,7 +20531,12 @@
       <c r="L504" t="s">
         <v>644</v>
       </c>
-      <c r="N504" s="3"/>
+      <c r="M504" t="s">
+        <v>649</v>
+      </c>
+      <c r="N504" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
@@ -19877,7 +20560,12 @@
       <c r="L505">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N505" s="3"/>
+      <c r="M505">
+        <v>4.3</v>
+      </c>
+      <c r="N505">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -19901,7 +20589,12 @@
       <c r="L506">
         <v>3.1</v>
       </c>
-      <c r="N506" s="3"/>
+      <c r="M506">
+        <v>3.3</v>
+      </c>
+      <c r="N506">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -19925,7 +20618,12 @@
       <c r="L507">
         <v>0.5</v>
       </c>
-      <c r="N507" s="3"/>
+      <c r="M507">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N507">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -19949,7 +20647,6 @@
       <c r="L508">
         <v>1.4</v>
       </c>
-      <c r="N508" s="3"/>
     </row>
     <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -19973,7 +20670,6 @@
       <c r="L509">
         <v>5.9</v>
       </c>
-      <c r="N509" s="3"/>
     </row>
     <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -19997,7 +20693,6 @@
       <c r="L510">
         <v>6.2</v>
       </c>
-      <c r="N510" s="3"/>
     </row>
     <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -20021,7 +20716,6 @@
       <c r="L511">
         <v>1</v>
       </c>
-      <c r="N511" s="3"/>
     </row>
     <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -20045,9 +20739,8 @@
       <c r="L512">
         <v>1.3</v>
       </c>
-      <c r="N512" s="3"/>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -20072,11 +20765,11 @@
       <c r="M513">
         <v>3.9</v>
       </c>
-      <c r="N513" s="3">
+      <c r="N513">
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -20101,11 +20794,11 @@
       <c r="M514">
         <v>3.4</v>
       </c>
-      <c r="N514" s="3">
+      <c r="N514">
         <v>4.5</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -20130,11 +20823,11 @@
       <c r="M515">
         <v>1.8</v>
       </c>
-      <c r="N515" s="3">
+      <c r="N515">
         <v>1.8</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -20159,11 +20852,11 @@
       <c r="M516">
         <v>1.8</v>
       </c>
-      <c r="N516" s="3">
+      <c r="N516">
         <v>1.8</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -20188,7 +20881,7 @@
       <c r="M517">
         <v>7.1</v>
       </c>
-      <c r="N517" s="3">
+      <c r="N517">
         <v>7.1</v>
       </c>
     </row>
@@ -20214,7 +20907,12 @@
       <c r="L518">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N518" s="3"/>
+      <c r="M518">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N518">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
@@ -20238,7 +20936,12 @@
       <c r="L519">
         <v>4.2</v>
       </c>
-      <c r="N519" s="3"/>
+      <c r="M519">
+        <v>4.3</v>
+      </c>
+      <c r="N519">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -20262,7 +20965,12 @@
       <c r="L520">
         <v>7.1</v>
       </c>
-      <c r="N520" s="3"/>
+      <c r="M520">
+        <v>7.3</v>
+      </c>
+      <c r="N520">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -20286,7 +20994,12 @@
       <c r="L521">
         <v>3.5</v>
       </c>
-      <c r="N521" s="3"/>
+      <c r="M521">
+        <v>5.9</v>
+      </c>
+      <c r="N521">
+        <v>6</v>
+      </c>
     </row>
     <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -20310,7 +21023,12 @@
       <c r="L522">
         <v>1.3</v>
       </c>
-      <c r="N522" s="3"/>
+      <c r="M522">
+        <v>1.3</v>
+      </c>
+      <c r="N522">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -20337,7 +21055,6 @@
       <c r="L523">
         <v>0.5</v>
       </c>
-      <c r="N523" s="3"/>
     </row>
     <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -20361,7 +21078,6 @@
       <c r="L524">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N524" s="3"/>
     </row>
     <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -20385,7 +21101,6 @@
       <c r="L525">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N525" s="3"/>
     </row>
     <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -20409,7 +21124,6 @@
       <c r="L526">
         <v>1.5</v>
       </c>
-      <c r="N526" s="3"/>
     </row>
     <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -20436,7 +21150,6 @@
       <c r="L527">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N527" s="3"/>
     </row>
     <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -20454,7 +21167,7 @@
       <c r="E528" t="s">
         <v>552</v>
       </c>
-      <c r="N528" s="3" t="s">
+      <c r="N528" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20474,7 +21187,7 @@
       <c r="E529" t="s">
         <v>552</v>
       </c>
-      <c r="N529" s="3">
+      <c r="N529">
         <v>0.9</v>
       </c>
     </row>
@@ -20494,7 +21207,7 @@
       <c r="E530" t="s">
         <v>552</v>
       </c>
-      <c r="N530" s="3" t="s">
+      <c r="N530" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20514,7 +21227,7 @@
       <c r="E531" t="s">
         <v>552</v>
       </c>
-      <c r="N531" s="3">
+      <c r="N531">
         <v>1</v>
       </c>
     </row>
@@ -20534,7 +21247,7 @@
       <c r="E532" t="s">
         <v>552</v>
       </c>
-      <c r="N532" s="3">
+      <c r="N532">
         <v>0.5</v>
       </c>
     </row>
@@ -20554,7 +21267,7 @@
       <c r="E533" t="s">
         <v>552</v>
       </c>
-      <c r="N533" s="3">
+      <c r="N533">
         <v>0.5</v>
       </c>
     </row>
@@ -20574,7 +21287,7 @@
       <c r="E534" t="s">
         <v>552</v>
       </c>
-      <c r="N534" s="3">
+      <c r="N534">
         <v>0.8</v>
       </c>
     </row>
@@ -20594,7 +21307,7 @@
       <c r="E535" t="s">
         <v>552</v>
       </c>
-      <c r="N535" s="3">
+      <c r="N535">
         <v>0.8</v>
       </c>
     </row>
@@ -20614,7 +21327,7 @@
       <c r="E536" t="s">
         <v>552</v>
       </c>
-      <c r="N536" s="3">
+      <c r="N536">
         <v>0.9</v>
       </c>
     </row>
@@ -20634,7 +21347,7 @@
       <c r="E537" t="s">
         <v>552</v>
       </c>
-      <c r="N537" s="3">
+      <c r="N537">
         <v>1</v>
       </c>
     </row>
@@ -20654,7 +21367,7 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-      <c r="N538" s="3">
+      <c r="N538">
         <v>2.9</v>
       </c>
     </row>
@@ -20674,7 +21387,7 @@
       <c r="E539" t="s">
         <v>552</v>
       </c>
-      <c r="N539" s="3">
+      <c r="N539">
         <v>0.6</v>
       </c>
     </row>
@@ -20694,7 +21407,7 @@
       <c r="E540" t="s">
         <v>552</v>
       </c>
-      <c r="N540" s="3" t="s">
+      <c r="N540" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20714,7 +21427,7 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-      <c r="N541" s="3" t="s">
+      <c r="N541" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20734,7 +21447,7 @@
       <c r="E542" t="s">
         <v>552</v>
       </c>
-      <c r="N542" s="3">
+      <c r="N542">
         <v>0.9</v>
       </c>
     </row>
@@ -20754,7 +21467,7 @@
       <c r="E543" t="s">
         <v>552</v>
       </c>
-      <c r="N543" s="3" t="s">
+      <c r="N543" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20774,7 +21487,7 @@
       <c r="E544" t="s">
         <v>552</v>
       </c>
-      <c r="N544" s="3">
+      <c r="N544">
         <v>0.7</v>
       </c>
     </row>
@@ -20794,7 +21507,7 @@
       <c r="E545" t="s">
         <v>552</v>
       </c>
-      <c r="N545" s="3">
+      <c r="N545">
         <v>0.6</v>
       </c>
     </row>
@@ -20814,7 +21527,7 @@
       <c r="E546" t="s">
         <v>552</v>
       </c>
-      <c r="N546" s="3">
+      <c r="N546">
         <v>0.9</v>
       </c>
     </row>
@@ -20834,7 +21547,7 @@
       <c r="E547" t="s">
         <v>552</v>
       </c>
-      <c r="N547" s="3">
+      <c r="N547">
         <v>1</v>
       </c>
     </row>
@@ -20854,7 +21567,7 @@
       <c r="E548" t="s">
         <v>552</v>
       </c>
-      <c r="N548" s="3">
+      <c r="N548">
         <v>0.6</v>
       </c>
     </row>
@@ -20874,7 +21587,7 @@
       <c r="E549" t="s">
         <v>552</v>
       </c>
-      <c r="N549" s="3">
+      <c r="N549">
         <v>0.7</v>
       </c>
     </row>
@@ -20894,7 +21607,7 @@
       <c r="E550" t="s">
         <v>552</v>
       </c>
-      <c r="N550" s="3">
+      <c r="N550">
         <v>0.7</v>
       </c>
     </row>
@@ -20914,7 +21627,7 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-      <c r="N551" s="3">
+      <c r="N551">
         <v>1.4</v>
       </c>
     </row>
@@ -20934,7 +21647,7 @@
       <c r="E552" t="s">
         <v>552</v>
       </c>
-      <c r="N552" s="3" t="s">
+      <c r="N552" t="s">
         <v>649</v>
       </c>
     </row>
@@ -20954,7 +21667,7 @@
       <c r="E553" t="s">
         <v>552</v>
       </c>
-      <c r="N553" s="3">
+      <c r="N553">
         <v>0.6</v>
       </c>
     </row>
@@ -20974,7 +21687,7 @@
       <c r="E554" t="s">
         <v>552</v>
       </c>
-      <c r="N554" s="3">
+      <c r="N554">
         <v>0.6</v>
       </c>
     </row>
@@ -20994,7 +21707,7 @@
       <c r="E555" t="s">
         <v>552</v>
       </c>
-      <c r="N555" s="3">
+      <c r="N555">
         <v>0.7</v>
       </c>
     </row>
@@ -21014,7 +21727,7 @@
       <c r="E556" t="s">
         <v>552</v>
       </c>
-      <c r="N556" s="3">
+      <c r="N556">
         <v>0.6</v>
       </c>
     </row>
@@ -21034,7 +21747,7 @@
       <c r="E557" t="s">
         <v>552</v>
       </c>
-      <c r="N557" s="3" t="s">
+      <c r="N557" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21054,7 +21767,7 @@
       <c r="E558" t="s">
         <v>552</v>
       </c>
-      <c r="N558" s="3">
+      <c r="N558">
         <v>0.8</v>
       </c>
     </row>
@@ -21074,7 +21787,7 @@
       <c r="E559" t="s">
         <v>552</v>
       </c>
-      <c r="N559" s="3">
+      <c r="N559">
         <v>0.8</v>
       </c>
     </row>
@@ -21094,7 +21807,7 @@
       <c r="E560" t="s">
         <v>552</v>
       </c>
-      <c r="N560" s="3" t="s">
+      <c r="N560" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21114,7 +21827,7 @@
       <c r="E561" t="s">
         <v>552</v>
       </c>
-      <c r="N561" s="3" t="s">
+      <c r="N561" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21134,7 +21847,7 @@
       <c r="E562" t="s">
         <v>552</v>
       </c>
-      <c r="N562" s="3" t="s">
+      <c r="N562" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21154,7 +21867,7 @@
       <c r="E563" t="s">
         <v>552</v>
       </c>
-      <c r="N563" s="3">
+      <c r="N563">
         <v>0.5</v>
       </c>
     </row>
@@ -21174,7 +21887,7 @@
       <c r="E564" t="s">
         <v>552</v>
       </c>
-      <c r="N564" s="3" t="s">
+      <c r="N564" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21194,7 +21907,7 @@
       <c r="E565" t="s">
         <v>552</v>
       </c>
-      <c r="N565" s="3">
+      <c r="N565">
         <v>0.9</v>
       </c>
     </row>
@@ -21214,7 +21927,7 @@
       <c r="E566" t="s">
         <v>552</v>
       </c>
-      <c r="N566" s="3">
+      <c r="N566">
         <v>0.7</v>
       </c>
     </row>
@@ -21234,7 +21947,7 @@
       <c r="E567" t="s">
         <v>552</v>
       </c>
-      <c r="N567" s="3">
+      <c r="N567">
         <v>0.9</v>
       </c>
     </row>
@@ -21254,7 +21967,7 @@
       <c r="E568" t="s">
         <v>552</v>
       </c>
-      <c r="N568" s="3">
+      <c r="N568">
         <v>0.5</v>
       </c>
     </row>
@@ -21274,7 +21987,7 @@
       <c r="E569" t="s">
         <v>552</v>
       </c>
-      <c r="N569" s="3" t="s">
+      <c r="N569" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21294,7 +22007,7 @@
       <c r="E570" t="s">
         <v>552</v>
       </c>
-      <c r="N570" s="3">
+      <c r="N570">
         <v>0.9</v>
       </c>
     </row>
@@ -21314,7 +22027,7 @@
       <c r="E571" t="s">
         <v>552</v>
       </c>
-      <c r="N571" s="3">
+      <c r="N571">
         <v>0.8</v>
       </c>
     </row>
@@ -21334,7 +22047,7 @@
       <c r="E572" t="s">
         <v>552</v>
       </c>
-      <c r="N572" s="3">
+      <c r="N572">
         <v>0.7</v>
       </c>
     </row>
@@ -21354,7 +22067,7 @@
       <c r="E573" t="s">
         <v>552</v>
       </c>
-      <c r="N573" s="3">
+      <c r="N573">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -21374,7 +22087,7 @@
       <c r="E574" t="s">
         <v>552</v>
       </c>
-      <c r="N574" s="3" t="s">
+      <c r="N574" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21394,7 +22107,7 @@
       <c r="E575" t="s">
         <v>552</v>
       </c>
-      <c r="N575" s="3" t="s">
+      <c r="N575" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21414,7 +22127,7 @@
       <c r="E576" t="s">
         <v>552</v>
       </c>
-      <c r="N576" s="3" t="s">
+      <c r="N576" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21434,7 +22147,7 @@
       <c r="E577" t="s">
         <v>552</v>
       </c>
-      <c r="N577" s="3">
+      <c r="N577">
         <v>0.5</v>
       </c>
     </row>
@@ -21454,7 +22167,7 @@
       <c r="E578" t="s">
         <v>552</v>
       </c>
-      <c r="N578" s="3">
+      <c r="N578">
         <v>0.8</v>
       </c>
     </row>
@@ -21474,7 +22187,7 @@
       <c r="E579" t="s">
         <v>552</v>
       </c>
-      <c r="N579" s="3">
+      <c r="N579">
         <v>1</v>
       </c>
     </row>
@@ -21494,7 +22207,7 @@
       <c r="E580" t="s">
         <v>552</v>
       </c>
-      <c r="N580" s="3">
+      <c r="N580">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -21514,7 +22227,7 @@
       <c r="E581" t="s">
         <v>552</v>
       </c>
-      <c r="N581" s="3">
+      <c r="N581">
         <v>0.9</v>
       </c>
     </row>
@@ -21534,7 +22247,7 @@
       <c r="E582" t="s">
         <v>552</v>
       </c>
-      <c r="N582" s="3">
+      <c r="N582">
         <v>0.5</v>
       </c>
     </row>
@@ -21554,7 +22267,7 @@
       <c r="E583" t="s">
         <v>552</v>
       </c>
-      <c r="N583" s="3">
+      <c r="N583">
         <v>0.8</v>
       </c>
     </row>
@@ -21574,7 +22287,7 @@
       <c r="E584" t="s">
         <v>552</v>
       </c>
-      <c r="N584" s="3">
+      <c r="N584">
         <v>0.7</v>
       </c>
     </row>
@@ -21594,7 +22307,7 @@
       <c r="E585" t="s">
         <v>552</v>
       </c>
-      <c r="N585" s="3">
+      <c r="N585">
         <v>0.6</v>
       </c>
     </row>
@@ -21614,7 +22327,7 @@
       <c r="E586" t="s">
         <v>552</v>
       </c>
-      <c r="N586" s="3">
+      <c r="N586">
         <v>1</v>
       </c>
     </row>
@@ -21634,7 +22347,7 @@
       <c r="E587" t="s">
         <v>552</v>
       </c>
-      <c r="N587" s="3" t="s">
+      <c r="N587" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21654,7 +22367,7 @@
       <c r="E588" t="s">
         <v>552</v>
       </c>
-      <c r="N588" s="3">
+      <c r="N588">
         <v>0.8</v>
       </c>
     </row>
@@ -21674,7 +22387,7 @@
       <c r="E589" t="s">
         <v>552</v>
       </c>
-      <c r="N589" s="3" t="s">
+      <c r="N589" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21694,7 +22407,7 @@
       <c r="E590" t="s">
         <v>552</v>
       </c>
-      <c r="N590" s="3" t="s">
+      <c r="N590" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21714,7 +22427,7 @@
       <c r="E591" t="s">
         <v>552</v>
       </c>
-      <c r="N591" s="3" t="s">
+      <c r="N591" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21734,7 +22447,7 @@
       <c r="E592" t="s">
         <v>552</v>
       </c>
-      <c r="N592" s="3">
+      <c r="N592">
         <v>0.7</v>
       </c>
     </row>
@@ -21754,7 +22467,7 @@
       <c r="E593" t="s">
         <v>552</v>
       </c>
-      <c r="N593" s="3">
+      <c r="N593">
         <v>0.5</v>
       </c>
     </row>
@@ -21774,7 +22487,7 @@
       <c r="E594" t="s">
         <v>552</v>
       </c>
-      <c r="N594" s="3">
+      <c r="N594">
         <v>1</v>
       </c>
     </row>
@@ -21794,7 +22507,7 @@
       <c r="E595" t="s">
         <v>552</v>
       </c>
-      <c r="N595" s="3" t="s">
+      <c r="N595" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21814,7 +22527,7 @@
       <c r="E596" t="s">
         <v>552</v>
       </c>
-      <c r="N596" s="3">
+      <c r="N596">
         <v>1.8</v>
       </c>
     </row>
@@ -21834,7 +22547,7 @@
       <c r="E597" t="s">
         <v>552</v>
       </c>
-      <c r="N597" s="3" t="s">
+      <c r="N597" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21854,7 +22567,7 @@
       <c r="E598" t="s">
         <v>552</v>
       </c>
-      <c r="N598" s="3" t="s">
+      <c r="N598" t="s">
         <v>649</v>
       </c>
     </row>
@@ -21874,7 +22587,7 @@
       <c r="E599" t="s">
         <v>552</v>
       </c>
-      <c r="N599" s="3">
+      <c r="N599">
         <v>0.8</v>
       </c>
     </row>
@@ -21894,7 +22607,7 @@
       <c r="E600" t="s">
         <v>552</v>
       </c>
-      <c r="N600" s="3">
+      <c r="N600">
         <v>1</v>
       </c>
     </row>
@@ -21914,7 +22627,7 @@
       <c r="E601" t="s">
         <v>552</v>
       </c>
-      <c r="N601" s="3">
+      <c r="N601">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -21934,7 +22647,7 @@
       <c r="E602" t="s">
         <v>552</v>
       </c>
-      <c r="N602" s="3">
+      <c r="N602">
         <v>0.7</v>
       </c>
     </row>
@@ -21954,7 +22667,7 @@
       <c r="E603" t="s">
         <v>552</v>
       </c>
-      <c r="N603" s="3">
+      <c r="N603">
         <v>0.6</v>
       </c>
     </row>
@@ -21974,7 +22687,7 @@
       <c r="E604" t="s">
         <v>552</v>
       </c>
-      <c r="N604" s="3">
+      <c r="N604">
         <v>2.8</v>
       </c>
     </row>
@@ -21994,7 +22707,7 @@
       <c r="E605" t="s">
         <v>552</v>
       </c>
-      <c r="N605" s="3">
+      <c r="N605">
         <v>1</v>
       </c>
     </row>
@@ -22014,7 +22727,7 @@
       <c r="E606" t="s">
         <v>552</v>
       </c>
-      <c r="N606" s="3" t="s">
+      <c r="N606" t="s">
         <v>649</v>
       </c>
     </row>
@@ -22034,7 +22747,7 @@
       <c r="E607" t="s">
         <v>552</v>
       </c>
-      <c r="N607" s="3">
+      <c r="N607">
         <v>0.6</v>
       </c>
     </row>
@@ -22054,7 +22767,7 @@
       <c r="E608" t="s">
         <v>552</v>
       </c>
-      <c r="N608" s="3">
+      <c r="N608">
         <v>0.7</v>
       </c>
     </row>
@@ -22074,7 +22787,7 @@
       <c r="E609" t="s">
         <v>552</v>
       </c>
-      <c r="N609" s="3">
+      <c r="N609">
         <v>1.2</v>
       </c>
     </row>
@@ -22094,7 +22807,7 @@
       <c r="E610" t="s">
         <v>552</v>
       </c>
-      <c r="N610" s="3">
+      <c r="N610">
         <v>0.7</v>
       </c>
     </row>
@@ -22114,7 +22827,7 @@
       <c r="E611" t="s">
         <v>552</v>
       </c>
-      <c r="N611" s="3">
+      <c r="N611">
         <v>0.6</v>
       </c>
     </row>
@@ -22134,7 +22847,7 @@
       <c r="E612" t="s">
         <v>552</v>
       </c>
-      <c r="N612" s="3">
+      <c r="N612">
         <v>0.6</v>
       </c>
     </row>
@@ -22154,7 +22867,7 @@
       <c r="E613" t="s">
         <v>552</v>
       </c>
-      <c r="N613" s="3">
+      <c r="N613">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22174,7 +22887,7 @@
       <c r="E614" t="s">
         <v>552</v>
       </c>
-      <c r="N614" s="3">
+      <c r="N614">
         <v>1</v>
       </c>
     </row>
@@ -22194,7 +22907,7 @@
       <c r="E615" t="s">
         <v>552</v>
       </c>
-      <c r="N615" s="3">
+      <c r="N615">
         <v>0.7</v>
       </c>
     </row>
@@ -22214,7 +22927,7 @@
       <c r="E616" t="s">
         <v>552</v>
       </c>
-      <c r="N616" s="3">
+      <c r="N616">
         <v>1</v>
       </c>
     </row>
@@ -22234,7 +22947,7 @@
       <c r="E617" t="s">
         <v>552</v>
       </c>
-      <c r="N617" s="3">
+      <c r="N617">
         <v>0.7</v>
       </c>
     </row>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/TELab/fuelinex/data/monitoringShootElongation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1F2301-8874-D744-A86D-1536E7667EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A74B84-F9CC-254D-A882-CA13ABCCC2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="671">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2011,9 +2011,6 @@
     <t>doy128: broke measured shoot. Prior measurements are invalid</t>
   </si>
   <si>
-    <t>doy128: not fully bud bursted. Have not started to elongate yet</t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
@@ -2033,6 +2030,12 @@
   </si>
   <si>
     <t>doy142: measurement from 135 is probably wrong</t>
+  </si>
+  <si>
+    <t>doy128: not fully bud bursted. Have not started to elongate yet; doy142: apical meristem didn’t budburst, lateral shoot measured</t>
+  </si>
+  <si>
+    <t>doy135: previous measurement (128) is invalid</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2740,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2832,7 +2835,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="betula"/>
+        <filter val="populus"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3175,9 +3178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O326" sqref="O326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,10 +3230,10 @@
         <v>660</v>
       </c>
       <c r="M1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -7009,7 +7012,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7037,8 +7040,14 @@
       <c r="L102">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>0.4</v>
+      </c>
+      <c r="N102">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7066,8 +7075,14 @@
       <c r="L103">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>3.7</v>
+      </c>
+      <c r="N103">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -7095,8 +7110,14 @@
       <c r="L104">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>3.3</v>
+      </c>
+      <c r="N104">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -7124,8 +7145,14 @@
       <c r="L105">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>3.8</v>
+      </c>
+      <c r="N105">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -7152,6 +7179,12 @@
       </c>
       <c r="L106">
         <v>6.9</v>
+      </c>
+      <c r="M106">
+        <v>7.3</v>
+      </c>
+      <c r="N106">
+        <v>8.5</v>
       </c>
     </row>
     <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -7504,7 +7537,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -7532,8 +7565,14 @@
       <c r="L117">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>2.5</v>
+      </c>
+      <c r="N117">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -7561,8 +7600,14 @@
       <c r="L118">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -7590,8 +7635,14 @@
       <c r="L119">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>0.6</v>
+      </c>
+      <c r="N119">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -7619,8 +7670,14 @@
       <c r="L120">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>3.9</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -7646,6 +7703,12 @@
         <v>0.6</v>
       </c>
       <c r="L121">
+        <v>0.6</v>
+      </c>
+      <c r="M121">
+        <v>0.6</v>
+      </c>
+      <c r="N121">
         <v>0.6</v>
       </c>
     </row>
@@ -7999,7 +8062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -8027,8 +8090,14 @@
       <c r="L132">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <v>2.4</v>
+      </c>
+      <c r="N132">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -8056,8 +8125,14 @@
       <c r="L133">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>1.8</v>
+      </c>
+      <c r="N133">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -8085,8 +8160,14 @@
       <c r="L134">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>4.3</v>
+      </c>
+      <c r="N134">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -8114,8 +8195,14 @@
       <c r="L135">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>1.4</v>
+      </c>
+      <c r="N135">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -8142,6 +8229,12 @@
       </c>
       <c r="L136">
         <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.6</v>
+      </c>
+      <c r="N136">
+        <v>6.9</v>
       </c>
     </row>
     <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -8494,7 +8587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -8522,8 +8615,14 @@
       <c r="L147">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N147">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -8551,8 +8650,14 @@
       <c r="L148">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>6.5</v>
+      </c>
+      <c r="N148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -8580,8 +8685,14 @@
       <c r="L149">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>5.5</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -8609,8 +8720,14 @@
       <c r="L150">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N150">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -8637,6 +8754,12 @@
       </c>
       <c r="L151">
         <v>0.5</v>
+      </c>
+      <c r="M151">
+        <v>0.5</v>
+      </c>
+      <c r="N151">
+        <v>0.6</v>
       </c>
     </row>
     <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -8992,7 +9115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -9020,8 +9143,14 @@
       <c r="L162">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <v>3.2</v>
+      </c>
+      <c r="N162">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -9049,8 +9178,14 @@
       <c r="L163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M163">
+        <v>0.5</v>
+      </c>
+      <c r="N163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -9078,8 +9213,14 @@
       <c r="L164">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <v>3.2</v>
+      </c>
+      <c r="N164">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -9107,8 +9248,14 @@
       <c r="L165">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>6.6</v>
+      </c>
+      <c r="N165">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -9135,6 +9282,12 @@
       </c>
       <c r="L166">
         <v>2.1</v>
+      </c>
+      <c r="M166">
+        <v>2.9</v>
+      </c>
+      <c r="N166">
+        <v>3.4</v>
       </c>
     </row>
     <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -9487,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9515,8 +9668,14 @@
       <c r="L177">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N177">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -9544,8 +9703,14 @@
       <c r="L178">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <v>3.6</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -9573,8 +9738,14 @@
       <c r="L179">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <v>3.4</v>
+      </c>
+      <c r="N179">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -9602,8 +9773,14 @@
       <c r="L180">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <v>6</v>
+      </c>
+      <c r="N180">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -9630,6 +9807,12 @@
       </c>
       <c r="L181">
         <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N181">
+        <v>4.5</v>
       </c>
     </row>
     <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -11055,7 +11238,7 @@
         <v>198</v>
       </c>
       <c r="F222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -11198,7 +11381,7 @@
         <v>198</v>
       </c>
       <c r="F226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H226">
         <v>0.6</v>
@@ -12534,7 +12717,7 @@
         <v>198</v>
       </c>
       <c r="F264" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H264">
         <v>0.8</v>
@@ -13153,7 +13336,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -13181,8 +13364,14 @@
       <c r="L282">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M282">
+        <v>4.3</v>
+      </c>
+      <c r="N282">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -13210,8 +13399,14 @@
       <c r="L283">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M283">
+        <v>7.3</v>
+      </c>
+      <c r="N283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -13239,8 +13434,14 @@
       <c r="L284">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M284">
+        <v>5.5</v>
+      </c>
+      <c r="N284">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -13267,6 +13468,12 @@
       </c>
       <c r="L285">
         <v>3.7</v>
+      </c>
+      <c r="M285">
+        <v>13.4</v>
+      </c>
+      <c r="N285">
+        <v>15.8</v>
       </c>
     </row>
     <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -13619,7 +13826,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -13647,8 +13854,14 @@
       <c r="L296">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M296">
+        <v>9.9</v>
+      </c>
+      <c r="N296">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -13676,8 +13889,14 @@
       <c r="L297">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M297">
+        <v>12.5</v>
+      </c>
+      <c r="N297">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -13705,8 +13924,14 @@
       <c r="L298">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M298">
+        <v>8.4</v>
+      </c>
+      <c r="N298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -13734,8 +13959,14 @@
       <c r="L299">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M299">
+        <v>15.1</v>
+      </c>
+      <c r="N299">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -13762,6 +13993,12 @@
       </c>
       <c r="L300">
         <v>10.6</v>
+      </c>
+      <c r="M300">
+        <v>13.3</v>
+      </c>
+      <c r="N300">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -14114,7 +14351,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -14142,8 +14379,14 @@
       <c r="L311">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M311">
+        <v>6</v>
+      </c>
+      <c r="N311">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -14171,8 +14414,14 @@
       <c r="L312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M312">
+        <v>2.5</v>
+      </c>
+      <c r="N312">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -14200,8 +14449,14 @@
       <c r="L313">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M313">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N313">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -14229,8 +14484,14 @@
       <c r="L314">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M314">
+        <v>6.3</v>
+      </c>
+      <c r="N314">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -14257,6 +14518,12 @@
       </c>
       <c r="L315">
         <v>5.6</v>
+      </c>
+      <c r="M315">
+        <v>6.7</v>
+      </c>
+      <c r="N315">
+        <v>7.1</v>
       </c>
     </row>
     <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -14539,7 +14806,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -14567,8 +14834,14 @@
       <c r="L324">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M324">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N324">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -14596,8 +14869,14 @@
       <c r="L325">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M325">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N325">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -14628,8 +14907,14 @@
       <c r="L326" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M326" t="s">
+        <v>649</v>
+      </c>
+      <c r="N326" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -14660,8 +14945,14 @@
       <c r="L327" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M327" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="N327" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -14688,6 +14979,12 @@
       </c>
       <c r="L328">
         <v>2.6</v>
+      </c>
+      <c r="M328">
+        <v>3.4</v>
+      </c>
+      <c r="N328">
+        <v>3.9</v>
       </c>
     </row>
     <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -15040,7 +15337,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -15068,8 +15365,14 @@
       <c r="L339">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M339">
+        <v>7</v>
+      </c>
+      <c r="N339">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -15097,8 +15400,14 @@
       <c r="L340">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M340">
+        <v>6.9</v>
+      </c>
+      <c r="N340">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -15126,8 +15435,14 @@
       <c r="L341">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M341">
+        <v>3</v>
+      </c>
+      <c r="N341">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -15158,8 +15473,14 @@
       <c r="L342" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M342" t="s">
+        <v>649</v>
+      </c>
+      <c r="N342" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -15186,6 +15507,12 @@
       </c>
       <c r="L343">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="M343">
+        <v>5.8</v>
+      </c>
+      <c r="N343">
+        <v>7.1</v>
       </c>
     </row>
     <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -15356,10 +15683,10 @@
       <c r="L348">
         <v>15.4</v>
       </c>
-      <c r="M348" s="3">
+      <c r="M348">
         <v>18.399999999999999</v>
       </c>
-      <c r="N348" s="3">
+      <c r="N348">
         <v>20.3</v>
       </c>
     </row>
@@ -15503,7 +15830,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -15531,8 +15858,14 @@
       <c r="L353">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M353">
+        <v>15.5</v>
+      </c>
+      <c r="N353">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -15560,8 +15893,14 @@
       <c r="L354" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M354">
+        <v>18</v>
+      </c>
+      <c r="N354">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -15589,8 +15928,14 @@
       <c r="L355">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M355">
+        <v>13.7</v>
+      </c>
+      <c r="N355">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -15618,8 +15963,14 @@
       <c r="L356">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M356">
+        <v>15.2</v>
+      </c>
+      <c r="N356">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -15647,8 +15998,14 @@
       <c r="L357">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M357">
+        <v>5.6</v>
+      </c>
+      <c r="N357">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -15686,7 +16043,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -15724,7 +16081,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -15762,7 +16119,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -15800,7 +16157,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -15838,7 +16195,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -15876,7 +16233,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -15914,7 +16271,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -15952,7 +16309,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -15990,7 +16347,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -16028,7 +16385,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -16805,7 +17162,7 @@
         <v>378</v>
       </c>
       <c r="F388" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G388" s="1">
         <v>3.2</v>
@@ -17457,7 +17814,7 @@
         <v>378</v>
       </c>
       <c r="F405" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G405">
         <v>4.2</v>
@@ -19012,6 +19369,12 @@
       <c r="L448">
         <v>6</v>
       </c>
+      <c r="M448">
+        <v>6.9</v>
+      </c>
+      <c r="N448">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -19035,6 +19398,12 @@
       <c r="L449">
         <v>12.1</v>
       </c>
+      <c r="M449">
+        <v>12.1</v>
+      </c>
+      <c r="N449">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -19058,6 +19427,12 @@
       <c r="L450">
         <v>5.4</v>
       </c>
+      <c r="M450">
+        <v>7.2</v>
+      </c>
+      <c r="N450">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -19081,6 +19456,12 @@
       <c r="L451">
         <v>2</v>
       </c>
+      <c r="M451">
+        <v>2</v>
+      </c>
+      <c r="N451">
+        <v>2</v>
+      </c>
     </row>
     <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -19104,6 +19485,12 @@
       <c r="L452">
         <v>8</v>
       </c>
+      <c r="M452">
+        <v>8.1</v>
+      </c>
+      <c r="N452">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
@@ -19412,13 +19799,19 @@
         <v>460</v>
       </c>
       <c r="F463" t="s">
-        <v>662</v>
-      </c>
-      <c r="K463">
-        <v>0.6</v>
+        <v>669</v>
+      </c>
+      <c r="K463" t="s">
+        <v>649</v>
       </c>
       <c r="L463" t="s">
         <v>649</v>
+      </c>
+      <c r="M463" t="s">
+        <v>649</v>
+      </c>
+      <c r="N463">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -19443,6 +19836,12 @@
       <c r="L464">
         <v>2.7</v>
       </c>
+      <c r="M464">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N464" s="3">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -19460,10 +19859,19 @@
       <c r="E465" t="s">
         <v>460</v>
       </c>
+      <c r="F465" t="s">
+        <v>670</v>
+      </c>
       <c r="K465">
         <v>1.3</v>
       </c>
-      <c r="L465">
+      <c r="L465" t="s">
+        <v>649</v>
+      </c>
+      <c r="M465">
+        <v>1.3</v>
+      </c>
+      <c r="N465">
         <v>1.7</v>
       </c>
     </row>
@@ -19489,6 +19897,12 @@
       <c r="L466">
         <v>8.3000000000000007</v>
       </c>
+      <c r="M466">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N466">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -19512,6 +19926,12 @@
       <c r="L467">
         <v>2.2999999999999998</v>
       </c>
+      <c r="M467">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N467">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
@@ -19765,7 +20185,7 @@
         <v>460</v>
       </c>
       <c r="F476" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K476">
         <v>0.8</v>
@@ -19831,6 +20251,12 @@
       <c r="L478">
         <v>2</v>
       </c>
+      <c r="M478">
+        <v>2</v>
+      </c>
+      <c r="N478">
+        <v>2</v>
+      </c>
     </row>
     <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -19854,6 +20280,12 @@
       <c r="L479">
         <v>3.3</v>
       </c>
+      <c r="M479">
+        <v>3.7</v>
+      </c>
+      <c r="N479">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -19877,6 +20309,12 @@
       <c r="L480">
         <v>1.9</v>
       </c>
+      <c r="M480">
+        <v>2.6</v>
+      </c>
+      <c r="N480">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -19895,12 +20333,18 @@
         <v>460</v>
       </c>
       <c r="F481" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K481" t="s">
         <v>649</v>
       </c>
       <c r="L481" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="N481" s="3" t="s">
         <v>649</v>
       </c>
     </row>
@@ -19926,6 +20370,12 @@
       <c r="L482">
         <v>2.2999999999999998</v>
       </c>
+      <c r="M482">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N482">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -20239,6 +20689,12 @@
       <c r="L493">
         <v>1.9</v>
       </c>
+      <c r="M493">
+        <v>2.1</v>
+      </c>
+      <c r="N493">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -20262,6 +20718,12 @@
       <c r="L494">
         <v>1.5</v>
       </c>
+      <c r="M494">
+        <v>2.7</v>
+      </c>
+      <c r="N494">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -20285,6 +20747,12 @@
       <c r="L495">
         <v>1.8</v>
       </c>
+      <c r="M495">
+        <v>1.7</v>
+      </c>
+      <c r="N495">
+        <v>2</v>
+      </c>
     </row>
     <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -20308,6 +20776,12 @@
       <c r="L496">
         <v>5.9</v>
       </c>
+      <c r="M496">
+        <v>9.9</v>
+      </c>
+      <c r="N496">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -20331,6 +20805,12 @@
       <c r="L497">
         <v>2.4</v>
       </c>
+      <c r="M497">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N497">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
@@ -20647,6 +21127,12 @@
       <c r="L508">
         <v>1.4</v>
       </c>
+      <c r="M508">
+        <v>1.5</v>
+      </c>
+      <c r="N508">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -20670,6 +21156,12 @@
       <c r="L509">
         <v>5.9</v>
       </c>
+      <c r="M509">
+        <v>7.3</v>
+      </c>
+      <c r="N509">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -20693,6 +21185,12 @@
       <c r="L510">
         <v>6.2</v>
       </c>
+      <c r="M510">
+        <v>7</v>
+      </c>
+      <c r="N510">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -20716,6 +21214,12 @@
       <c r="L511">
         <v>1</v>
       </c>
+      <c r="M511">
+        <v>1</v>
+      </c>
+      <c r="N511">
+        <v>1</v>
+      </c>
     </row>
     <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -20739,6 +21243,12 @@
       <c r="L512">
         <v>1.3</v>
       </c>
+      <c r="M512">
+        <v>1.3</v>
+      </c>
+      <c r="N512">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -21055,6 +21565,12 @@
       <c r="L523">
         <v>0.5</v>
       </c>
+      <c r="M523">
+        <v>0.6</v>
+      </c>
+      <c r="N523">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -21078,6 +21594,12 @@
       <c r="L524">
         <v>2.2000000000000002</v>
       </c>
+      <c r="M524">
+        <v>2.9</v>
+      </c>
+      <c r="N524">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -21101,6 +21623,12 @@
       <c r="L525">
         <v>4.5999999999999996</v>
       </c>
+      <c r="M525">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N525">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -21124,6 +21652,12 @@
       <c r="L526">
         <v>1.5</v>
       </c>
+      <c r="M526">
+        <v>1.8</v>
+      </c>
+      <c r="N526">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -21149,6 +21683,12 @@
       </c>
       <c r="L527">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="M527">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N527">
+        <v>1.3</v>
       </c>
     </row>
     <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A74B84-F9CC-254D-A882-CA13ABCCC2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B174E3-C48A-EB44-8222-A6D03B71B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="672">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2036,6 +2036,9 @@
   </si>
   <si>
     <t>doy135: previous measurement (128) is invalid</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2589,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2740,7 +2751,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2826,34 +2837,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:N617" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="populus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{E79A2FF5-C40B-4272-B0CC-70D992DD2423}" name="114" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{6974BA24-32C9-E646-B8E2-B57C96D6AE61}" name="121" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{950026EF-1938-1E49-BFDB-05B21959D7C5}" name="122" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{D2431F7E-CF65-C445-82A9-C0156A164D2A}" name="128" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7BEB78EC-34AE-4C43-AC80-E51EF16D5745}" name="135" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{C5CDDF1D-7DF0-8545-BB31-62F5EB2195C4}" name="142" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:O617" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O617" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{05BA1195-F06F-B042-A1FE-AEB9A0786D67}" name="101" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B4AE32F7-FF5F-8A46-8A2B-A2262E26032D}" name="107" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E79A2FF5-C40B-4272-B0CC-70D992DD2423}" name="114" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{6974BA24-32C9-E646-B8E2-B57C96D6AE61}" name="121" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{950026EF-1938-1E49-BFDB-05B21959D7C5}" name="122" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{D2431F7E-CF65-C445-82A9-C0156A164D2A}" name="128" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{7BEB78EC-34AE-4C43-AC80-E51EF16D5745}" name="135" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{C5CDDF1D-7DF0-8545-BB31-62F5EB2195C4}" name="142" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{FED99E69-9CB2-D045-A6AE-72373850E43C}" name="149" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3176,11 +3177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N617"/>
+  <dimension ref="A1:O617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O326" sqref="O326"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,7 +3193,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3235,8 +3236,11 @@
       <c r="N1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3273,8 +3277,9 @@
       <c r="N2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3311,8 +3316,9 @@
       <c r="N3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3349,8 +3355,9 @@
       <c r="N4">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3387,8 +3394,9 @@
       <c r="N5">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3425,8 +3433,9 @@
       <c r="N6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3463,8 +3472,9 @@
       <c r="N7">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3501,8 +3511,9 @@
       <c r="N8">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3539,8 +3550,9 @@
       <c r="N9">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3577,8 +3589,9 @@
       <c r="N10">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3615,8 +3628,9 @@
       <c r="N11">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3653,8 +3667,9 @@
       <c r="N12">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3691,8 +3706,9 @@
       <c r="N13">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3729,8 +3745,9 @@
       <c r="N14">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3767,8 +3784,9 @@
       <c r="N15">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3805,8 +3823,9 @@
       <c r="N16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3843,8 +3862,9 @@
       <c r="N17">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3881,8 +3901,9 @@
       <c r="N18">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3919,8 +3940,9 @@
       <c r="N19">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3957,8 +3979,9 @@
       <c r="N20">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3998,8 +4021,9 @@
       <c r="N21">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4036,8 +4060,9 @@
       <c r="N22">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4074,8 +4099,9 @@
       <c r="N23">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4112,8 +4138,9 @@
       <c r="N24">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4150,8 +4177,9 @@
       <c r="N25">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4188,8 +4216,9 @@
       <c r="N26">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4226,8 +4255,9 @@
       <c r="N27">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4264,8 +4294,9 @@
       <c r="N28">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4302,8 +4333,9 @@
       <c r="N29">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4340,8 +4372,9 @@
       <c r="N30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4378,8 +4411,9 @@
       <c r="N31">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4416,8 +4450,9 @@
       <c r="N32">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4454,8 +4489,9 @@
       <c r="N33">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4492,8 +4528,9 @@
       <c r="N34">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4530,8 +4567,9 @@
       <c r="N35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4568,8 +4606,9 @@
       <c r="N36">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4606,8 +4645,9 @@
       <c r="N37">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4644,8 +4684,9 @@
       <c r="N38">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4682,8 +4723,9 @@
       <c r="N39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4720,8 +4762,9 @@
       <c r="N40">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4758,8 +4801,9 @@
       <c r="N41">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4796,8 +4840,9 @@
       <c r="N42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4834,8 +4879,9 @@
       <c r="N43">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4872,8 +4918,9 @@
       <c r="N44">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4910,8 +4957,9 @@
       <c r="N45">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4948,8 +4996,9 @@
       <c r="N46">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4986,8 +5035,9 @@
       <c r="N47">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5024,8 +5074,9 @@
       <c r="N48">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5062,8 +5113,9 @@
       <c r="N49">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5152,9 @@
       <c r="N50">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5138,8 +5191,9 @@
       <c r="N51">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5176,8 +5230,9 @@
       <c r="N52">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -5214,8 +5269,9 @@
       <c r="N53">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -5252,8 +5308,9 @@
       <c r="N54">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5290,8 +5347,9 @@
       <c r="N55">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5328,8 +5386,9 @@
       <c r="N56">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5366,8 +5425,9 @@
       <c r="N57">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -5404,8 +5464,9 @@
       <c r="N58">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5442,8 +5503,9 @@
       <c r="N59">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5480,8 +5542,9 @@
       <c r="N60">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -5518,8 +5581,9 @@
       <c r="N61">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5556,8 +5620,9 @@
       <c r="N62">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -5594,8 +5659,9 @@
       <c r="N63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5632,8 +5698,9 @@
       <c r="N64">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5670,8 +5737,9 @@
       <c r="N65">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -5708,8 +5776,9 @@
       <c r="N66">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -5746,8 +5815,9 @@
       <c r="N67">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -5784,8 +5854,9 @@
       <c r="N68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -5822,8 +5893,9 @@
       <c r="N69">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -5860,8 +5932,9 @@
       <c r="N70">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5898,8 +5971,9 @@
       <c r="N71">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5936,8 +6010,9 @@
       <c r="N72">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5974,8 +6049,9 @@
       <c r="N73">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6012,8 +6088,9 @@
       <c r="N74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6050,8 +6127,9 @@
       <c r="N75">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -6088,8 +6166,9 @@
       <c r="N76">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -6126,8 +6205,9 @@
       <c r="N77">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -6167,8 +6247,9 @@
       <c r="N78">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -6205,8 +6286,9 @@
       <c r="N79">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -6243,8 +6325,9 @@
       <c r="N80">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -6281,8 +6364,9 @@
       <c r="N81">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -6319,8 +6403,9 @@
       <c r="N82">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6357,8 +6442,9 @@
       <c r="N83">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -6395,8 +6481,9 @@
       <c r="N84">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -6433,8 +6520,9 @@
       <c r="N85">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6471,8 +6559,9 @@
       <c r="N86">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6509,8 +6598,9 @@
       <c r="N87">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -6547,8 +6637,9 @@
       <c r="N88">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -6585,8 +6676,9 @@
       <c r="N89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -6623,8 +6715,9 @@
       <c r="N90">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -6661,8 +6754,9 @@
       <c r="N91">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -6696,8 +6790,9 @@
       <c r="N92">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -6731,8 +6826,9 @@
       <c r="N93">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -6766,8 +6862,9 @@
       <c r="N94">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -6801,8 +6898,9 @@
       <c r="N95">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -6836,8 +6934,9 @@
       <c r="N96">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -6871,8 +6970,9 @@
       <c r="N97">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -6906,8 +7006,9 @@
       <c r="N98">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -6941,8 +7042,9 @@
       <c r="N99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -6976,8 +7078,9 @@
       <c r="N100">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -7011,8 +7114,9 @@
       <c r="N101">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7046,8 +7150,9 @@
       <c r="N102">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7081,8 +7186,9 @@
       <c r="N103">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -7116,8 +7222,9 @@
       <c r="N104">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -7151,8 +7258,9 @@
       <c r="N105">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -7186,8 +7294,9 @@
       <c r="N106">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -7221,8 +7330,9 @@
       <c r="N107">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -7256,8 +7366,9 @@
       <c r="N108">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -7291,8 +7402,9 @@
       <c r="N109">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -7326,8 +7438,9 @@
       <c r="N110">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -7361,8 +7474,9 @@
       <c r="N111">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -7396,8 +7510,9 @@
       <c r="N112">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -7431,8 +7546,9 @@
       <c r="N113">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -7466,8 +7582,9 @@
       <c r="N114">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -7501,8 +7618,9 @@
       <c r="N115">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -7536,8 +7654,9 @@
       <c r="N116">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -7571,8 +7690,9 @@
       <c r="N117">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -7606,8 +7726,9 @@
       <c r="N118">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -7641,8 +7762,9 @@
       <c r="N119">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -7676,8 +7798,9 @@
       <c r="N120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -7711,8 +7834,9 @@
       <c r="N121">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -7746,8 +7870,9 @@
       <c r="N122">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -7781,8 +7906,9 @@
       <c r="N123">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -7816,8 +7942,9 @@
       <c r="N124">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -7851,8 +7978,9 @@
       <c r="N125">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -7886,8 +8014,9 @@
       <c r="N126">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -7921,8 +8050,9 @@
       <c r="N127">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -7956,8 +8086,9 @@
       <c r="N128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -7991,8 +8122,9 @@
       <c r="N129">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -8026,8 +8158,9 @@
       <c r="N130">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -8061,8 +8194,9 @@
       <c r="N131">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -8096,8 +8230,9 @@
       <c r="N132">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -8131,8 +8266,9 @@
       <c r="N133">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -8166,8 +8302,9 @@
       <c r="N134">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -8201,8 +8338,9 @@
       <c r="N135">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -8236,8 +8374,9 @@
       <c r="N136">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -8271,8 +8410,9 @@
       <c r="N137">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -8306,8 +8446,9 @@
       <c r="N138">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -8341,8 +8482,9 @@
       <c r="N139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -8376,8 +8518,9 @@
       <c r="N140">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -8411,8 +8554,9 @@
       <c r="N141">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -8446,8 +8590,9 @@
       <c r="N142">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -8481,8 +8626,9 @@
       <c r="N143">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -8516,8 +8662,9 @@
       <c r="N144">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -8551,8 +8698,9 @@
       <c r="N145">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -8586,8 +8734,9 @@
       <c r="N146">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -8621,8 +8770,9 @@
       <c r="N147">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -8656,8 +8806,9 @@
       <c r="N148">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -8691,8 +8842,9 @@
       <c r="N149">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -8726,8 +8878,9 @@
       <c r="N150">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -8761,8 +8914,9 @@
       <c r="N151">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -8796,8 +8950,9 @@
       <c r="N152">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -8831,8 +8986,9 @@
       <c r="N153">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -8866,8 +9022,9 @@
       <c r="N154">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -8901,8 +9058,9 @@
       <c r="N155">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -8939,8 +9097,9 @@
       <c r="N156">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -8974,8 +9133,9 @@
       <c r="N157">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -9009,8 +9169,9 @@
       <c r="N158">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -9044,8 +9205,9 @@
       <c r="N159">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -9079,8 +9241,9 @@
       <c r="N160">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -9114,8 +9277,9 @@
       <c r="N161">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -9149,8 +9313,9 @@
       <c r="N162">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -9184,8 +9349,9 @@
       <c r="N163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -9219,8 +9385,9 @@
       <c r="N164">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -9254,8 +9421,9 @@
       <c r="N165">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -9289,8 +9457,9 @@
       <c r="N166">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -9324,8 +9493,9 @@
       <c r="N167">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -9359,8 +9529,9 @@
       <c r="N168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -9394,8 +9565,9 @@
       <c r="N169">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -9429,8 +9601,9 @@
       <c r="N170">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -9464,8 +9637,9 @@
       <c r="N171">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -9499,8 +9673,9 @@
       <c r="N172">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -9534,8 +9709,9 @@
       <c r="N173">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O173" s="3"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -9569,8 +9745,9 @@
       <c r="N174">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -9604,8 +9781,9 @@
       <c r="N175">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -9639,8 +9817,9 @@
       <c r="N176">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9674,8 +9853,9 @@
       <c r="N177">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O177" s="3"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -9709,8 +9889,9 @@
       <c r="N178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -9744,8 +9925,9 @@
       <c r="N179">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -9779,8 +9961,9 @@
       <c r="N180">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -9814,8 +9997,9 @@
       <c r="N181">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -9849,8 +10033,11 @@
       <c r="N182">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O182" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -9884,8 +10071,11 @@
       <c r="N183">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O183" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -9919,8 +10109,11 @@
       <c r="N184">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O184" s="3">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -9954,8 +10147,11 @@
       <c r="N185">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O185" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -9989,8 +10185,11 @@
       <c r="N186">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O186" s="3">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -10024,8 +10223,11 @@
       <c r="N187">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O187" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -10059,8 +10261,11 @@
       <c r="N188">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O188" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -10094,8 +10299,11 @@
       <c r="N189">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O189" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -10129,8 +10337,11 @@
       <c r="N190">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O190" s="3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -10167,8 +10378,11 @@
       <c r="N191">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O191" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -10202,8 +10416,11 @@
       <c r="N192">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O192" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -10237,8 +10454,11 @@
       <c r="N193">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O193" s="3">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -10272,8 +10492,11 @@
       <c r="N194">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O194" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -10307,8 +10530,11 @@
       <c r="N195">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O195" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -10342,8 +10568,11 @@
       <c r="N196">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O196" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -10377,8 +10606,11 @@
       <c r="N197">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O197" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -10412,8 +10644,11 @@
       <c r="N198">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O198" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -10447,8 +10682,11 @@
       <c r="N199">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O199" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -10482,8 +10720,11 @@
       <c r="N200">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O200" s="3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -10517,8 +10758,11 @@
       <c r="N201">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O201" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -10552,8 +10796,11 @@
       <c r="N202">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O202" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -10587,8 +10834,11 @@
       <c r="N203">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O203" s="3">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -10622,8 +10872,11 @@
       <c r="N204">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O204" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -10657,8 +10910,11 @@
       <c r="N205">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O205" s="3">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -10692,8 +10948,11 @@
       <c r="N206">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O206" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -10727,8 +10986,11 @@
       <c r="N207">
         <v>11</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O207" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -10762,8 +11024,11 @@
       <c r="N208">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O208" s="3">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -10797,8 +11062,11 @@
       <c r="N209">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O209" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -10832,8 +11100,11 @@
       <c r="N210">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O210" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -10867,8 +11138,11 @@
       <c r="N211">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O211" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -10902,8 +11176,11 @@
       <c r="N212">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O212" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -10937,8 +11214,11 @@
       <c r="N213">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O213" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -10972,8 +11252,11 @@
       <c r="N214">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O214" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -11010,8 +11293,11 @@
       <c r="N215">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O215" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -11045,8 +11331,11 @@
       <c r="N216">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O216" s="3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -11080,8 +11369,11 @@
       <c r="N217">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O217" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -11115,8 +11407,11 @@
       <c r="N218">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O218" s="3">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -11150,8 +11445,11 @@
       <c r="N219">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O219" s="3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -11185,8 +11483,11 @@
       <c r="N220">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O220" s="3">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -11220,8 +11521,11 @@
       <c r="N221">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O221" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -11258,8 +11562,11 @@
       <c r="N222">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O222" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -11293,8 +11600,11 @@
       <c r="N223">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O223" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -11328,8 +11638,11 @@
       <c r="N224">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O224" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -11363,8 +11676,11 @@
       <c r="N225">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O225" s="3">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -11401,8 +11717,11 @@
       <c r="N226">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O226" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -11436,8 +11755,11 @@
       <c r="N227">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O227" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -11471,8 +11793,11 @@
       <c r="N228">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O228" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -11506,8 +11831,11 @@
       <c r="N229">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O229" s="3">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -11541,8 +11869,11 @@
       <c r="N230">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O230" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -11576,8 +11907,11 @@
       <c r="N231">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O231" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -11611,8 +11945,11 @@
       <c r="N232">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O232" s="3">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -11646,8 +11983,11 @@
       <c r="N233">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O233" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -11681,8 +12021,11 @@
       <c r="N234">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O234" s="3">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -11716,8 +12059,11 @@
       <c r="N235">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O235" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -11751,8 +12097,11 @@
       <c r="N236">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O236" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -11786,8 +12135,11 @@
       <c r="N237">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O237" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -11824,8 +12176,11 @@
       <c r="N238">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O238" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -11859,8 +12214,11 @@
       <c r="N239">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O239" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -11894,8 +12252,11 @@
       <c r="N240">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O240" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -11929,8 +12290,11 @@
       <c r="N241">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O241" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -11964,8 +12328,11 @@
       <c r="N242">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O242" s="3">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -11999,8 +12366,11 @@
       <c r="N243">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O243" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -12034,8 +12404,11 @@
       <c r="N244">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O244" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -12069,8 +12442,11 @@
       <c r="N245">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O245" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -12104,8 +12480,11 @@
       <c r="N246">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O246" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -12139,8 +12518,11 @@
       <c r="N247">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O247" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -12174,8 +12556,11 @@
       <c r="N248">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O248" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -12209,8 +12594,11 @@
       <c r="N249">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O249" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -12244,8 +12632,11 @@
       <c r="N250">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O250" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -12279,8 +12670,11 @@
       <c r="N251">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O251" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -12314,8 +12708,11 @@
       <c r="N252">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O252" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -12349,8 +12746,11 @@
       <c r="N253">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O253" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -12384,8 +12784,11 @@
       <c r="N254">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O254" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -12419,8 +12822,11 @@
       <c r="N255">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O255" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -12454,8 +12860,11 @@
       <c r="N256">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O256" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -12489,8 +12898,11 @@
       <c r="N257">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O257" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -12524,8 +12936,11 @@
       <c r="N258">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O258" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -12559,8 +12974,11 @@
       <c r="N259">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O259" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -12594,8 +13012,11 @@
       <c r="N260">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O260" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -12629,8 +13050,11 @@
       <c r="N261">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O261" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -12664,8 +13088,11 @@
       <c r="N262">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O262" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -12699,8 +13126,11 @@
       <c r="N263">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O263" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -12740,8 +13170,9 @@
       <c r="N264" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O264" s="3"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -12775,8 +13206,11 @@
       <c r="N265">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O265" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -12810,8 +13244,11 @@
       <c r="N266">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O266" s="3">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -12845,8 +13282,11 @@
       <c r="N267">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O267" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -12880,8 +13320,11 @@
       <c r="N268">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O268" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -12915,8 +13358,11 @@
       <c r="N269">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O269" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -12950,8 +13396,11 @@
       <c r="N270">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O270" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -12985,8 +13434,11 @@
       <c r="N271">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O271" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -13020,8 +13472,9 @@
       <c r="N272">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O272" s="3"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -13055,8 +13508,9 @@
       <c r="N273">
         <v>10</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O273" s="3"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -13090,8 +13544,9 @@
       <c r="N274">
         <v>17</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O274" s="3"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -13125,8 +13580,9 @@
       <c r="N275">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O275" s="3"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -13160,8 +13616,9 @@
       <c r="N276">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O276" s="3"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -13195,8 +13652,9 @@
       <c r="N277">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O277" s="3"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -13230,8 +13688,9 @@
       <c r="N278">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O278" s="3"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -13265,8 +13724,9 @@
       <c r="N279">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O279" s="3"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -13300,8 +13760,9 @@
       <c r="N280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -13335,8 +13796,9 @@
       <c r="N281">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -13370,8 +13832,9 @@
       <c r="N282">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -13405,8 +13868,9 @@
       <c r="N283">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -13440,8 +13904,9 @@
       <c r="N284">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284" s="3"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -13475,8 +13940,9 @@
       <c r="N285">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O285" s="3"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -13510,8 +13976,9 @@
       <c r="N286">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O286" s="3"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -13545,8 +14012,9 @@
       <c r="N287">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O287" s="3"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -13580,8 +14048,9 @@
       <c r="N288">
         <v>22</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O288" s="3"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -13615,8 +14084,9 @@
       <c r="N289">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -13650,8 +14120,9 @@
       <c r="N290">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -13685,8 +14156,9 @@
       <c r="N291">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -13720,8 +14192,9 @@
       <c r="N292">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -13755,8 +14228,9 @@
       <c r="N293">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -13790,8 +14264,9 @@
       <c r="N294">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -13825,8 +14300,9 @@
       <c r="N295">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -13860,8 +14336,9 @@
       <c r="N296">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -13895,8 +14372,9 @@
       <c r="N297">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -13930,8 +14408,9 @@
       <c r="N298">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -13965,8 +14444,9 @@
       <c r="N299">
         <v>18</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -14000,8 +14480,9 @@
       <c r="N300">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -14035,8 +14516,9 @@
       <c r="N301">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -14070,8 +14552,9 @@
       <c r="N302">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -14105,8 +14588,9 @@
       <c r="N303">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -14140,8 +14624,9 @@
       <c r="N304">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -14175,8 +14660,9 @@
       <c r="N305">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -14210,8 +14696,9 @@
       <c r="N306">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -14245,8 +14732,9 @@
       <c r="N307">
         <v>16</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -14280,8 +14768,9 @@
       <c r="N308">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -14315,8 +14804,9 @@
       <c r="N309">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -14350,8 +14840,9 @@
       <c r="N310">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -14385,8 +14876,9 @@
       <c r="N311">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311" s="3"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -14420,8 +14912,9 @@
       <c r="N312">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -14455,8 +14948,9 @@
       <c r="N313">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -14490,8 +14984,9 @@
       <c r="N314">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314" s="3"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -14525,8 +15020,9 @@
       <c r="N315">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O315" s="3"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -14560,8 +15056,9 @@
       <c r="N316">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -14595,8 +15092,9 @@
       <c r="N317">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O317" s="3"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -14630,8 +15128,9 @@
       <c r="N318">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O318" s="3"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -14665,8 +15164,9 @@
       <c r="N319">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O319" s="3"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -14700,8 +15200,9 @@
       <c r="N320">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -14735,8 +15236,9 @@
       <c r="N321">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -14770,8 +15272,9 @@
       <c r="N322">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O322" s="3"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -14805,8 +15308,9 @@
       <c r="N323">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323" s="3"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -14840,8 +15344,9 @@
       <c r="N324">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324" s="3"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -14875,8 +15380,9 @@
       <c r="N325">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325" s="3"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -14913,8 +15419,9 @@
       <c r="N326" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326" s="3"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -14945,14 +15452,15 @@
       <c r="L327" t="s">
         <v>644</v>
       </c>
-      <c r="M327" s="3" t="s">
+      <c r="M327" t="s">
         <v>649</v>
       </c>
-      <c r="N327" s="3" t="s">
+      <c r="N327" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327" s="3"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -14986,8 +15494,9 @@
       <c r="N328">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -15021,8 +15530,9 @@
       <c r="N329">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -15056,8 +15566,9 @@
       <c r="N330">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O330" s="3"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -15091,8 +15602,9 @@
       <c r="N331">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O331" s="3"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -15126,8 +15638,9 @@
       <c r="N332">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O332" s="3"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -15161,8 +15674,9 @@
       <c r="N333">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O333" s="3"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -15196,8 +15710,9 @@
       <c r="N334">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O334" s="3"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -15231,8 +15746,9 @@
       <c r="N335">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O335" s="3"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -15266,8 +15782,9 @@
       <c r="N336">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O336" s="3"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -15301,8 +15818,9 @@
       <c r="N337">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O337" s="3"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -15336,8 +15854,9 @@
       <c r="N338">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338" s="3"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -15371,8 +15890,9 @@
       <c r="N339">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339" s="3"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -15406,8 +15926,9 @@
       <c r="N340">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340" s="3"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -15441,8 +15962,9 @@
       <c r="N341">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341" s="3"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -15479,8 +16001,9 @@
       <c r="N342" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342" s="3"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -15514,8 +16037,9 @@
       <c r="N343">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O343" s="3"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -15549,8 +16073,9 @@
       <c r="N344">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O344" s="3"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -15584,8 +16109,9 @@
       <c r="N345">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O345" s="3"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -15619,8 +16145,9 @@
       <c r="N346">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O346" s="3"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -15654,8 +16181,9 @@
       <c r="N347">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O347" s="3"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -15689,8 +16217,9 @@
       <c r="N348">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O348" s="3"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -15724,8 +16253,9 @@
       <c r="N349">
         <v>9</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O349" s="3"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -15759,8 +16289,9 @@
       <c r="N350">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O350" s="3"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -15794,8 +16325,9 @@
       <c r="N351">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O351" s="3"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -15829,8 +16361,9 @@
       <c r="N352">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352" s="3"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -15864,8 +16397,9 @@
       <c r="N353">
         <v>17</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353" s="3"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -15899,8 +16433,9 @@
       <c r="N354">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354" s="3"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -15934,8 +16469,9 @@
       <c r="N355">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355" s="3"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -15969,8 +16505,9 @@
       <c r="N356">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356" s="3"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -16004,8 +16541,9 @@
       <c r="N357">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O357" s="3"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -16042,8 +16580,11 @@
       <c r="M358">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O358" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -16080,8 +16621,11 @@
       <c r="M359">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O359" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -16118,8 +16662,11 @@
       <c r="M360">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O360" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -16156,8 +16703,11 @@
       <c r="M361">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O361" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -16194,8 +16744,11 @@
       <c r="M362">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O362" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -16232,8 +16785,11 @@
       <c r="M363">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O363" s="3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -16270,8 +16826,11 @@
       <c r="M364">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O364" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -16308,8 +16867,11 @@
       <c r="M365">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O365" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -16346,8 +16908,11 @@
       <c r="M366">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O366" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -16384,8 +16949,11 @@
       <c r="M367">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O367" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -16422,8 +16990,11 @@
       <c r="M368">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O368" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -16460,8 +17031,11 @@
       <c r="M369">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O369" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -16498,8 +17072,11 @@
       <c r="M370">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O370" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -16536,8 +17113,11 @@
       <c r="M371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -16574,8 +17154,11 @@
       <c r="M372">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O372" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -16612,8 +17195,11 @@
       <c r="M373">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O373" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -16650,8 +17236,11 @@
       <c r="M374">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O374" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -16688,8 +17277,11 @@
       <c r="M375">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O375" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -16726,8 +17318,11 @@
       <c r="M376">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O376" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -16764,8 +17359,11 @@
       <c r="M377">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O377" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -16802,8 +17400,11 @@
       <c r="M378">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O378" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -16840,8 +17441,11 @@
       <c r="M379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O379" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -16878,8 +17482,11 @@
       <c r="M380">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O380" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -16916,8 +17523,11 @@
       <c r="M381">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O381" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -16954,8 +17564,11 @@
       <c r="M382">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O382" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -16992,8 +17605,11 @@
       <c r="M383">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O383" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -17030,8 +17646,11 @@
       <c r="M384">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O384" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -17068,8 +17687,11 @@
       <c r="M385">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O385" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -17106,8 +17728,11 @@
       <c r="M386">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O386" s="3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -17144,8 +17769,11 @@
       <c r="M387">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O387" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -17185,8 +17813,11 @@
       <c r="M388">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O388" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -17223,8 +17854,11 @@
       <c r="M389">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O389" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -17261,8 +17895,11 @@
       <c r="M390">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O390" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -17299,8 +17936,11 @@
       <c r="M391">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O391" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -17337,8 +17977,11 @@
       <c r="M392">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O392" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -17375,8 +18018,11 @@
       <c r="M393">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O393" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -17413,8 +18059,11 @@
       <c r="M394">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O394" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -17454,8 +18103,11 @@
       <c r="M395">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O395" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -17492,8 +18144,11 @@
       <c r="M396">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O396" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -17530,8 +18185,11 @@
       <c r="M397">
         <v>11</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O397" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -17568,8 +18226,11 @@
       <c r="M398">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O398" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -17606,8 +18267,11 @@
       <c r="M399">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O399" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -17644,8 +18308,11 @@
       <c r="M400">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O400" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -17682,8 +18349,11 @@
       <c r="M401">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O401" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -17720,8 +18390,11 @@
       <c r="M402">
         <v>5</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O402" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -17758,8 +18431,11 @@
       <c r="M403">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O403" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -17796,8 +18472,11 @@
       <c r="M404">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O404" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -17837,8 +18516,11 @@
       <c r="M405">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O405" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -17875,8 +18557,11 @@
       <c r="M406">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O406" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -17913,8 +18598,11 @@
       <c r="M407">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O407" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -17951,8 +18639,11 @@
       <c r="M408">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O408" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -17989,8 +18680,11 @@
       <c r="M409">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O409" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -18027,8 +18721,11 @@
       <c r="M410">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O410" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -18065,8 +18762,11 @@
       <c r="M411">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O411" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -18103,8 +18803,11 @@
       <c r="M412">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O412" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -18141,8 +18844,11 @@
       <c r="M413">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O413" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -18179,8 +18885,11 @@
       <c r="M414">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O414" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -18217,8 +18926,11 @@
       <c r="M415">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O415" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -18255,8 +18967,11 @@
       <c r="M416">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O416" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -18293,8 +19008,11 @@
       <c r="M417">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O417" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -18331,8 +19049,11 @@
       <c r="M418">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O418" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -18369,8 +19090,11 @@
       <c r="M419">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O419" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -18407,8 +19131,11 @@
       <c r="M420">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O420" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -18445,8 +19172,11 @@
       <c r="M421">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O421" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -18462,6 +19192,9 @@
       <c r="E422" t="s">
         <v>378</v>
       </c>
+      <c r="F422" t="s">
+        <v>670</v>
+      </c>
       <c r="G422">
         <v>1.1000000000000001</v>
       </c>
@@ -18480,11 +19213,14 @@
       <c r="L422" t="s">
         <v>649</v>
       </c>
-      <c r="M422" s="2">
+      <c r="M422" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O422" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -18521,8 +19257,11 @@
       <c r="M423">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O423" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -18559,8 +19298,11 @@
       <c r="M424">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O424" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -18597,8 +19339,11 @@
       <c r="M425">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O425" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -18635,8 +19380,11 @@
       <c r="M426">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O426" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -18673,8 +19421,11 @@
       <c r="M427">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O427" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -18711,8 +19462,11 @@
       <c r="M428">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O428" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -18752,8 +19506,11 @@
       <c r="M429">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O429" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -18790,8 +19547,11 @@
       <c r="M430">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O430" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -18828,8 +19588,11 @@
       <c r="M431">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O431" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -18866,8 +19629,11 @@
       <c r="M432">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O432" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -18904,8 +19670,11 @@
       <c r="M433">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O433" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -18942,8 +19711,11 @@
       <c r="M434">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O434" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -18980,8 +19752,11 @@
       <c r="M435">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O435" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -19018,8 +19793,11 @@
       <c r="M436">
         <v>3</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O436" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -19056,8 +19834,11 @@
       <c r="M437">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O437" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -19085,8 +19866,9 @@
       <c r="N438">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -19114,8 +19896,9 @@
       <c r="N439">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -19143,8 +19926,9 @@
       <c r="N440">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O440" s="3"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -19172,8 +19956,9 @@
       <c r="N441">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O441" s="3"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -19201,8 +19986,9 @@
       <c r="N442">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O442" s="3"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -19230,8 +20016,9 @@
       <c r="N443">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O443" s="3"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -19259,8 +20046,9 @@
       <c r="N444">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O444" s="3"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -19288,8 +20076,9 @@
       <c r="N445">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -19317,8 +20106,9 @@
       <c r="N446">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O446" s="3"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -19346,8 +20136,9 @@
       <c r="N447">
         <v>8</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -19375,8 +20166,9 @@
       <c r="N448">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -19404,8 +20196,9 @@
       <c r="N449">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -19433,8 +20226,9 @@
       <c r="N450">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -19462,8 +20256,9 @@
       <c r="N451">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -19491,8 +20286,9 @@
       <c r="N452">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -19520,8 +20316,9 @@
       <c r="N453">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -19549,8 +20346,9 @@
       <c r="N454">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -19578,8 +20376,9 @@
       <c r="N455">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -19607,8 +20406,9 @@
       <c r="N456">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -19636,8 +20436,9 @@
       <c r="N457">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O457" s="3"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -19665,8 +20466,9 @@
       <c r="N458">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -19694,8 +20496,9 @@
       <c r="N459">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -19723,8 +20526,9 @@
       <c r="N460">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O460" s="3"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -19752,8 +20556,9 @@
       <c r="N461">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O461" s="3"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -19781,8 +20586,9 @@
       <c r="N462">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O462" s="3"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -19813,8 +20619,9 @@
       <c r="N463">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O463" s="3"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -19839,11 +20646,12 @@
       <c r="M464">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N464" s="3">
+      <c r="N464">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O464" s="3"/>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -19874,8 +20682,9 @@
       <c r="N465">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O465" s="3"/>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -19903,8 +20712,9 @@
       <c r="N466">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O466" s="3"/>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -19932,8 +20742,9 @@
       <c r="N467">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O467" s="3"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -19961,8 +20772,9 @@
       <c r="N468">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O468" s="3"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -19993,8 +20805,9 @@
       <c r="N469">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O469" s="3"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -20022,8 +20835,9 @@
       <c r="N470">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O470" s="3"/>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -20051,8 +20865,9 @@
       <c r="N471">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O471" s="3"/>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -20080,8 +20895,9 @@
       <c r="N472">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O472" s="3"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -20109,8 +20925,9 @@
       <c r="N473">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O473" s="3"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -20138,8 +20955,9 @@
       <c r="N474">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O474" s="3"/>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -20167,8 +20985,9 @@
       <c r="N475">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O475" s="3"/>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -20199,8 +21018,9 @@
       <c r="N476">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O476" s="3"/>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -20228,8 +21048,9 @@
       <c r="N477">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O477" s="3"/>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -20257,8 +21078,9 @@
       <c r="N478">
         <v>2</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O478" s="3"/>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -20286,8 +21108,9 @@
       <c r="N479">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O479" s="3"/>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -20315,8 +21138,9 @@
       <c r="N480">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O480" s="3"/>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -20341,14 +21165,15 @@
       <c r="L481" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="M481" s="3" t="s">
+      <c r="M481" t="s">
         <v>649</v>
       </c>
-      <c r="N481" s="3" t="s">
+      <c r="N481" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O481" s="3"/>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -20376,8 +21201,9 @@
       <c r="N482">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O482" s="3"/>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -20405,8 +21231,9 @@
       <c r="N483">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O483" s="3"/>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -20434,8 +21261,9 @@
       <c r="N484">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -20463,8 +21291,9 @@
       <c r="N485">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -20492,8 +21321,9 @@
       <c r="N486">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -20521,8 +21351,9 @@
       <c r="N487">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O487" s="3"/>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -20550,8 +21381,9 @@
       <c r="N488">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O488" s="3"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -20579,8 +21411,9 @@
       <c r="N489">
         <v>7</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O489" s="3"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -20608,8 +21441,9 @@
       <c r="N490">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O490" s="3"/>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -20637,8 +21471,9 @@
       <c r="N491">
         <v>12</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O491" s="3"/>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -20666,8 +21501,9 @@
       <c r="N492">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O492" s="3"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -20695,8 +21531,9 @@
       <c r="N493">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O493" s="3"/>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -20724,8 +21561,9 @@
       <c r="N494">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O494" s="3"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -20753,8 +21591,9 @@
       <c r="N495">
         <v>2</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O495" s="3"/>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -20782,8 +21621,9 @@
       <c r="N496">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O496" s="3"/>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -20811,8 +21651,9 @@
       <c r="N497">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O497" s="3"/>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -20840,8 +21681,9 @@
       <c r="N498">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O498" s="3"/>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -20869,8 +21711,9 @@
       <c r="N499">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O499" s="3"/>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -20898,8 +21741,9 @@
       <c r="N500">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O500" s="3"/>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -20927,8 +21771,9 @@
       <c r="N501">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O501" s="3"/>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -20956,8 +21801,9 @@
       <c r="N502">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O502" s="3"/>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -20985,8 +21831,9 @@
       <c r="N503" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O503" s="3"/>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -21017,8 +21864,9 @@
       <c r="N504" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O504" s="3"/>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -21046,8 +21894,9 @@
       <c r="N505">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O505" s="3"/>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -21075,8 +21924,9 @@
       <c r="N506">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O506" s="3"/>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -21104,8 +21954,9 @@
       <c r="N507">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O507" s="3"/>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -21133,8 +21984,9 @@
       <c r="N508">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O508" s="3"/>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -21162,8 +22014,9 @@
       <c r="N509">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O509" s="3"/>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -21191,8 +22044,9 @@
       <c r="N510">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O510" s="3"/>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -21220,8 +22074,9 @@
       <c r="N511">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O511" s="3"/>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -21249,8 +22104,9 @@
       <c r="N512">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O512" s="3"/>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -21278,8 +22134,9 @@
       <c r="N513">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O513" s="3"/>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -21307,8 +22164,9 @@
       <c r="N514">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O514" s="3"/>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -21336,8 +22194,9 @@
       <c r="N515">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O515" s="3"/>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -21365,8 +22224,9 @@
       <c r="N516">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O516" s="3"/>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -21394,8 +22254,9 @@
       <c r="N517">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O517" s="3"/>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -21423,8 +22284,9 @@
       <c r="N518">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O518" s="3"/>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -21452,8 +22314,9 @@
       <c r="N519">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O519" s="3"/>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -21481,8 +22344,9 @@
       <c r="N520">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O520" s="3"/>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -21510,8 +22374,9 @@
       <c r="N521">
         <v>6</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O521" s="3"/>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -21539,8 +22404,9 @@
       <c r="N522">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O522" s="3"/>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -21571,8 +22437,9 @@
       <c r="N523">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O523" s="3"/>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -21600,8 +22467,9 @@
       <c r="N524">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O524" s="3"/>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -21629,8 +22497,9 @@
       <c r="N525">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O525" s="3"/>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -21658,8 +22527,9 @@
       <c r="N526">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O526" s="3"/>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -21690,8 +22560,9 @@
       <c r="N527">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O527" s="3"/>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -21710,8 +22581,9 @@
       <c r="N528" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O528" s="3"/>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -21730,8 +22602,11 @@
       <c r="N529">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O529" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -21750,8 +22625,9 @@
       <c r="N530" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O530" s="3"/>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -21770,8 +22646,11 @@
       <c r="N531">
         <v>1</v>
       </c>
-    </row>
-    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O531" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -21790,8 +22669,11 @@
       <c r="N532">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O532" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -21810,8 +22692,11 @@
       <c r="N533">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O533" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -21830,8 +22715,11 @@
       <c r="N534">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O534" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -21850,8 +22738,11 @@
       <c r="N535">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O535" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -21870,8 +22761,11 @@
       <c r="N536">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O536" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -21890,8 +22784,11 @@
       <c r="N537">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O537" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -21907,11 +22804,12 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-      <c r="N538">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N538" t="s">
+        <v>649</v>
+      </c>
+      <c r="O538" s="3"/>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -21930,8 +22828,11 @@
       <c r="N539">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O539" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -21950,8 +22851,9 @@
       <c r="N540" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O540" s="3"/>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -21967,11 +22869,14 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-      <c r="N541" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N541">
+        <v>2.9</v>
+      </c>
+      <c r="O541" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -21990,8 +22895,11 @@
       <c r="N542">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O542" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -22010,8 +22918,9 @@
       <c r="N543" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O543" s="3"/>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -22030,8 +22939,11 @@
       <c r="N544">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O544" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -22050,8 +22962,11 @@
       <c r="N545">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O545" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -22070,8 +22985,11 @@
       <c r="N546">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O546" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -22090,8 +23008,11 @@
       <c r="N547">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O547" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -22110,8 +23031,11 @@
       <c r="N548">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O548" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -22130,8 +23054,11 @@
       <c r="N549">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O549" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -22150,8 +23077,11 @@
       <c r="N550">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O550" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -22170,8 +23100,11 @@
       <c r="N551">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O551" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -22190,8 +23123,9 @@
       <c r="N552" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O552" s="3"/>
+    </row>
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -22210,8 +23144,11 @@
       <c r="N553">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O553" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -22230,8 +23167,11 @@
       <c r="N554">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O554" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -22250,8 +23190,11 @@
       <c r="N555">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O555" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -22270,8 +23213,11 @@
       <c r="N556">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O556" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -22290,8 +23236,9 @@
       <c r="N557" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O557" s="3"/>
+    </row>
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -22310,8 +23257,11 @@
       <c r="N558">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O558" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -22330,8 +23280,11 @@
       <c r="N559">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O559" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -22350,8 +23303,9 @@
       <c r="N560" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O560" s="3"/>
+    </row>
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -22370,8 +23324,9 @@
       <c r="N561" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O561" s="3"/>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -22390,8 +23345,9 @@
       <c r="N562" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O562" s="3"/>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -22410,8 +23366,11 @@
       <c r="N563">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O563" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -22430,8 +23389,9 @@
       <c r="N564" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O564" s="3"/>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -22450,8 +23410,11 @@
       <c r="N565">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O565" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -22470,8 +23433,11 @@
       <c r="N566">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O566" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -22490,8 +23456,11 @@
       <c r="N567">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O567" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -22510,8 +23479,11 @@
       <c r="N568">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O568" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -22530,8 +23502,9 @@
       <c r="N569" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O569" s="3"/>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -22550,8 +23523,11 @@
       <c r="N570">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O570" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -22570,8 +23546,11 @@
       <c r="N571">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O571" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -22590,8 +23569,11 @@
       <c r="N572">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O572" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -22610,8 +23592,11 @@
       <c r="N573">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O573" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -22630,8 +23615,9 @@
       <c r="N574" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O574" s="3"/>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -22650,8 +23636,9 @@
       <c r="N575" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O575" s="3"/>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -22670,8 +23657,9 @@
       <c r="N576" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O576" s="3"/>
+    </row>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -22690,8 +23678,11 @@
       <c r="N577">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O577" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -22710,8 +23701,11 @@
       <c r="N578">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O578" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -22730,8 +23724,11 @@
       <c r="N579">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O579" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -22750,8 +23747,11 @@
       <c r="N580">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O580" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -22770,8 +23770,11 @@
       <c r="N581">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O581" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -22790,8 +23793,11 @@
       <c r="N582">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O582" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -22810,8 +23816,11 @@
       <c r="N583">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O583" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -22830,8 +23839,11 @@
       <c r="N584">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O584" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -22850,8 +23862,11 @@
       <c r="N585">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O585" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -22870,8 +23885,11 @@
       <c r="N586">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O586" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -22890,8 +23908,9 @@
       <c r="N587" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O587" s="3"/>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -22910,8 +23929,11 @@
       <c r="N588">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O588" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -22930,8 +23952,9 @@
       <c r="N589" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O589" s="3"/>
+    </row>
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -22950,8 +23973,9 @@
       <c r="N590" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O590" s="3"/>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -22970,8 +23994,9 @@
       <c r="N591" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O591" s="3"/>
+    </row>
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -22990,8 +24015,11 @@
       <c r="N592">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O592" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -23010,8 +24038,11 @@
       <c r="N593">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O593" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -23030,8 +24061,11 @@
       <c r="N594">
         <v>1</v>
       </c>
-    </row>
-    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O594" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -23050,8 +24084,9 @@
       <c r="N595" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O595" s="3"/>
+    </row>
+    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -23070,8 +24105,11 @@
       <c r="N596">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O596" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -23090,8 +24128,9 @@
       <c r="N597" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O597" s="3"/>
+    </row>
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -23110,8 +24149,9 @@
       <c r="N598" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O598" s="3"/>
+    </row>
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -23130,8 +24170,11 @@
       <c r="N599">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O599" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -23150,8 +24193,11 @@
       <c r="N600">
         <v>1</v>
       </c>
-    </row>
-    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O600" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -23170,8 +24216,11 @@
       <c r="N601">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O601" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -23190,8 +24239,11 @@
       <c r="N602">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O602" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -23210,8 +24262,11 @@
       <c r="N603">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O603" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -23230,8 +24285,11 @@
       <c r="N604">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O604" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -23250,8 +24308,11 @@
       <c r="N605">
         <v>1</v>
       </c>
-    </row>
-    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O605" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -23270,8 +24331,9 @@
       <c r="N606" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O606" s="3"/>
+    </row>
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -23290,8 +24352,11 @@
       <c r="N607">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O607" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -23310,8 +24375,11 @@
       <c r="N608">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O608" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -23330,8 +24398,11 @@
       <c r="N609">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O609" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -23350,8 +24421,11 @@
       <c r="N610">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O610" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -23370,8 +24444,11 @@
       <c r="N611">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O611" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -23390,8 +24467,11 @@
       <c r="N612">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O612" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -23410,8 +24490,11 @@
       <c r="N613">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O613" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -23430,8 +24513,11 @@
       <c r="N614">
         <v>1</v>
       </c>
-    </row>
-    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O614" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -23450,8 +24536,11 @@
       <c r="N615">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O615" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -23470,8 +24559,11 @@
       <c r="N616">
         <v>1</v>
       </c>
-    </row>
-    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O616" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -23489,6 +24581,9 @@
       </c>
       <c r="N617">
         <v>0.7</v>
+      </c>
+      <c r="O617" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitoringShootElongation/2025ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2025ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47253608-032F-C74B-83C6-8D500B9C1722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC4166-904C-FC4C-9B54-1E682B772808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="21600" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="703">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2133,6 +2133,18 @@
   </si>
   <si>
     <t>Segi_WarmS/WarmF_B3_R15_nitro</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>doy227: ruler was displaced</t>
+  </si>
+  <si>
+    <t>doy227: previous measurement is wrong</t>
+  </si>
+  <si>
+    <t>228</t>
   </si>
 </sst>
 </file>
@@ -2140,15 +2152,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0_ "/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2184,12 +2207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2305,11 +2329,11 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>537</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -2328,7 +2352,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -2391,9 +2415,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y617" totalsRowShown="0">
-  <autoFilter ref="A1:Y617" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AA617" totalsRowShown="0">
+  <autoFilter ref="A1:AA617" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="sequoiadendron"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tree_ID" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bloc" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="treatment" dataDxfId="14"/>
@@ -2419,6 +2454,8 @@
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="206"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="213"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="220"/>
+    <tableColumn id="26" xr3:uid="{ADD12A06-C892-3648-814E-0EDAC6BB2293}" name="227"/>
+    <tableColumn id="27" xr3:uid="{6C7C58E2-0051-4141-AAA6-2A057DAC95CF}" name="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2702,11 +2739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y617"/>
+  <dimension ref="A1:AA617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E489" sqref="E489"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScale="208" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA616" sqref="AA616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2718,7 +2755,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2794,8 +2831,14 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2854,7 +2897,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2913,7 +2956,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2972,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3074,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3090,7 +3133,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3149,7 +3192,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3208,7 +3251,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3267,7 +3310,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3326,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3444,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3503,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3562,7 +3605,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3621,7 +3664,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3680,7 +3723,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3739,7 +3782,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3798,7 +3841,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3857,7 +3900,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3916,7 +3959,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3978,7 +4021,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -4037,7 +4080,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4096,7 +4139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -4155,7 +4198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4214,7 +4257,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4273,7 +4316,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4378,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -4394,7 +4437,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4453,7 +4496,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -4512,7 +4555,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -4571,7 +4614,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4630,7 +4673,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4689,7 +4732,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -4748,7 +4791,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -4807,7 +4850,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -4866,7 +4909,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -4925,7 +4968,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -4984,7 +5027,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -5043,7 +5086,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -5161,7 +5204,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -5220,7 +5263,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -5279,7 +5322,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -5338,7 +5381,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -5397,7 +5440,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -5456,7 +5499,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -5515,7 +5558,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -5574,7 +5617,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5633,7 +5676,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -5692,7 +5735,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -5751,7 +5794,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -5810,7 +5853,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -5869,7 +5912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -5928,7 +5971,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -5987,7 +6030,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -6046,7 +6089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -6105,7 +6148,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -6164,7 +6207,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -6223,7 +6266,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -6282,7 +6325,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -6344,7 +6387,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -6403,7 +6446,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -6462,7 +6505,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -6521,7 +6564,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -6580,7 +6623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -6639,7 +6682,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -6698,7 +6741,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -6757,7 +6800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -6816,7 +6859,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -6875,7 +6918,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -6934,7 +6977,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -6993,7 +7036,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -7052,7 +7095,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -7111,7 +7154,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -7170,7 +7213,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -7229,7 +7272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -7288,7 +7331,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -7350,7 +7393,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -7409,7 +7452,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -7468,7 +7511,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -7527,7 +7570,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -7586,7 +7629,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -7645,7 +7688,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -7707,7 +7750,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -7766,7 +7809,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -7825,7 +7868,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -7884,7 +7927,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -7943,7 +7986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -8002,7 +8045,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -8061,7 +8104,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -8120,7 +8163,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -8184,8 +8227,14 @@
       <c r="X92">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y92">
+        <v>13.3</v>
+      </c>
+      <c r="Z92">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -8249,8 +8298,14 @@
       <c r="X93">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y93">
+        <v>15.6</v>
+      </c>
+      <c r="Z93">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -8314,8 +8369,11 @@
       <c r="X94" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z94">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -8379,8 +8437,14 @@
       <c r="X95">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y95">
+        <v>16</v>
+      </c>
+      <c r="Z95">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -8444,8 +8508,14 @@
       <c r="X96">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y96">
+        <v>6.5</v>
+      </c>
+      <c r="Z96">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -8509,8 +8579,14 @@
       <c r="X97">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y97">
+        <v>16.8</v>
+      </c>
+      <c r="Z97">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -8574,8 +8650,14 @@
       <c r="X98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y98">
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -8639,8 +8721,14 @@
       <c r="X99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -8704,8 +8792,14 @@
       <c r="X100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -8769,8 +8863,14 @@
       <c r="X101">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y101">
+        <v>35.9</v>
+      </c>
+      <c r="Z101">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -8826,16 +8926,22 @@
         <v>0.7</v>
       </c>
       <c r="V102">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="W102">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="Y102">
+        <v>0.7</v>
+      </c>
+      <c r="Z102">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -8899,8 +9005,14 @@
       <c r="X103">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y103">
+        <v>11.8</v>
+      </c>
+      <c r="Z103">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -8956,16 +9068,22 @@
         <v>21.7</v>
       </c>
       <c r="V104">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="W104">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="X104">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+        <v>22.2</v>
+      </c>
+      <c r="Y104">
+        <v>22.2</v>
+      </c>
+      <c r="Z104">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -9029,8 +9147,14 @@
       <c r="X105">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y105">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Z105">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -9046,6 +9170,9 @@
       <c r="E106" t="s">
         <v>131</v>
       </c>
+      <c r="F106" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="H106">
         <v>0.9</v>
       </c>
@@ -9094,8 +9221,14 @@
       <c r="X106">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y106">
+        <v>9</v>
+      </c>
+      <c r="Z106" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -9151,16 +9284,22 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="V107">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="W107">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="X107">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y107">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z107">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -9219,13 +9358,19 @@
         <v>35</v>
       </c>
       <c r="W108">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
       <c r="X108">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="Y108">
+        <v>35</v>
+      </c>
+      <c r="Z108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -9289,8 +9434,14 @@
       <c r="X109">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y109">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z109">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -9354,8 +9505,14 @@
       <c r="X110">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y110">
+        <v>14.4</v>
+      </c>
+      <c r="Z110">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -9411,16 +9568,22 @@
         <v>12.6</v>
       </c>
       <c r="V111">
+        <v>12.6</v>
+      </c>
+      <c r="W111">
+        <v>12.6</v>
+      </c>
+      <c r="X111">
+        <v>12.6</v>
+      </c>
+      <c r="Y111">
         <v>12.7</v>
       </c>
-      <c r="W111">
+      <c r="Z111">
         <v>12.7</v>
       </c>
-      <c r="X111">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -9484,8 +9647,14 @@
       <c r="X112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -9541,16 +9710,22 @@
         <v>19.3</v>
       </c>
       <c r="V113">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="W113">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="X113">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+        <v>19.3</v>
+      </c>
+      <c r="Y113">
+        <v>19.3</v>
+      </c>
+      <c r="Z113">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -9614,8 +9789,14 @@
       <c r="X114">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y114">
+        <v>5.3</v>
+      </c>
+      <c r="Z114">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -9679,8 +9860,14 @@
       <c r="X115">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y115">
+        <v>4.8</v>
+      </c>
+      <c r="Z115">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -9744,8 +9931,14 @@
       <c r="X116">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y116">
+        <v>0.9</v>
+      </c>
+      <c r="Z116">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -9809,8 +10002,14 @@
       <c r="X117">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y117">
+        <v>5.5</v>
+      </c>
+      <c r="Z117">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -9874,8 +10073,14 @@
       <c r="X118">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y118">
+        <v>14.4</v>
+      </c>
+      <c r="Z118">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -9931,16 +10136,22 @@
         <v>0.8</v>
       </c>
       <c r="V119">
+        <v>0.9</v>
+      </c>
+      <c r="W119">
+        <v>0.9</v>
+      </c>
+      <c r="X119">
+        <v>0.9</v>
+      </c>
+      <c r="Y119">
+        <v>0.9</v>
+      </c>
+      <c r="Z119">
         <v>1</v>
       </c>
-      <c r="W119">
-        <v>1</v>
-      </c>
-      <c r="X119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -9996,16 +10207,22 @@
         <v>6.5</v>
       </c>
       <c r="V120">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="W120">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X120">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>6.5</v>
+      </c>
+      <c r="Z120">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -10069,8 +10286,14 @@
       <c r="X121">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y121">
+        <v>5.9</v>
+      </c>
+      <c r="Z121">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -10126,16 +10349,22 @@
         <v>5.5</v>
       </c>
       <c r="V122">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="W122">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X122">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>5.5</v>
+      </c>
+      <c r="Z122">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -10191,16 +10420,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="V123">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W123">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X123">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -10256,16 +10491,22 @@
         <v>0.9</v>
       </c>
       <c r="V124">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="W124">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="X124">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="Y124">
+        <v>0.9</v>
+      </c>
+      <c r="Z124">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -10329,8 +10570,14 @@
       <c r="X125">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y125">
+        <v>22.2</v>
+      </c>
+      <c r="Z125">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -10386,16 +10633,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V126">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W126">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="X126">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.3</v>
+      </c>
+      <c r="Y126">
+        <v>4.3</v>
+      </c>
+      <c r="Z126">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -10459,8 +10712,14 @@
       <c r="X127">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y127">
+        <v>7.4</v>
+      </c>
+      <c r="Z127">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -10524,8 +10783,14 @@
       <c r="X128">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y128">
+        <v>13.1</v>
+      </c>
+      <c r="Z128">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -10589,8 +10854,14 @@
       <c r="X129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -10654,8 +10925,14 @@
       <c r="X130">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y130">
+        <v>5.2</v>
+      </c>
+      <c r="Z130">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -10719,8 +10996,14 @@
       <c r="X131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y131">
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -10776,16 +11059,22 @@
         <v>6.5</v>
       </c>
       <c r="V132">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W132">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X132">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+        <v>6.8</v>
+      </c>
+      <c r="Y132">
+        <v>6.8</v>
+      </c>
+      <c r="Z132">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -10841,16 +11130,22 @@
         <v>2.5</v>
       </c>
       <c r="V133">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W133">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X133">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="Y133">
+        <v>2.5</v>
+      </c>
+      <c r="Z133">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -10906,16 +11201,22 @@
         <v>5.9</v>
       </c>
       <c r="V134">
+        <v>5.9</v>
+      </c>
+      <c r="W134">
+        <v>5.9</v>
+      </c>
+      <c r="X134">
+        <v>5.9</v>
+      </c>
+      <c r="Y134">
         <v>6</v>
       </c>
-      <c r="W134">
-        <v>6</v>
-      </c>
-      <c r="X134">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z134">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -10979,8 +11280,14 @@
       <c r="X135">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y135">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z135">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>175</v>
       </c>
@@ -11044,8 +11351,14 @@
       <c r="X136">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y136">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Z136">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -11098,19 +11411,25 @@
         <v>36.5</v>
       </c>
       <c r="U137">
-        <v>39.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="V137">
-        <v>40.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="W137">
-        <v>41</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="X137">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Y137">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Z137">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -11166,16 +11485,22 @@
         <v>22.5</v>
       </c>
       <c r="V138">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="W138">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="X138">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+        <v>22.5</v>
+      </c>
+      <c r="Y138">
+        <v>22.5</v>
+      </c>
+      <c r="Z138">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -11239,8 +11564,14 @@
       <c r="X139">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y139">
+        <v>23.3</v>
+      </c>
+      <c r="Z139">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -11299,7 +11630,7 @@
         <v>0.9</v>
       </c>
       <c r="V140">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="W140">
         <v>0.9</v>
@@ -11307,8 +11638,14 @@
       <c r="X140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y140">
+        <v>1</v>
+      </c>
+      <c r="Z140">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -11372,8 +11709,14 @@
       <c r="X141">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y141">
+        <v>9.1</v>
+      </c>
+      <c r="Z141">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>182</v>
       </c>
@@ -11435,10 +11778,16 @@
         <v>10.199999999999999</v>
       </c>
       <c r="X142">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Y142">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z142">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>183</v>
       </c>
@@ -11502,8 +11851,14 @@
       <c r="X143">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z143">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -11567,8 +11922,14 @@
       <c r="X144">
         <v>27</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y144">
+        <v>27</v>
+      </c>
+      <c r="Z144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>185</v>
       </c>
@@ -11632,8 +11993,14 @@
       <c r="X145">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y145">
+        <v>1.2</v>
+      </c>
+      <c r="Z145">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>186</v>
       </c>
@@ -11697,8 +12064,14 @@
       <c r="X146">
         <v>64</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y146">
+        <v>64</v>
+      </c>
+      <c r="Z146">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -11762,8 +12135,14 @@
       <c r="X147">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y147">
+        <v>12.6</v>
+      </c>
+      <c r="Z147">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>188</v>
       </c>
@@ -11827,8 +12206,14 @@
       <c r="X148">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y148">
+        <v>7.2</v>
+      </c>
+      <c r="Z148">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>189</v>
       </c>
@@ -11884,16 +12269,22 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="V149">
-        <v>9.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="W149">
-        <v>9.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="X149">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y149">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z149">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>190</v>
       </c>
@@ -11957,8 +12348,14 @@
       <c r="X150">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y150">
+        <v>20.2</v>
+      </c>
+      <c r="Z150">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>191</v>
       </c>
@@ -12014,16 +12411,22 @@
         <v>0.7</v>
       </c>
       <c r="V151">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="Y151">
+        <v>0.8</v>
+      </c>
+      <c r="Z151">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>192</v>
       </c>
@@ -12079,16 +12482,22 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V152">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W152">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="X152">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y152">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Z152">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>193</v>
       </c>
@@ -12135,25 +12544,31 @@
         <v>9</v>
       </c>
       <c r="S153">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="T153">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="U153">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="V153">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="W153">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X153">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="Y153">
+        <v>10</v>
+      </c>
+      <c r="Z153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>194</v>
       </c>
@@ -12209,16 +12624,22 @@
         <v>23.5</v>
       </c>
       <c r="V154">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="W154">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="X154">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23.6</v>
+      </c>
+      <c r="Y154">
+        <v>23.6</v>
+      </c>
+      <c r="Z154">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>195</v>
       </c>
@@ -12274,16 +12695,22 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="V155">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="W155">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="X155">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+        <v>8.4</v>
+      </c>
+      <c r="Y155">
+        <v>8.4</v>
+      </c>
+      <c r="Z155">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>196</v>
       </c>
@@ -12342,7 +12769,7 @@
         <v>0.5</v>
       </c>
       <c r="V156">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="W156">
         <v>0.5</v>
@@ -12350,8 +12777,14 @@
       <c r="X156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y156">
+        <v>0.6</v>
+      </c>
+      <c r="Z156">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>198</v>
       </c>
@@ -12410,13 +12843,19 @@
         <v>12.7</v>
       </c>
       <c r="W157">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="X157">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+        <v>12.8</v>
+      </c>
+      <c r="Y157">
+        <v>12.8</v>
+      </c>
+      <c r="Z157">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>199</v>
       </c>
@@ -12480,8 +12919,14 @@
       <c r="X158">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y158">
+        <v>12.7</v>
+      </c>
+      <c r="Z158">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -12545,8 +12990,14 @@
       <c r="X159">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y159">
+        <v>31</v>
+      </c>
+      <c r="Z159">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -12608,10 +13059,16 @@
         <v>53.5</v>
       </c>
       <c r="X160">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+        <v>56.1</v>
+      </c>
+      <c r="Y160">
+        <v>56.1</v>
+      </c>
+      <c r="Z160">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -12675,8 +13132,14 @@
       <c r="X161">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y161">
+        <v>1.2</v>
+      </c>
+      <c r="Z161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -12740,8 +13203,14 @@
       <c r="X162">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y162">
+        <v>14.6</v>
+      </c>
+      <c r="Z162">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -12797,16 +13266,22 @@
         <v>0.8</v>
       </c>
       <c r="V163">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X163">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>205</v>
       </c>
@@ -12870,8 +13345,14 @@
       <c r="X164">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y164">
+        <v>10.5</v>
+      </c>
+      <c r="Z164">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -12935,8 +13416,14 @@
       <c r="X165">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y165">
+        <v>27.2</v>
+      </c>
+      <c r="Z165">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>207</v>
       </c>
@@ -12995,13 +13482,19 @@
         <v>5.5</v>
       </c>
       <c r="W166">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X166">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+        <v>5.6</v>
+      </c>
+      <c r="Y166">
+        <v>5.6</v>
+      </c>
+      <c r="Z166">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>208</v>
       </c>
@@ -13065,8 +13558,14 @@
       <c r="X167">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y167">
+        <v>5.7</v>
+      </c>
+      <c r="Z167">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -13122,16 +13621,22 @@
         <v>0.7</v>
       </c>
       <c r="V168">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="W168">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X168">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="Y168">
+        <v>0.7</v>
+      </c>
+      <c r="Z168">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>210</v>
       </c>
@@ -13195,8 +13700,14 @@
       <c r="X169">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y169">
+        <v>15.4</v>
+      </c>
+      <c r="Z169">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>211</v>
       </c>
@@ -13252,16 +13763,22 @@
         <v>12.7</v>
       </c>
       <c r="V170">
+        <v>12.8</v>
+      </c>
+      <c r="W170">
+        <v>12.8</v>
+      </c>
+      <c r="X170">
+        <v>12.8</v>
+      </c>
+      <c r="Y170">
+        <v>12.8</v>
+      </c>
+      <c r="Z170">
         <v>13</v>
       </c>
-      <c r="W170">
-        <v>13</v>
-      </c>
-      <c r="X170">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>212</v>
       </c>
@@ -13325,8 +13842,14 @@
       <c r="X171">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y171">
+        <v>1.2</v>
+      </c>
+      <c r="Z171">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -13390,8 +13913,14 @@
       <c r="X172">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y172">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z172">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>214</v>
       </c>
@@ -13455,8 +13984,14 @@
       <c r="X173">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y173">
+        <v>25.1</v>
+      </c>
+      <c r="Z173">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>215</v>
       </c>
@@ -13520,8 +14055,14 @@
       <c r="X174">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y174">
+        <v>1.4</v>
+      </c>
+      <c r="Z174">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>216</v>
       </c>
@@ -13583,10 +14124,16 @@
         <v>5.9</v>
       </c>
       <c r="X175">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>6</v>
+      </c>
+      <c r="Z175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>217</v>
       </c>
@@ -13648,10 +14195,16 @@
         <v>9.9</v>
       </c>
       <c r="X176">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>10</v>
+      </c>
+      <c r="Z176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>218</v>
       </c>
@@ -13715,8 +14268,14 @@
       <c r="X177">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y177">
+        <v>36</v>
+      </c>
+      <c r="Z177">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>219</v>
       </c>
@@ -13772,19 +14331,25 @@
         <v>12.2</v>
       </c>
       <c r="U178">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="V178">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="W178">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="X178">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+        <v>12.3</v>
+      </c>
+      <c r="Y178">
+        <v>12.3</v>
+      </c>
+      <c r="Z178">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>221</v>
       </c>
@@ -13840,16 +14405,22 @@
         <v>8.5</v>
       </c>
       <c r="V179">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="W179">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="X179">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Y179">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Z179">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>222</v>
       </c>
@@ -13913,8 +14484,14 @@
       <c r="X180">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y180">
+        <v>10.4</v>
+      </c>
+      <c r="Z180">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>223</v>
       </c>
@@ -13978,8 +14555,14 @@
       <c r="X181">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y181">
+        <v>29.4</v>
+      </c>
+      <c r="Z181">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>224</v>
       </c>
@@ -14041,7 +14624,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -14103,7 +14686,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>228</v>
       </c>
@@ -14165,7 +14748,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>229</v>
       </c>
@@ -14227,7 +14810,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>230</v>
       </c>
@@ -14289,7 +14872,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -14351,7 +14934,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>232</v>
       </c>
@@ -14413,7 +14996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>233</v>
       </c>
@@ -14475,7 +15058,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>234</v>
       </c>
@@ -14537,7 +15120,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>235</v>
       </c>
@@ -14602,7 +15185,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -14664,7 +15247,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -14726,7 +15309,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -14788,7 +15371,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -14850,7 +15433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -14912,7 +15495,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -14974,7 +15557,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>243</v>
       </c>
@@ -15036,7 +15619,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -15098,7 +15681,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -15160,7 +15743,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>246</v>
       </c>
@@ -15222,7 +15805,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -15284,7 +15867,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -15346,7 +15929,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -15408,7 +15991,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -15470,7 +16053,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -15532,7 +16115,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -15594,7 +16177,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -15656,7 +16239,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>254</v>
       </c>
@@ -15718,7 +16301,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>255</v>
       </c>
@@ -15780,7 +16363,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>256</v>
       </c>
@@ -15842,7 +16425,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -15904,7 +16487,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>258</v>
       </c>
@@ -15966,7 +16549,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>259</v>
       </c>
@@ -16028,7 +16611,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>260</v>
       </c>
@@ -16093,7 +16676,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>262</v>
       </c>
@@ -16155,7 +16738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>263</v>
       </c>
@@ -16217,7 +16800,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>264</v>
       </c>
@@ -16279,7 +16862,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>265</v>
       </c>
@@ -16341,7 +16924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -16403,7 +16986,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>267</v>
       </c>
@@ -16465,7 +17048,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>268</v>
       </c>
@@ -16530,7 +17113,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>270</v>
       </c>
@@ -16592,7 +17175,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>271</v>
       </c>
@@ -16654,7 +17237,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>272</v>
       </c>
@@ -16716,7 +17299,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>273</v>
       </c>
@@ -16781,7 +17364,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>274</v>
       </c>
@@ -16843,7 +17426,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>275</v>
       </c>
@@ -16905,7 +17488,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>276</v>
       </c>
@@ -16967,7 +17550,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>277</v>
       </c>
@@ -17029,7 +17612,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>278</v>
       </c>
@@ -17091,7 +17674,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>279</v>
       </c>
@@ -17153,7 +17736,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>280</v>
       </c>
@@ -17215,7 +17798,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>281</v>
       </c>
@@ -17277,7 +17860,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>282</v>
       </c>
@@ -17339,7 +17922,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>283</v>
       </c>
@@ -17401,7 +17984,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>284</v>
       </c>
@@ -17463,7 +18046,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>285</v>
       </c>
@@ -17528,7 +18111,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -17590,7 +18173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>288</v>
       </c>
@@ -17652,7 +18235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>289</v>
       </c>
@@ -17714,7 +18297,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>290</v>
       </c>
@@ -17776,7 +18359,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>291</v>
       </c>
@@ -17844,7 +18427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -17906,7 +18489,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>294</v>
       </c>
@@ -17968,7 +18551,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>295</v>
       </c>
@@ -18030,7 +18613,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>296</v>
       </c>
@@ -18092,7 +18675,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>297</v>
       </c>
@@ -18154,7 +18737,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>298</v>
       </c>
@@ -18216,7 +18799,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>299</v>
       </c>
@@ -18278,7 +18861,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>300</v>
       </c>
@@ -18340,7 +18923,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>301</v>
       </c>
@@ -18402,7 +18985,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>302</v>
       </c>
@@ -18464,7 +19047,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>303</v>
       </c>
@@ -18526,7 +19109,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>304</v>
       </c>
@@ -18588,7 +19171,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>305</v>
       </c>
@@ -18650,7 +19233,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>306</v>
       </c>
@@ -18712,7 +19295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>307</v>
       </c>
@@ -18774,7 +19357,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -18836,7 +19419,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>309</v>
       </c>
@@ -18898,7 +19481,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>310</v>
       </c>
@@ -18960,7 +19543,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>311</v>
       </c>
@@ -19022,7 +19605,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>312</v>
       </c>
@@ -19084,7 +19667,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>313</v>
       </c>
@@ -19152,7 +19735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>315</v>
       </c>
@@ -19214,7 +19797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>316</v>
       </c>
@@ -19279,7 +19862,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>318</v>
       </c>
@@ -19341,7 +19924,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>319</v>
       </c>
@@ -19403,7 +19986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>320</v>
       </c>
@@ -19465,7 +20048,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>321</v>
       </c>
@@ -19527,7 +20110,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>322</v>
       </c>
@@ -19589,7 +20172,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>323</v>
       </c>
@@ -19651,10 +20234,16 @@
         <v>29.8</v>
       </c>
       <c r="X272">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+        <v>29.8</v>
+      </c>
+      <c r="Y272">
+        <v>29.8</v>
+      </c>
+      <c r="Z272">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>326</v>
       </c>
@@ -19713,13 +20302,19 @@
         <v>24.4</v>
       </c>
       <c r="W273">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="X273">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+        <v>24.5</v>
+      </c>
+      <c r="Y273">
+        <v>24.5</v>
+      </c>
+      <c r="Z273">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>327</v>
       </c>
@@ -19781,10 +20376,16 @@
         <v>32</v>
       </c>
       <c r="X274">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+        <v>32.1</v>
+      </c>
+      <c r="Y274">
+        <v>32.1</v>
+      </c>
+      <c r="Z274">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>328</v>
       </c>
@@ -19846,10 +20447,16 @@
         <v>49.9</v>
       </c>
       <c r="X275">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+        <v>50.4</v>
+      </c>
+      <c r="Y275">
+        <v>50.4</v>
+      </c>
+      <c r="Z275">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>329</v>
       </c>
@@ -19911,10 +20518,16 @@
         <v>34.200000000000003</v>
       </c>
       <c r="X276">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Y276">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Z276">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>330</v>
       </c>
@@ -19981,8 +20594,14 @@
       <c r="X277">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y277">
+        <v>53.5</v>
+      </c>
+      <c r="Z277">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>332</v>
       </c>
@@ -20049,8 +20668,14 @@
       <c r="X278">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y278">
+        <v>46.1</v>
+      </c>
+      <c r="Z278">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>333</v>
       </c>
@@ -20114,8 +20739,14 @@
       <c r="X279">
         <v>35</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y279">
+        <v>35.1</v>
+      </c>
+      <c r="Z279">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>334</v>
       </c>
@@ -20179,8 +20810,14 @@
       <c r="X280">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y280">
+        <v>44.3</v>
+      </c>
+      <c r="Z280">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>335</v>
       </c>
@@ -20239,16 +20876,22 @@
         <v>19</v>
       </c>
       <c r="V281">
-        <v>20.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="W281">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X281">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y281">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z281">
         <v>19.7</v>
       </c>
-      <c r="X281">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>337</v>
       </c>
@@ -20312,8 +20955,14 @@
       <c r="X282">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y282">
+        <v>44.5</v>
+      </c>
+      <c r="Z282">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -20377,8 +21026,14 @@
       <c r="X283">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y283">
+        <v>29.9</v>
+      </c>
+      <c r="Z283">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>339</v>
       </c>
@@ -20442,8 +21097,14 @@
       <c r="X284">
         <v>29</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y284">
+        <v>29</v>
+      </c>
+      <c r="Z284">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>340</v>
       </c>
@@ -20507,8 +21168,14 @@
       <c r="X285">
         <v>60</v>
       </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y285">
+        <v>60</v>
+      </c>
+      <c r="Z285">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>341</v>
       </c>
@@ -20572,8 +21239,14 @@
       <c r="X286">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y286">
+        <v>29.8</v>
+      </c>
+      <c r="Z286">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>342</v>
       </c>
@@ -20637,8 +21310,14 @@
       <c r="X287">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y287">
+        <v>45</v>
+      </c>
+      <c r="Z287">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>343</v>
       </c>
@@ -20702,8 +21381,14 @@
       <c r="X288">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y288">
+        <v>51.3</v>
+      </c>
+      <c r="Z288">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>344</v>
       </c>
@@ -20767,8 +21452,14 @@
       <c r="X289">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y289">
+        <v>29</v>
+      </c>
+      <c r="Z289">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>345</v>
       </c>
@@ -20832,8 +21523,14 @@
       <c r="X290">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y290">
+        <v>31.2</v>
+      </c>
+      <c r="Z290">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>346</v>
       </c>
@@ -20897,8 +21594,14 @@
       <c r="X291">
         <v>42</v>
       </c>
-    </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y291">
+        <v>42</v>
+      </c>
+      <c r="Z291">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>347</v>
       </c>
@@ -20965,8 +21668,14 @@
       <c r="X292">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y292">
+        <v>25.2</v>
+      </c>
+      <c r="Z292">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>349</v>
       </c>
@@ -21033,8 +21742,14 @@
       <c r="X293">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y293">
+        <v>20.8</v>
+      </c>
+      <c r="Z293">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>350</v>
       </c>
@@ -21093,7 +21808,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="V294">
-        <v>36.200000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="W294">
         <v>35.200000000000003</v>
@@ -21101,8 +21816,14 @@
       <c r="X294">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y294">
+        <v>35.1</v>
+      </c>
+      <c r="Z294">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>351</v>
       </c>
@@ -21166,8 +21887,14 @@
       <c r="X295">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y295">
+        <v>51</v>
+      </c>
+      <c r="Z295">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>352</v>
       </c>
@@ -21234,8 +21961,14 @@
       <c r="X296">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y296" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z296" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>354</v>
       </c>
@@ -21299,8 +22032,14 @@
       <c r="X297">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y297">
+        <v>28.8</v>
+      </c>
+      <c r="Z297">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>355</v>
       </c>
@@ -21364,8 +22103,14 @@
       <c r="X298">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y298" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z298">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>356</v>
       </c>
@@ -21429,8 +22174,14 @@
       <c r="X299">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y299">
+        <v>46.5</v>
+      </c>
+      <c r="Z299">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>357</v>
       </c>
@@ -21494,8 +22245,14 @@
       <c r="X300">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y300">
+        <v>47.2</v>
+      </c>
+      <c r="Z300">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>358</v>
       </c>
@@ -21559,8 +22316,14 @@
       <c r="X301">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y301">
+        <v>25.5</v>
+      </c>
+      <c r="Z301">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -21624,8 +22387,14 @@
       <c r="X302">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y302">
+        <v>42.4</v>
+      </c>
+      <c r="Z302">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>360</v>
       </c>
@@ -21689,8 +22458,14 @@
       <c r="X303">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y303">
+        <v>49.2</v>
+      </c>
+      <c r="Z303">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>361</v>
       </c>
@@ -21754,8 +22529,14 @@
       <c r="X304">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y304">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="Z304">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>362</v>
       </c>
@@ -21819,8 +22600,14 @@
       <c r="X305">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y305">
+        <v>53.6</v>
+      </c>
+      <c r="Z305">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>363</v>
       </c>
@@ -21887,8 +22674,14 @@
       <c r="X306">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y306">
+        <v>31.5</v>
+      </c>
+      <c r="Z306">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>365</v>
       </c>
@@ -21952,8 +22745,14 @@
       <c r="X307">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y307">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="Z307">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>366</v>
       </c>
@@ -22017,8 +22816,14 @@
       <c r="X308">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y308">
+        <v>37.1</v>
+      </c>
+      <c r="Z308">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>367</v>
       </c>
@@ -22077,13 +22882,19 @@
         <v>43.7</v>
       </c>
       <c r="W309">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="X309">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+        <v>43.5</v>
+      </c>
+      <c r="Y309">
+        <v>43.5</v>
+      </c>
+      <c r="Z309">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>368</v>
       </c>
@@ -22147,8 +22958,14 @@
       <c r="X310">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y310">
+        <v>56.5</v>
+      </c>
+      <c r="Z310">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>369</v>
       </c>
@@ -22212,8 +23029,14 @@
       <c r="X311">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y311">
+        <v>50.3</v>
+      </c>
+      <c r="Z311">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>370</v>
       </c>
@@ -22277,8 +23100,14 @@
       <c r="X312">
         <v>22</v>
       </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y312">
+        <v>24</v>
+      </c>
+      <c r="Z312">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>371</v>
       </c>
@@ -22342,8 +23171,14 @@
       <c r="X313">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y313">
+        <v>51</v>
+      </c>
+      <c r="Z313">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>372</v>
       </c>
@@ -22407,8 +23242,14 @@
       <c r="X314">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y314">
+        <v>51.7</v>
+      </c>
+      <c r="Z314">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>373</v>
       </c>
@@ -22475,8 +23316,14 @@
       <c r="X315">
         <v>30</v>
       </c>
-    </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y315" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z315" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>374</v>
       </c>
@@ -22540,8 +23387,14 @@
       <c r="X316">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y316">
+        <v>59.1</v>
+      </c>
+      <c r="Z316">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>375</v>
       </c>
@@ -22605,8 +23458,14 @@
       <c r="X317">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y317">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Z317">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>376</v>
       </c>
@@ -22670,8 +23529,14 @@
       <c r="X318">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y318">
+        <v>40.9</v>
+      </c>
+      <c r="Z318">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>377</v>
       </c>
@@ -22735,8 +23600,14 @@
       <c r="X319">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y319">
+        <v>34.5</v>
+      </c>
+      <c r="Z319">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>378</v>
       </c>
@@ -22800,8 +23671,14 @@
       <c r="X320">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y320">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Z320">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>379</v>
       </c>
@@ -22865,8 +23742,14 @@
       <c r="X321">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y321">
+        <v>43.2</v>
+      </c>
+      <c r="Z321">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>380</v>
       </c>
@@ -22933,8 +23816,14 @@
       <c r="X322">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y322">
+        <v>40.9</v>
+      </c>
+      <c r="Z322">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>382</v>
       </c>
@@ -22998,8 +23887,14 @@
       <c r="X323">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y323">
+        <v>65</v>
+      </c>
+      <c r="Z323">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>383</v>
       </c>
@@ -23063,8 +23958,14 @@
       <c r="X324">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y324">
+        <v>9.6</v>
+      </c>
+      <c r="Z324">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>384</v>
       </c>
@@ -23128,8 +24029,14 @@
       <c r="X325">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y325">
+        <v>57.2</v>
+      </c>
+      <c r="Z325">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>385</v>
       </c>
@@ -23196,8 +24103,14 @@
       <c r="X326" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y326" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z326" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>387</v>
       </c>
@@ -23264,8 +24177,14 @@
       <c r="X327" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y327" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z327" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>388</v>
       </c>
@@ -23329,8 +24248,14 @@
       <c r="X328">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y328">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z328">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>389</v>
       </c>
@@ -23392,10 +24317,16 @@
         <v>32.1</v>
       </c>
       <c r="X329">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+        <v>32.1</v>
+      </c>
+      <c r="Y329">
+        <v>32.1</v>
+      </c>
+      <c r="Z329">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>390</v>
       </c>
@@ -23462,8 +24393,14 @@
       <c r="X330">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y330">
+        <v>51.1</v>
+      </c>
+      <c r="Z330">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>392</v>
       </c>
@@ -23525,10 +24462,16 @@
         <v>30.5</v>
       </c>
       <c r="X331">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+        <v>30.6</v>
+      </c>
+      <c r="Y331">
+        <v>30.6</v>
+      </c>
+      <c r="Z331">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>393</v>
       </c>
@@ -23592,8 +24535,14 @@
       <c r="X332">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y332">
+        <v>28.1</v>
+      </c>
+      <c r="Z332">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>394</v>
       </c>
@@ -23657,8 +24606,14 @@
       <c r="X333">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y333">
+        <v>40.5</v>
+      </c>
+      <c r="Z333">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>395</v>
       </c>
@@ -23725,8 +24680,14 @@
       <c r="X334">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y334">
+        <v>37.4</v>
+      </c>
+      <c r="Z334">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>396</v>
       </c>
@@ -23790,8 +24751,14 @@
       <c r="X335">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y335">
+        <v>57</v>
+      </c>
+      <c r="Z335">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>397</v>
       </c>
@@ -23858,8 +24825,14 @@
       <c r="X336">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y336">
+        <v>24.2</v>
+      </c>
+      <c r="Z336">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>398</v>
       </c>
@@ -23923,8 +24896,14 @@
       <c r="X337">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y337">
+        <v>39.5</v>
+      </c>
+      <c r="Z337">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>399</v>
       </c>
@@ -23988,8 +24967,14 @@
       <c r="X338">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y338">
+        <v>53.5</v>
+      </c>
+      <c r="Z338">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>400</v>
       </c>
@@ -24053,8 +25038,14 @@
       <c r="X339">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y339">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Z339">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>401</v>
       </c>
@@ -24118,8 +25109,14 @@
       <c r="X340">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y340">
+        <v>34</v>
+      </c>
+      <c r="Z340">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>402</v>
       </c>
@@ -24183,8 +25180,14 @@
       <c r="X341">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y341">
+        <v>28.4</v>
+      </c>
+      <c r="Z341">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>403</v>
       </c>
@@ -24246,7 +25249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>404</v>
       </c>
@@ -24308,7 +25311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>406</v>
       </c>
@@ -24372,8 +25375,14 @@
       <c r="X344">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y344">
+        <v>30.3</v>
+      </c>
+      <c r="Z344">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>407</v>
       </c>
@@ -24432,13 +25441,19 @@
         <v>55.9</v>
       </c>
       <c r="W345">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="X345">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="Y345">
+        <v>56</v>
+      </c>
+      <c r="Z345">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>408</v>
       </c>
@@ -24502,8 +25517,14 @@
       <c r="X346">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y346">
+        <v>7.2</v>
+      </c>
+      <c r="Z346">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -24567,8 +25588,14 @@
       <c r="X347">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y347">
+        <v>37</v>
+      </c>
+      <c r="Z347">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>410</v>
       </c>
@@ -24632,8 +25659,14 @@
       <c r="X348">
         <v>30</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y348">
+        <v>30</v>
+      </c>
+      <c r="Z348">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>411</v>
       </c>
@@ -24697,8 +25730,14 @@
       <c r="X349">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y349">
+        <v>38.5</v>
+      </c>
+      <c r="Z349">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>412</v>
       </c>
@@ -24748,22 +25787,28 @@
         <v>29.8</v>
       </c>
       <c r="T350">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="U350">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="V350">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="W350">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="X350">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+        <v>32.1</v>
+      </c>
+      <c r="Y350">
+        <v>32.1</v>
+      </c>
+      <c r="Z350">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>413</v>
       </c>
@@ -24830,8 +25875,14 @@
       <c r="X351">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y351">
+        <v>41.6</v>
+      </c>
+      <c r="Z351">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>414</v>
       </c>
@@ -24898,8 +25949,14 @@
       <c r="X352">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y352">
+        <v>28.5</v>
+      </c>
+      <c r="Z352">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>415</v>
       </c>
@@ -24963,8 +26020,14 @@
       <c r="X353">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y353">
+        <v>29.1</v>
+      </c>
+      <c r="Z353">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>416</v>
       </c>
@@ -25028,8 +26091,14 @@
       <c r="X354">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y354" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z354">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>417</v>
       </c>
@@ -25093,8 +26162,14 @@
       <c r="X355">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y355">
+        <v>23.5</v>
+      </c>
+      <c r="Z355">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>418</v>
       </c>
@@ -25160,8 +26235,14 @@
         <f>22.8+37</f>
         <v>59.8</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y356">
+        <v>59.8</v>
+      </c>
+      <c r="Z356">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>419</v>
       </c>
@@ -25225,8 +26306,14 @@
       <c r="X357">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y357">
+        <v>58.7</v>
+      </c>
+      <c r="Z357">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>420</v>
       </c>
@@ -25279,7 +26366,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>423</v>
       </c>
@@ -25329,7 +26416,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>424</v>
       </c>
@@ -25382,7 +26469,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>425</v>
       </c>
@@ -25435,7 +26522,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>426</v>
       </c>
@@ -25488,7 +26575,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>427</v>
       </c>
@@ -25541,7 +26628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>428</v>
       </c>
@@ -25594,7 +26681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>429</v>
       </c>
@@ -25647,7 +26734,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>430</v>
       </c>
@@ -25700,7 +26787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>431</v>
       </c>
@@ -25753,7 +26840,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>432</v>
       </c>
@@ -25806,7 +26893,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>433</v>
       </c>
@@ -25859,7 +26946,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>434</v>
       </c>
@@ -25912,7 +26999,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>435</v>
       </c>
@@ -25965,7 +27052,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>436</v>
       </c>
@@ -26018,7 +27105,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>437</v>
       </c>
@@ -26071,7 +27158,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>438</v>
       </c>
@@ -26124,7 +27211,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>439</v>
       </c>
@@ -26177,7 +27264,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>440</v>
       </c>
@@ -26230,7 +27317,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>441</v>
       </c>
@@ -26283,7 +27370,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>442</v>
       </c>
@@ -26336,7 +27423,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>443</v>
       </c>
@@ -26389,7 +27476,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>444</v>
       </c>
@@ -26442,7 +27529,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>445</v>
       </c>
@@ -26495,7 +27582,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>446</v>
       </c>
@@ -26548,7 +27635,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>447</v>
       </c>
@@ -26601,7 +27688,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>448</v>
       </c>
@@ -26654,7 +27741,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>449</v>
       </c>
@@ -26707,7 +27794,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>450</v>
       </c>
@@ -26760,7 +27847,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>451</v>
       </c>
@@ -26813,7 +27900,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>452</v>
       </c>
@@ -26869,7 +27956,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>454</v>
       </c>
@@ -26922,7 +28009,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>455</v>
       </c>
@@ -26975,7 +28062,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>456</v>
       </c>
@@ -27028,7 +28115,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>457</v>
       </c>
@@ -27081,7 +28168,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>458</v>
       </c>
@@ -27134,7 +28221,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>459</v>
       </c>
@@ -27187,7 +28274,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>460</v>
       </c>
@@ -27243,7 +28330,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>462</v>
       </c>
@@ -27296,7 +28383,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>463</v>
       </c>
@@ -27349,7 +28436,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>464</v>
       </c>
@@ -27402,7 +28489,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>465</v>
       </c>
@@ -27455,7 +28542,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>466</v>
       </c>
@@ -27508,7 +28595,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>467</v>
       </c>
@@ -27561,7 +28648,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>468</v>
       </c>
@@ -27614,7 +28701,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>469</v>
       </c>
@@ -27667,7 +28754,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>470</v>
       </c>
@@ -27720,7 +28807,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>471</v>
       </c>
@@ -27776,7 +28863,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>472</v>
       </c>
@@ -27829,7 +28916,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>473</v>
       </c>
@@ -27882,7 +28969,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>474</v>
       </c>
@@ -27935,7 +29022,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>475</v>
       </c>
@@ -27988,7 +29075,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>476</v>
       </c>
@@ -28041,7 +29128,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>477</v>
       </c>
@@ -28094,7 +29181,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>478</v>
       </c>
@@ -28147,7 +29234,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>479</v>
       </c>
@@ -28200,7 +29287,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>480</v>
       </c>
@@ -28253,7 +29340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>481</v>
       </c>
@@ -28306,7 +29393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>482</v>
       </c>
@@ -28359,7 +29446,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>483</v>
       </c>
@@ -28412,7 +29499,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>484</v>
       </c>
@@ -28465,7 +29552,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>485</v>
       </c>
@@ -28518,7 +29605,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>486</v>
       </c>
@@ -28571,7 +29658,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>487</v>
       </c>
@@ -28624,7 +29711,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>488</v>
       </c>
@@ -28680,7 +29767,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>490</v>
       </c>
@@ -28733,7 +29820,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>491</v>
       </c>
@@ -28786,7 +29873,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>492</v>
       </c>
@@ -28839,7 +29926,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>493</v>
       </c>
@@ -28895,7 +29982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>495</v>
       </c>
@@ -28948,7 +30035,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>496</v>
       </c>
@@ -28998,7 +30085,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>497</v>
       </c>
@@ -29054,7 +30141,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>499</v>
       </c>
@@ -29107,7 +30194,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>500</v>
       </c>
@@ -29163,7 +30250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>502</v>
       </c>
@@ -29216,7 +30303,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>503</v>
       </c>
@@ -29269,7 +30356,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>504</v>
       </c>
@@ -29322,7 +30409,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>505</v>
       </c>
@@ -29375,7 +30462,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>506</v>
       </c>
@@ -29428,7 +30515,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>507</v>
       </c>
@@ -29481,7 +30568,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>508</v>
       </c>
@@ -29531,7 +30618,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>511</v>
       </c>
@@ -29581,7 +30668,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>512</v>
       </c>
@@ -29631,7 +30718,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>513</v>
       </c>
@@ -29681,7 +30768,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>514</v>
       </c>
@@ -29731,7 +30818,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>515</v>
       </c>
@@ -29781,7 +30868,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>516</v>
       </c>
@@ -29831,7 +30918,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>517</v>
       </c>
@@ -29881,7 +30968,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>518</v>
       </c>
@@ -29931,7 +31018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>519</v>
       </c>
@@ -29981,7 +31068,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>520</v>
       </c>
@@ -30031,7 +31118,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>521</v>
       </c>
@@ -30081,7 +31168,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>522</v>
       </c>
@@ -30131,7 +31218,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>523</v>
       </c>
@@ -30181,7 +31268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>524</v>
       </c>
@@ -30231,7 +31318,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>525</v>
       </c>
@@ -30281,7 +31368,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>526</v>
       </c>
@@ -30331,7 +31418,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>527</v>
       </c>
@@ -30381,7 +31468,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>528</v>
       </c>
@@ -30431,7 +31518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>529</v>
       </c>
@@ -30481,7 +31568,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>530</v>
       </c>
@@ -30531,7 +31618,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>531</v>
       </c>
@@ -30581,7 +31668,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>532</v>
       </c>
@@ -30631,7 +31718,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>533</v>
       </c>
@@ -30681,7 +31768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>534</v>
       </c>
@@ -30731,7 +31818,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>535</v>
       </c>
@@ -30784,7 +31871,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>537</v>
       </c>
@@ -30834,7 +31921,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>538</v>
       </c>
@@ -30887,7 +31974,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>539</v>
       </c>
@@ -30937,7 +32024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>540</v>
       </c>
@@ -30987,7 +32074,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>541</v>
       </c>
@@ -31037,7 +32124,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>542</v>
       </c>
@@ -31090,7 +32177,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>544</v>
       </c>
@@ -31140,7 +32227,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>545</v>
       </c>
@@ -31190,7 +32277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>546</v>
       </c>
@@ -31240,7 +32327,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>547</v>
       </c>
@@ -31290,7 +32377,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>548</v>
       </c>
@@ -31340,7 +32427,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>549</v>
       </c>
@@ -31390,7 +32477,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>550</v>
       </c>
@@ -31443,7 +32530,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>552</v>
       </c>
@@ -31493,7 +32580,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>553</v>
       </c>
@@ -31543,7 +32630,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>554</v>
       </c>
@@ -31593,7 +32680,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>555</v>
       </c>
@@ -31643,7 +32730,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>556</v>
       </c>
@@ -31681,7 +32768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>558</v>
       </c>
@@ -31731,7 +32818,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>559</v>
       </c>
@@ -31781,7 +32868,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>560</v>
       </c>
@@ -31831,7 +32918,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>561</v>
       </c>
@@ -31881,7 +32968,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>562</v>
       </c>
@@ -31931,7 +33018,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>563</v>
       </c>
@@ -31981,7 +33068,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>564</v>
       </c>
@@ -32031,7 +33118,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>565</v>
       </c>
@@ -32081,7 +33168,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>566</v>
       </c>
@@ -32131,7 +33218,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>567</v>
       </c>
@@ -32181,7 +33268,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>568</v>
       </c>
@@ -32231,7 +33318,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>569</v>
       </c>
@@ -32281,7 +33368,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>570</v>
       </c>
@@ -32331,7 +33418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>571</v>
       </c>
@@ -32381,7 +33468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>572</v>
       </c>
@@ -32431,7 +33518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>573</v>
       </c>
@@ -32481,7 +33568,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>574</v>
       </c>
@@ -32531,7 +33618,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>575</v>
       </c>
@@ -32581,7 +33668,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>576</v>
       </c>
@@ -32631,7 +33718,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>577</v>
       </c>
@@ -32681,7 +33768,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>578</v>
       </c>
@@ -32731,7 +33818,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>579</v>
       </c>
@@ -32781,7 +33868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>580</v>
       </c>
@@ -32834,7 +33921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>582</v>
       </c>
@@ -32884,7 +33971,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>583</v>
       </c>
@@ -32934,7 +34021,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>584</v>
       </c>
@@ -32984,7 +34071,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>585</v>
       </c>
@@ -33034,7 +34121,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>586</v>
       </c>
@@ -33084,7 +34171,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>587</v>
       </c>
@@ -33134,7 +34221,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>588</v>
       </c>
@@ -33184,7 +34271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>589</v>
       </c>
@@ -33234,7 +34321,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>590</v>
       </c>
@@ -33284,7 +34371,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>591</v>
       </c>
@@ -33334,7 +34421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>592</v>
       </c>
@@ -33384,7 +34471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>593</v>
       </c>
@@ -33434,7 +34521,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>594</v>
       </c>
@@ -33484,7 +34571,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>595</v>
       </c>
@@ -33534,7 +34621,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>596</v>
       </c>
@@ -33584,7 +34671,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>597</v>
       </c>
@@ -33634,7 +34721,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>598</v>
       </c>
@@ -33684,7 +34771,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>599</v>
       </c>
@@ -33734,7 +34821,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>600</v>
       </c>
@@ -33787,7 +34874,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>602</v>
       </c>
@@ -33837,7 +34924,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>603</v>
       </c>
@@ -33887,7 +34974,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>604</v>
       </c>
@@ -33937,7 +35024,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>605</v>
       </c>
@@ -33990,7 +35077,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>607</v>
       </c>
@@ -34010,7 +35097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>610</v>
       </c>
@@ -34044,8 +35131,11 @@
       <c r="X529">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z529">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>611</v>
       </c>
@@ -34065,7 +35155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>612</v>
       </c>
@@ -34099,8 +35189,11 @@
       <c r="X531">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z531">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>613</v>
       </c>
@@ -34134,8 +35227,11 @@
       <c r="X532">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z532">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>614</v>
       </c>
@@ -34169,8 +35265,11 @@
       <c r="X533">
         <v>2</v>
       </c>
-    </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z533">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>615</v>
       </c>
@@ -34204,8 +35303,11 @@
       <c r="X534">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z534">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>616</v>
       </c>
@@ -34239,8 +35341,11 @@
       <c r="X535">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z535">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>617</v>
       </c>
@@ -34274,8 +35379,11 @@
       <c r="X536">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z536">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>618</v>
       </c>
@@ -34309,8 +35417,11 @@
       <c r="X537">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z537">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>619</v>
       </c>
@@ -34330,7 +35441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>620</v>
       </c>
@@ -34364,8 +35475,11 @@
       <c r="X539">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z539">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>621</v>
       </c>
@@ -34385,7 +35499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>622</v>
       </c>
@@ -34419,8 +35533,11 @@
       <c r="X541">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z541">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>623</v>
       </c>
@@ -34454,8 +35571,11 @@
       <c r="X542">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z542">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>624</v>
       </c>
@@ -34475,7 +35595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>625</v>
       </c>
@@ -34509,8 +35629,11 @@
       <c r="X544">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z544">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>626</v>
       </c>
@@ -34544,8 +35667,11 @@
       <c r="X545">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z545">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>627</v>
       </c>
@@ -34579,8 +35705,11 @@
       <c r="X546">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z546">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>628</v>
       </c>
@@ -34614,8 +35743,11 @@
       <c r="X547">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z547">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>629</v>
       </c>
@@ -34649,8 +35781,11 @@
       <c r="X548">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z548">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>630</v>
       </c>
@@ -34684,8 +35819,11 @@
       <c r="X549">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z549">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="550" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>631</v>
       </c>
@@ -34719,8 +35857,11 @@
       <c r="X550">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>632</v>
       </c>
@@ -34754,8 +35895,11 @@
       <c r="X551" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z551">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="552" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>633</v>
       </c>
@@ -34775,7 +35919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>634</v>
       </c>
@@ -34809,8 +35953,11 @@
       <c r="X553">
         <v>4</v>
       </c>
-    </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>635</v>
       </c>
@@ -34844,8 +35991,11 @@
       <c r="X554">
         <v>3</v>
       </c>
-    </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z554">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>636</v>
       </c>
@@ -34879,8 +36029,11 @@
       <c r="X555">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>637</v>
       </c>
@@ -34914,8 +36067,11 @@
       <c r="X556">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z556">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>638</v>
       </c>
@@ -34935,7 +36091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>639</v>
       </c>
@@ -34969,8 +36125,11 @@
       <c r="X558">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z558">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>640</v>
       </c>
@@ -34986,6 +36145,9 @@
       <c r="E559" t="s">
         <v>609</v>
       </c>
+      <c r="F559" s="5" t="s">
+        <v>701</v>
+      </c>
       <c r="N559">
         <v>0.8</v>
       </c>
@@ -35004,8 +36166,11 @@
       <c r="X559">
         <v>8</v>
       </c>
-    </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z559">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>641</v>
       </c>
@@ -35025,7 +36190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>642</v>
       </c>
@@ -35045,7 +36210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>643</v>
       </c>
@@ -35065,7 +36230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>644</v>
       </c>
@@ -35099,8 +36264,11 @@
       <c r="X563">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>645</v>
       </c>
@@ -35120,7 +36288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>646</v>
       </c>
@@ -35154,8 +36322,11 @@
       <c r="X565">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z565">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>647</v>
       </c>
@@ -35189,8 +36360,11 @@
       <c r="X566">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z566">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>648</v>
       </c>
@@ -35224,8 +36398,11 @@
       <c r="X567">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z567">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>649</v>
       </c>
@@ -35241,6 +36418,9 @@
       <c r="E568" t="s">
         <v>609</v>
       </c>
+      <c r="F568" s="5" t="s">
+        <v>701</v>
+      </c>
       <c r="N568">
         <v>0.5</v>
       </c>
@@ -35259,8 +36439,11 @@
       <c r="X568">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z568">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>650</v>
       </c>
@@ -35280,7 +36463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>651</v>
       </c>
@@ -35314,8 +36497,11 @@
       <c r="X570">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z570">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>652</v>
       </c>
@@ -35349,8 +36535,11 @@
       <c r="X571">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z571">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>653</v>
       </c>
@@ -35384,8 +36573,11 @@
       <c r="X572">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z572">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>654</v>
       </c>
@@ -35419,8 +36611,11 @@
       <c r="X573">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z573">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>655</v>
       </c>
@@ -35440,7 +36635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>656</v>
       </c>
@@ -35460,7 +36655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>657</v>
       </c>
@@ -35480,7 +36675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>658</v>
       </c>
@@ -35514,8 +36709,11 @@
       <c r="X577">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z577">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>659</v>
       </c>
@@ -35549,8 +36747,11 @@
       <c r="X578">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>660</v>
       </c>
@@ -35584,8 +36785,11 @@
       <c r="X579">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z579">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>661</v>
       </c>
@@ -35619,8 +36823,11 @@
       <c r="X580">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z580">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="581" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>662</v>
       </c>
@@ -35654,8 +36861,11 @@
       <c r="X581">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z581">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>663</v>
       </c>
@@ -35689,8 +36899,11 @@
       <c r="X582">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z582">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>664</v>
       </c>
@@ -35724,8 +36937,11 @@
       <c r="X583">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z583">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>665</v>
       </c>
@@ -35759,8 +36975,11 @@
       <c r="X584">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z584">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>666</v>
       </c>
@@ -35794,8 +37013,11 @@
       <c r="X585">
         <v>3</v>
       </c>
-    </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>667</v>
       </c>
@@ -35829,8 +37051,11 @@
       <c r="X586">
         <v>6</v>
       </c>
-    </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z586">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>668</v>
       </c>
@@ -35850,7 +37075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>669</v>
       </c>
@@ -35884,8 +37109,11 @@
       <c r="X588">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z588">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>670</v>
       </c>
@@ -35905,7 +37133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>671</v>
       </c>
@@ -35925,7 +37153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>672</v>
       </c>
@@ -35945,7 +37173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>673</v>
       </c>
@@ -35979,8 +37207,11 @@
       <c r="X592">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z592">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>674</v>
       </c>
@@ -36014,8 +37245,11 @@
       <c r="X593">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z593">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>675</v>
       </c>
@@ -36049,8 +37283,11 @@
       <c r="X594">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z594">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>676</v>
       </c>
@@ -36070,7 +37307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>677</v>
       </c>
@@ -36104,8 +37341,11 @@
       <c r="X596">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z596">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="597" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>678</v>
       </c>
@@ -36125,7 +37365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>679</v>
       </c>
@@ -36145,7 +37385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>680</v>
       </c>
@@ -36179,8 +37419,11 @@
       <c r="X599">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z599">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>681</v>
       </c>
@@ -36214,8 +37457,11 @@
       <c r="X600">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z600">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>682</v>
       </c>
@@ -36249,8 +37495,11 @@
       <c r="X601">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z601">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>683</v>
       </c>
@@ -36284,8 +37533,11 @@
       <c r="X602">
         <v>4</v>
       </c>
-    </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z602">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>684</v>
       </c>
@@ -36319,8 +37571,11 @@
       <c r="X603">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z603">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>685</v>
       </c>
@@ -36354,8 +37609,11 @@
       <c r="X604">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z604">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>686</v>
       </c>
@@ -36389,8 +37647,11 @@
       <c r="X605">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z605">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>687</v>
       </c>
@@ -36410,7 +37671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>688</v>
       </c>
@@ -36444,8 +37705,11 @@
       <c r="X607">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z607">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>689</v>
       </c>
@@ -36479,8 +37743,11 @@
       <c r="X608">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z608">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>690</v>
       </c>
@@ -36514,8 +37781,11 @@
       <c r="X609">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z609">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>691</v>
       </c>
@@ -36549,8 +37819,11 @@
       <c r="X610">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>692</v>
       </c>
@@ -36584,8 +37857,11 @@
       <c r="X611">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z611">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>693</v>
       </c>
@@ -36619,8 +37895,11 @@
       <c r="X612">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z612">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>694</v>
       </c>
@@ -36654,8 +37933,11 @@
       <c r="X613">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z613">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>695</v>
       </c>
@@ -36689,8 +37971,11 @@
       <c r="X614">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z614">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>696</v>
       </c>
@@ -36724,8 +38009,11 @@
       <c r="X615">
         <v>4</v>
       </c>
-    </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z615">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>697</v>
       </c>
@@ -36759,8 +38047,12 @@
       <c r="X616">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z616">
+        <v>5.5</v>
+      </c>
+      <c r="AA616" s="5"/>
+    </row>
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>698</v>
       </c>
@@ -36794,8 +38086,12 @@
       <c r="X617">
         <v>5</v>
       </c>
+      <c r="Z617">
+        <v>5.3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
